--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6853" uniqueCount="5115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="5145">
   <si>
     <t>Эмитент</t>
   </si>
@@ -14120,18 +14120,6 @@
     <t>24/06/2017</t>
   </si>
   <si>
-    <t>11/05/2017</t>
-  </si>
-  <si>
-    <t>01/02/2024</t>
-  </si>
-  <si>
-    <t>22/08/2017</t>
-  </si>
-  <si>
-    <t>18/02/2020</t>
-  </si>
-  <si>
     <t>29/09/2017</t>
   </si>
   <si>
@@ -14144,24 +14132,12 @@
     <t>08/11/2017</t>
   </si>
   <si>
-    <t>29/05/2015</t>
-  </si>
-  <si>
     <t>30/06/2017</t>
   </si>
   <si>
     <t>22/03/2018</t>
   </si>
   <si>
-    <t>14/07/2016</t>
-  </si>
-  <si>
-    <t>24/05/2017</t>
-  </si>
-  <si>
-    <t>28/05/2017</t>
-  </si>
-  <si>
     <t>19/07/2017</t>
   </si>
   <si>
@@ -14171,30 +14147,12 @@
     <t>03/05/2016</t>
   </si>
   <si>
-    <t>12/07/2017</t>
-  </si>
-  <si>
-    <t>07/08/2017</t>
-  </si>
-  <si>
     <t>05/03/2018</t>
   </si>
   <si>
     <t>29/09/2016</t>
   </si>
   <si>
-    <t>13/04/2017</t>
-  </si>
-  <si>
-    <t>19/12/2016</t>
-  </si>
-  <si>
-    <t>22/06/2017</t>
-  </si>
-  <si>
-    <t>07/11/2017</t>
-  </si>
-  <si>
     <t>20/04/2017</t>
   </si>
   <si>
@@ -15366,6 +15324,138 @@
   </si>
   <si>
     <t>Client</t>
+  </si>
+  <si>
+    <t>isin</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>RUALR RM Equity</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t>AGRO EB Equity</t>
+  </si>
+  <si>
+    <t>12/04/2017</t>
+  </si>
+  <si>
+    <t>MVID RM Equity</t>
+  </si>
+  <si>
+    <t>SIBN RM Equity</t>
+  </si>
+  <si>
+    <t>23/06/2017</t>
+  </si>
+  <si>
+    <t>15/08/2017</t>
+  </si>
+  <si>
+    <t>LSRG RM Equity</t>
+  </si>
+  <si>
+    <t>19/06/2017</t>
+  </si>
+  <si>
+    <t>ALRS RM Equity</t>
+  </si>
+  <si>
+    <t>MFON RM Equity</t>
+  </si>
+  <si>
+    <t>NMTP RM Equity</t>
+  </si>
+  <si>
+    <t>26/05/2017</t>
+  </si>
+  <si>
+    <t>15/05/2017</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>GAZP RM Equity</t>
+  </si>
+  <si>
+    <t>09/04/2018</t>
+  </si>
+  <si>
+    <t>LKOH RM Equity</t>
+  </si>
+  <si>
+    <t>07/07/2017</t>
+  </si>
+  <si>
+    <t>27/10/2017</t>
+  </si>
+  <si>
+    <t>TT343269     Corp</t>
+  </si>
+  <si>
+    <t>Bond</t>
+  </si>
+  <si>
+    <t>XS1513280757 Corp</t>
+  </si>
+  <si>
+    <t>XS1513280757</t>
+  </si>
+  <si>
+    <t>14/07/2017</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t>14/09/2017</t>
+  </si>
+  <si>
+    <t>22/11/2017</t>
+  </si>
+  <si>
+    <t>24/07/2017</t>
+  </si>
+  <si>
+    <t>20/01/2020</t>
+  </si>
+  <si>
+    <t>28/06/2017</t>
+  </si>
+  <si>
+    <t>14/06/2017</t>
+  </si>
+  <si>
+    <t>EJ545131 Corp</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>15/11/2017</t>
+  </si>
+  <si>
+    <t>RU000A0JXFM1 Corp</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>RU000A0JXQ85 Corp</t>
+  </si>
+  <si>
+    <t>RU000A0JXQ85</t>
+  </si>
+  <si>
+    <t>25/05/2017</t>
   </si>
 </sst>
 </file>
@@ -16535,7 +16625,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
+      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16575,7 +16665,7 @@
         <v>13</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>5114</v>
+        <v>5100</v>
       </c>
       <c r="H2" s="40"/>
       <c r="L2" s="48" t="s">
@@ -16605,19 +16695,19 @@
       </c>
       <c r="L3" s="50">
         <f>M3/P55</f>
-        <v>0.45976172150973577</v>
+        <v>0.33891547014697598</v>
       </c>
       <c r="M3" s="53">
         <f>P32</f>
-        <v>978482.94214456959</v>
+        <v>2344660.3257740242</v>
       </c>
       <c r="N3" s="52">
         <f>P53</f>
-        <v>1149756.3095519193</v>
+        <v>4573466.8543078583</v>
       </c>
       <c r="O3" s="51">
         <f>N3/P55</f>
-        <v>0.54023827849026429</v>
+        <v>0.66108452985302402</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -16669,11 +16759,11 @@
       </c>
       <c r="M5" s="45">
         <f>D3*30%-M3</f>
-        <v>6521517.0578554301</v>
+        <v>5155339.6742259758</v>
       </c>
       <c r="N5" s="45">
         <f>D3*70%-N3</f>
-        <v>16350243.690448081</v>
+        <v>12926533.145692142</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -16778,980 +16868,980 @@
     <row r="9" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="str">
         <f>IF(LEFT(C9,2) = "RU", VLOOKUP(C9,MICEX!$A:$D,4,FALSE),VLOOKUP(C9,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>Yandex NV</v>
+        <v>VEON Ltd</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>57</v>
+        <v>4666</v>
       </c>
       <c r="D9" s="7">
         <f t="shared" ref="D9:D23" si="0">R9/$R$55</f>
-        <v>2.6930348826949207E-2</v>
+        <v>1.9360789804087713E-2</v>
       </c>
       <c r="E9" s="36">
-        <f>VLOOKUP(C9,Data!$A:$P,4,FALSE)</f>
-        <v>2330</v>
+        <f>VLOOKUP(C9,Data!$B:$P,4,FALSE)</f>
+        <v>35950</v>
       </c>
       <c r="F9" s="36">
         <f>$J$5-P9</f>
-        <v>2447952.0835564332</v>
+        <v>2362354.4367009881</v>
       </c>
       <c r="G9" s="57">
-        <f>VLOOKUP(C9,Data!$A:$P,3,FALSE)</f>
-        <v>22.338161563762544</v>
+        <f>VLOOKUP(C9,Data!$B:$P,3,FALSE)</f>
+        <v>3.8288056550490075</v>
       </c>
       <c r="H9" s="56">
-        <f>VLOOKUP(C9,Data!$A:$P,2,FALSE)</f>
-        <v>27.330000273299998</v>
+        <f>VLOOKUP(C9,Data!$B:$P,2,FALSE)</f>
+        <v>3.8700000386999998</v>
       </c>
       <c r="I9" s="9">
-        <f>VLOOKUP(C9,Data!$A:$P,12,FALSE)</f>
-        <v>26.539688110351563</v>
+        <f>VLOOKUP(C9,Data!$B:$P,12,FALSE)</f>
+        <v>5.315333366394043</v>
       </c>
       <c r="J9" s="10">
         <f>IF(I9&gt;0,I9/H9-1,0)</f>
-        <v>-2.8917385841394583E-2</v>
+        <v>0.37347114037227658</v>
       </c>
       <c r="K9" s="9">
-        <f>VLOOKUP(C9,Data!$A:$P,11,FALSE)</f>
-        <v>4.0999999046325684</v>
+        <f>VLOOKUP(C9,Data!$B:$P,11,FALSE)</f>
+        <v>4.5789475440979004</v>
       </c>
       <c r="L9" s="11" t="str">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C9,Data!$B:$P,10,FALSE)</f>
         <v>USD</v>
       </c>
       <c r="M9" s="7">
         <f t="shared" ref="M9:M10" si="1">IF(O9&gt;0,Q9/O9-1,0)</f>
-        <v>0.19773744234061819</v>
+        <v>1.9033343700742167E-2</v>
       </c>
       <c r="N9" s="7">
         <f t="shared" ref="N9:N10" si="2">IF(P9&gt;0,R9/P9-1,0)</f>
-        <v>0.22346685492844331</v>
+        <v>1.0759068848707587E-2</v>
       </c>
       <c r="O9" s="36">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2993941.8880000003</v>
+        <f>VLOOKUP(C9,Data!$B:$P,8,FALSE)</f>
+        <v>7803963.1322999997</v>
       </c>
       <c r="P9" s="36">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>52047.916443566726</v>
+        <f>VLOOKUP(C9,Data!$B:$P,7,FALSE)</f>
+        <v>137645.56329901182</v>
       </c>
       <c r="Q9" s="36">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>3585956.2994495621</v>
+        <f>VLOOKUP(C9,Data!$B:$P,6,FALSE)</f>
+        <v>7952498.6448249863</v>
       </c>
       <c r="R9" s="36">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>63678.900636788989</v>
+        <f>VLOOKUP(C9,Data!$B:$P,5,FALSE)</f>
+        <v>139126.50139126502</v>
       </c>
       <c r="S9" s="36">
         <f>Q9-O9</f>
-        <v>592014.41144956183</v>
+        <v>148535.51252498664</v>
       </c>
       <c r="T9" s="36">
         <f t="shared" ref="T9:T13" si="3">R9-P9</f>
-        <v>11630.984193222263</v>
+        <v>1480.9380922532</v>
       </c>
       <c r="U9" s="37">
-        <f>VLOOKUP(C9,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C9,Data!$B:$P,14,FALSE)</f>
+        <v>5.9431524547803622</v>
       </c>
       <c r="V9" s="58" t="str">
-        <f>IF(VLOOKUP(C9,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C9,Data!$A$2:$P$100,15,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C9,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C9,Data!$B:$P,15,FALSE))</f>
+        <v>28/03/2017</v>
       </c>
       <c r="W9" s="58" t="str">
-        <f>IF(VLOOKUP(C9,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C9,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C9,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C9,Data!$B:$P,15,FALSE))</f>
+        <v>28/03/2017</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="str">
         <f>IF(LEFT(C10,2) = "RU", VLOOKUP(C10,MICEX!$A:$D,4,FALSE),VLOOKUP(C10,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>VEON Ltd</v>
+        <v>Ros Agro PLC</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>4666</v>
+        <v>48</v>
       </c>
       <c r="D10" s="7">
         <f t="shared" si="0"/>
-        <v>2.1911947263478261E-2</v>
+        <v>1.7828433732974644E-2</v>
       </c>
       <c r="E10" s="36">
-        <f>VLOOKUP(C10,Data!$A:$P,4,FALSE)</f>
-        <v>12500</v>
+        <f>VLOOKUP(C10,Data!$B:$P,4,FALSE)</f>
+        <v>10950</v>
       </c>
       <c r="F10" s="36">
         <f t="shared" ref="F10" si="4">$J$5-P10</f>
-        <v>2450000</v>
+        <v>2365112.1407935233</v>
       </c>
       <c r="G10" s="57">
-        <f>VLOOKUP(C10,Data!$A:$P,3,FALSE)</f>
-        <v>4</v>
+        <f>VLOOKUP(C10,Data!$B:$P,3,FALSE)</f>
+        <v>12.318525954929372</v>
       </c>
       <c r="H10" s="56">
-        <f>VLOOKUP(C10,Data!$A:$P,2,FALSE)</f>
-        <v>4.1450000414499995</v>
+        <f>VLOOKUP(C10,Data!$B:$P,2,FALSE)</f>
+        <v>11.700000116999998</v>
       </c>
       <c r="I10" s="9">
-        <f>VLOOKUP(C10,Data!$A:$P,12,FALSE)</f>
-        <v>5.445624828338623</v>
+        <f>VLOOKUP(C10,Data!$B:$P,12,FALSE)</f>
+        <v>15.971428871154785</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" ref="J10" si="5">IF(I10&gt;0,I10/H10-1,0)</f>
-        <v>0.31378161010431271</v>
+        <v>0.36507937704619664</v>
       </c>
       <c r="K10" s="9">
-        <f>VLOOKUP(C10,Data!$A:$P,11,FALSE)</f>
-        <v>4.5789475440979004</v>
+        <f>VLOOKUP(C10,Data!$B:$P,11,FALSE)</f>
+        <v>4</v>
       </c>
       <c r="L10" s="11" t="str">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C10,Data!$B:$P,10,FALSE)</f>
         <v>USD</v>
       </c>
       <c r="M10" s="7">
         <f t="shared" si="1"/>
-        <v>-1.4572567209224063E-2</v>
+        <v>-4.2261871705961074E-2</v>
       </c>
       <c r="N10" s="7">
         <f t="shared" si="2"/>
-        <v>3.6250010362499863E-2</v>
+        <v>-5.0211026886854304E-2</v>
       </c>
       <c r="O10" s="36">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2960870</v>
+        <f>VLOOKUP(C10,Data!$B:$P,8,FALSE)</f>
+        <v>7646222.7825000007</v>
       </c>
       <c r="P10" s="36">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>50000</v>
+        <f>VLOOKUP(C10,Data!$B:$P,7,FALSE)</f>
+        <v>134887.8592064766</v>
       </c>
       <c r="Q10" s="36">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2917722.5229272246</v>
+        <f>VLOOKUP(C10,Data!$B:$P,6,FALSE)</f>
+        <v>7323079.0962307891</v>
       </c>
       <c r="R10" s="36">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>51812.500518124994</v>
+        <f>VLOOKUP(C10,Data!$B:$P,5,FALSE)</f>
+        <v>128115.00128114998</v>
       </c>
       <c r="S10" s="36">
         <f t="shared" ref="S10:S13" si="6">Q10-O10</f>
-        <v>-43147.477072775364</v>
+        <v>-323143.68626921158</v>
       </c>
       <c r="T10" s="36">
         <f t="shared" si="3"/>
-        <v>1812.5005181249944</v>
+        <v>-6772.8579253266216</v>
       </c>
       <c r="U10" s="37">
-        <f>VLOOKUP(C10,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>4.704463036126481</v>
+        <f>VLOOKUP(C10,Data!$B:$P,14,FALSE)</f>
+        <v>9.9145296292427272</v>
       </c>
       <c r="V10" s="58" t="str">
-        <f>IF(VLOOKUP(C10,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C10,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>28/03/2017</v>
+        <f>IF(VLOOKUP(C10,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C10,Data!$B:$P,15,FALSE))</f>
+        <v>12/04/2017</v>
       </c>
       <c r="W10" s="58" t="str">
-        <f>IF(VLOOKUP(C10,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C10,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>08/11/2017</v>
+        <f>IF(VLOOKUP(C10,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C10,Data!$B:$P,15,FALSE))</f>
+        <v>12/04/2017</v>
       </c>
     </row>
     <row r="11" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="str">
         <f>IF(LEFT(C11,2) = "RU", VLOOKUP(C11,MICEX!$A:$D,4,FALSE),VLOOKUP(C11,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>KazMunaiGas Exploration Produc</v>
+        <v>Yandex NV</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>4669</v>
+        <v>57</v>
       </c>
       <c r="D11" s="7">
         <f t="shared" si="0"/>
-        <v>2.1741726587511074E-2</v>
+        <v>1.5847496651533018E-2</v>
       </c>
       <c r="E11" s="36">
-        <f>VLOOKUP(C11,Data!$A:$P,4,FALSE)</f>
-        <v>5300</v>
+        <f>VLOOKUP(C11,Data!$B:$P,4,FALSE)</f>
+        <v>4000</v>
       </c>
       <c r="F11" s="36">
         <f t="shared" ref="F11" si="7">$J$5-P11</f>
-        <v>2448420.1650351915</v>
+        <v>2410651.4226080491</v>
       </c>
       <c r="G11" s="57">
-        <f>VLOOKUP(C11,Data!$A:$P,3,FALSE)</f>
-        <v>9.7320443329827686</v>
+        <f>VLOOKUP(C11,Data!$B:$P,3,FALSE)</f>
+        <v>22.337144347987682</v>
       </c>
       <c r="H11" s="56">
-        <f>VLOOKUP(C11,Data!$A:$P,2,FALSE)</f>
-        <v>9.7000000969999984</v>
+        <f>VLOOKUP(C11,Data!$B:$P,2,FALSE)</f>
+        <v>28.470000284699996</v>
       </c>
       <c r="I11" s="9">
-        <f>VLOOKUP(C11,Data!$A:$P,12,FALSE)</f>
-        <v>12.428571701049805</v>
+        <f>VLOOKUP(C11,Data!$B:$P,12,FALSE)</f>
+        <v>27.668838500976563</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" ref="J11" si="8">IF(I11&gt;0,I11/H11-1,0)</f>
-        <v>0.28129603884165877</v>
+        <v>-2.8140561141967502E-2</v>
       </c>
       <c r="K11" s="9">
-        <f>VLOOKUP(C11,Data!$A:$P,11,FALSE)</f>
-        <v>4.1111111640930176</v>
+        <f>VLOOKUP(C11,Data!$B:$P,11,FALSE)</f>
+        <v>4.0555553436279297</v>
       </c>
       <c r="L11" s="11" t="str">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C11,Data!$B:$P,10,FALSE)</f>
         <v>USD</v>
       </c>
       <c r="M11" s="7">
         <f t="shared" ref="M11" si="9">IF(O11&gt;0,Q11/O11-1,0)</f>
-        <v>-3.3892104812424884E-2</v>
+        <v>0.30188072821880718</v>
       </c>
       <c r="N11" s="7">
         <f t="shared" ref="N11" si="10">IF(P11&gt;0,R11/P11-1,0)</f>
-        <v>-3.2926520766215495E-3</v>
+        <v>0.2745586383455858</v>
       </c>
       <c r="O11" s="36">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2996618.1980000003</v>
+        <f>VLOOKUP(C11,Data!$B:$P,8,FALSE)</f>
+        <v>5000000</v>
       </c>
       <c r="P11" s="36">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>51579.834964808673</v>
+        <f>VLOOKUP(C11,Data!$B:$P,7,FALSE)</f>
+        <v>89348.577391950777</v>
       </c>
       <c r="Q11" s="36">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2895056.4999505645</v>
+        <f>VLOOKUP(C11,Data!$B:$P,6,FALSE)</f>
+        <v>6509403.6410940355</v>
       </c>
       <c r="R11" s="36">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>51410.0005141</v>
+        <f>VLOOKUP(C11,Data!$B:$P,5,FALSE)</f>
+        <v>113880.00113879998</v>
       </c>
       <c r="S11" s="36">
         <f t="shared" si="6"/>
-        <v>-101561.69804943586</v>
+        <v>1509403.6410940355</v>
       </c>
       <c r="T11" s="36">
         <f t="shared" si="3"/>
-        <v>-169.8344507086731</v>
+        <v>24531.423746849207</v>
       </c>
       <c r="U11" s="37">
-        <f>VLOOKUP(C11,Data!$A$2:$P$100,14,FALSE)</f>
+        <f>VLOOKUP(C11,Data!$B:$P,14,FALSE)</f>
         <v>0</v>
       </c>
       <c r="V11" s="58" t="str">
-        <f>IF(VLOOKUP(C11,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C11,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>29/05/2015</v>
+        <f>IF(VLOOKUP(C11,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C11,Data!$B:$P,15,FALSE))</f>
+        <v/>
       </c>
       <c r="W11" s="58" t="str">
-        <f>IF(VLOOKUP(C11,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C11,Data!$A$2:$P$100,16,FALSE))</f>
+        <f>IF(VLOOKUP(C11,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C11,Data!$B:$P,15,FALSE))</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="str">
         <f>IF(LEFT(C12,2) = "RU", VLOOKUP(C12,MICEX!$A:$D,4,FALSE),VLOOKUP(C12,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>М.видео</v>
+        <v>KazMunaiGas Exploration Produc</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>399</v>
+        <v>4669</v>
       </c>
       <c r="D12" s="7">
         <f t="shared" si="0"/>
-        <v>6.0276353046890663E-2</v>
+        <v>1.181743427861068E-2</v>
       </c>
       <c r="E12" s="36">
-        <f>VLOOKUP(C12,Data!$A:$P,4,FALSE)</f>
-        <v>21000</v>
+        <f>VLOOKUP(C12,Data!$B:$P,4,FALSE)</f>
+        <v>8800</v>
       </c>
       <c r="F12" s="36">
         <f t="shared" ref="F12:F13" si="11">$J$5-P12</f>
-        <v>2357471.8848722586</v>
+        <v>2411050.2525829733</v>
       </c>
       <c r="G12" s="57">
-        <f>VLOOKUP(C12,Data!$A:$P,3,FALSE)</f>
-        <v>382.2</v>
+        <f>VLOOKUP(C12,Data!$B:$P,3,FALSE)</f>
+        <v>10.107925842843956</v>
       </c>
       <c r="H12" s="56">
-        <f>VLOOKUP(C12,Data!$A:$P,2,FALSE)</f>
-        <v>382.20000382199999</v>
+        <f>VLOOKUP(C12,Data!$B:$P,2,FALSE)</f>
+        <v>9.6500000964999995</v>
       </c>
       <c r="I12" s="9">
-        <f>VLOOKUP(C12,Data!$A:$P,12,FALSE)</f>
-        <v>412.79998779296875</v>
+        <f>VLOOKUP(C12,Data!$B:$P,12,FALSE)</f>
+        <v>12.428571701049805</v>
       </c>
       <c r="J12" s="10">
         <f t="shared" ref="J12:J13" si="12">IF(I12&gt;0,I12/H12-1,0)</f>
-        <v>8.0062751609023985E-2</v>
+        <v>0.28793487842114929</v>
       </c>
       <c r="K12" s="9">
-        <f>VLOOKUP(C12,Data!$A:$P,11,FALSE)</f>
-        <v>3.4000000953674316</v>
+        <f>VLOOKUP(C12,Data!$B:$P,11,FALSE)</f>
+        <v>4.1111111640930176</v>
       </c>
       <c r="L12" s="11" t="str">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,10,FALSE)</f>
-        <v>RUB</v>
+        <f>VLOOKUP(C12,Data!$B:$P,10,FALSE)</f>
+        <v>USD</v>
       </c>
       <c r="M12" s="7">
         <f t="shared" ref="M12:M13" si="13">IF(O12&gt;0,Q12/O12-1,0)</f>
-        <v>9.9999999392252903E-9</v>
+        <v>-3.3068163384006977E-2</v>
       </c>
       <c r="N12" s="7">
         <f t="shared" ref="N12:N13" si="14">IF(P12&gt;0,R12/P12-1,0)</f>
-        <v>9.9999999392252903E-9</v>
+        <v>-4.5303631374397968E-2</v>
       </c>
       <c r="O12" s="36">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>8026200</v>
+        <f>VLOOKUP(C12,Data!$B:$P,8,FALSE)</f>
+        <v>5020048</v>
       </c>
       <c r="P12" s="36">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>142528.11512774116</v>
+        <f>VLOOKUP(C12,Data!$B:$P,7,FALSE)</f>
+        <v>88949.747417026796</v>
       </c>
       <c r="Q12" s="36">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>8026200.0802619997</v>
+        <f>VLOOKUP(C12,Data!$B:$P,6,FALSE)</f>
+        <v>4854044.2325404426</v>
       </c>
       <c r="R12" s="36">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>142528.11655302229</v>
+        <f>VLOOKUP(C12,Data!$B:$P,5,FALSE)</f>
+        <v>84920.000849200005</v>
       </c>
       <c r="S12" s="36">
         <f t="shared" si="6"/>
-        <v>8.0261999741196632E-2</v>
+        <v>-166003.76745955739</v>
       </c>
       <c r="T12" s="36">
         <f t="shared" si="3"/>
-        <v>1.425281137926504E-3</v>
+        <v>-4029.7465678267909</v>
       </c>
       <c r="U12" s="37">
-        <f>VLOOKUP(C12,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C12,Data!$B:$P,14,FALSE)</f>
+        <v>1.5931503142717587</v>
       </c>
       <c r="V12" s="58" t="str">
-        <f>IF(VLOOKUP(C12,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C12,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>30/06/2017</v>
+        <f>IF(VLOOKUP(C12,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C12,Data!$B:$P,15,FALSE))</f>
+        <v>01/06/2017</v>
       </c>
       <c r="W12" s="58" t="str">
-        <f>IF(VLOOKUP(C12,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C12,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>22/03/2018</v>
+        <f>IF(VLOOKUP(C12,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C12,Data!$B:$P,15,FALSE))</f>
+        <v>01/06/2017</v>
       </c>
     </row>
     <row r="13" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="str">
         <f>IF(LEFT(C13,2) = "RU", VLOOKUP(C13,MICEX!$A:$D,4,FALSE),VLOOKUP(C13,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>Башнефт ап</v>
+        <v>М.видео</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>153</v>
+        <v>399</v>
       </c>
       <c r="D13" s="7">
         <f t="shared" si="0"/>
-        <v>3.5653576978461353E-2</v>
+        <v>0.12227787700929059</v>
       </c>
       <c r="E13" s="36">
-        <f>VLOOKUP(C13,Data!$A:$P,4,FALSE)</f>
-        <v>3725</v>
+        <f>VLOOKUP(C13,Data!$B:$P,4,FALSE)</f>
+        <v>129850</v>
       </c>
       <c r="F13" s="36">
         <f t="shared" si="11"/>
-        <v>2418147.6579089072</v>
+        <v>1621976.5683467104</v>
       </c>
       <c r="G13" s="57">
-        <f>VLOOKUP(C13,Data!$A:$P,3,FALSE)</f>
-        <v>1289.1397704697986</v>
+        <f>VLOOKUP(C13,Data!$B:$P,3,FALSE)</f>
+        <v>383.37481709664996</v>
       </c>
       <c r="H13" s="56">
-        <f>VLOOKUP(C13,Data!$A:$P,2,FALSE)</f>
-        <v>1274.5000127449998</v>
+        <f>VLOOKUP(C13,Data!$B:$P,2,FALSE)</f>
+        <v>386.80000386799998</v>
       </c>
       <c r="I13" s="9">
-        <f>VLOOKUP(C13,Data!$A:$P,12,FALSE)</f>
-        <v>1839.0594482421875</v>
+        <f>VLOOKUP(C13,Data!$B:$P,12,FALSE)</f>
+        <v>412.79998779296875</v>
       </c>
       <c r="J13" s="10">
         <f t="shared" si="12"/>
-        <v>0.44296542161757047</v>
+        <v>6.7218158389268146E-2</v>
       </c>
       <c r="K13" s="9">
-        <f>VLOOKUP(C13,Data!$A:$P,11,FALSE)</f>
-        <v>3.5</v>
+        <f>VLOOKUP(C13,Data!$B:$P,11,FALSE)</f>
+        <v>3.4000000953674316</v>
       </c>
       <c r="L13" s="11" t="str">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C13,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M13" s="7">
         <f t="shared" si="13"/>
-        <v>-1.1356222234508717E-2</v>
+        <v>8.9343029813211405E-3</v>
       </c>
       <c r="N13" s="7">
         <f t="shared" si="14"/>
-        <v>2.9972371062089831E-2</v>
+        <v>7.568651487914746E-4</v>
       </c>
       <c r="O13" s="36">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>4802045.6449999996</v>
+        <f>VLOOKUP(C13,Data!$B:$P,8,FALSE)</f>
+        <v>49781220</v>
       </c>
       <c r="P13" s="36">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>81852.342091092651</v>
+        <f>VLOOKUP(C13,Data!$B:$P,7,FALSE)</f>
+        <v>878023.43165328971</v>
       </c>
       <c r="Q13" s="36">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>4747512.5474751247</v>
+        <f>VLOOKUP(C13,Data!$B:$P,6,FALSE)</f>
+        <v>50225980.502259798</v>
       </c>
       <c r="R13" s="36">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>84305.65086054799</v>
+        <f>VLOOKUP(C13,Data!$B:$P,5,FALSE)</f>
+        <v>878687.97698853037</v>
       </c>
       <c r="S13" s="36">
         <f t="shared" si="6"/>
-        <v>-54533.097524874844</v>
+        <v>444760.50225979835</v>
       </c>
       <c r="T13" s="36">
         <f t="shared" si="3"/>
-        <v>2453.3087694553396</v>
+        <v>664.5453352406621</v>
       </c>
       <c r="U13" s="37">
-        <f>VLOOKUP(C13,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>12.867791290702236</v>
+        <f>VLOOKUP(C13,Data!$B:$P,14,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="V13" s="58" t="str">
-        <f>IF(VLOOKUP(C13,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C13,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>14/07/2016</v>
+        <f>IF(VLOOKUP(C13,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C13,Data!$B:$P,15,FALSE))</f>
+        <v>30/06/2017</v>
       </c>
       <c r="W13" s="58" t="str">
-        <f>IF(VLOOKUP(C13,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C13,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>24/05/2017</v>
+        <f>IF(VLOOKUP(C13,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C13,Data!$B:$P,15,FALSE))</f>
+        <v>30/06/2017</v>
       </c>
     </row>
     <row r="14" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="39" t="str">
         <f>IF(LEFT(C14,2) = "RU", VLOOKUP(C14,MICEX!$A:$D,4,FALSE),VLOOKUP(C14,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>НМТП ао</v>
+        <v>Газпрнефть</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="D14" s="7">
         <f t="shared" si="0"/>
-        <v>2.6530734948622983E-2</v>
+        <v>2.3014772066524958E-2</v>
       </c>
       <c r="E14" s="36">
-        <f>VLOOKUP(C14,Data!$A:$P,4,FALSE)</f>
-        <v>491000</v>
+        <f>VLOOKUP(C14,Data!$B:$P,4,FALSE)</f>
+        <v>46985</v>
       </c>
       <c r="F14" s="36">
         <f t="shared" ref="F14" si="15">$J$5-P14</f>
-        <v>2447966.9470192688</v>
+        <v>2336772.1033477802</v>
       </c>
       <c r="G14" s="57">
-        <f>VLOOKUP(C14,Data!$A:$P,3,FALSE)</f>
-        <v>6.0959000000000003</v>
+        <f>VLOOKUP(C14,Data!$B:$P,3,FALSE)</f>
+        <v>196.90520038310098</v>
       </c>
       <c r="H14" s="56">
-        <f>VLOOKUP(C14,Data!$A:$P,2,FALSE)</f>
-        <v>7.19500007195</v>
+        <f>VLOOKUP(C14,Data!$B:$P,2,FALSE)</f>
+        <v>201.20000201199997</v>
       </c>
       <c r="I14" s="9">
-        <f>VLOOKUP(C14,Data!$A:$P,12,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C14,Data!$B:$P,12,FALSE)</f>
+        <v>218.6844482421875</v>
       </c>
       <c r="J14" s="10">
         <f t="shared" ref="J14" si="16">IF(I14&gt;0,I14/H14-1,0)</f>
-        <v>0</v>
+        <v>8.6900825324766728E-2</v>
       </c>
       <c r="K14" s="9">
-        <f>VLOOKUP(C14,Data!$A:$P,11,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C14,Data!$B:$P,11,FALSE)</f>
+        <v>4.0909090042114258</v>
       </c>
       <c r="L14" s="11" t="str">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C14,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M14" s="7">
         <f t="shared" ref="M14" si="17">IF(O14&gt;0,Q14/O14-1,0)</f>
-        <v>0.18030152593546456</v>
+        <v>2.1811519556329317E-2</v>
       </c>
       <c r="N14" s="7">
         <f t="shared" ref="N14" si="18">IF(P14&gt;0,R14/P14-1,0)</f>
-        <v>0.20565638574471223</v>
+        <v>1.3209114401307342E-2</v>
       </c>
       <c r="O14" s="36">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2993086.9000000004</v>
+        <f>VLOOKUP(C14,Data!$B:$P,8,FALSE)</f>
+        <v>9251590.8399999999</v>
       </c>
       <c r="P14" s="36">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>52033.052980731125</v>
+        <f>VLOOKUP(C14,Data!$B:$P,7,FALSE)</f>
+        <v>163227.89665221993</v>
       </c>
       <c r="Q14" s="36">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>3532745.0353274499</v>
+        <f>VLOOKUP(C14,Data!$B:$P,6,FALSE)</f>
+        <v>9453382.0945338178</v>
       </c>
       <c r="R14" s="36">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>62733.98259601141</v>
+        <f>VLOOKUP(C14,Data!$B:$P,5,FALSE)</f>
+        <v>165383.99261258388</v>
       </c>
       <c r="S14" s="36">
         <f t="shared" ref="S14" si="19">Q14-O14</f>
-        <v>539658.13532744953</v>
+        <v>201791.25453381799</v>
       </c>
       <c r="T14" s="36">
         <f t="shared" ref="T14" si="20">R14-P14</f>
-        <v>10700.929615280285</v>
+        <v>2156.0959603639494</v>
       </c>
       <c r="U14" s="37">
-        <f>VLOOKUP(C14,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>10.824512490967729</v>
+        <f>VLOOKUP(C14,Data!$B:$P,14,FALSE)</f>
+        <v>11.474024359930398</v>
       </c>
       <c r="V14" s="58" t="str">
-        <f>IF(VLOOKUP(C14,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C14,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>28/05/2017</v>
+        <f>IF(VLOOKUP(C14,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C14,Data!$B:$P,15,FALSE))</f>
+        <v>23/06/2017</v>
       </c>
       <c r="W14" s="58" t="str">
-        <f>IF(VLOOKUP(C14,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C14,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C14,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C14,Data!$B:$P,15,FALSE))</f>
+        <v>23/06/2017</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="39" t="str">
         <f>IF(LEFT(C15,2) = "RU", VLOOKUP(C15,MICEX!$A:$D,4,FALSE),VLOOKUP(C15,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>АЛРОСА ао</v>
+        <v>ЛСР ао</v>
       </c>
       <c r="C15" s="39" t="s">
-        <v>108</v>
+        <v>375</v>
       </c>
       <c r="D15" s="7">
         <f t="shared" si="0"/>
-        <v>2.5321880980257023E-2</v>
+        <v>2.1778610064377736E-2</v>
       </c>
       <c r="E15" s="36">
-        <f>VLOOKUP(C15,Data!$A:$P,4,FALSE)</f>
-        <v>34200</v>
+        <f>VLOOKUP(C15,Data!$B:$P,4,FALSE)</f>
+        <v>9750</v>
       </c>
       <c r="F15" s="36">
         <f t="shared" ref="F15:F18" si="21">$J$5-P15</f>
-        <v>2446684.8323126016</v>
+        <v>2344635.9449447584</v>
       </c>
       <c r="G15" s="57">
-        <f>VLOOKUP(C15,Data!$A:$P,3,FALSE)</f>
-        <v>87.690200000000004</v>
+        <f>VLOOKUP(C15,Data!$B:$P,3,FALSE)</f>
+        <v>893.47466666666662</v>
       </c>
       <c r="H15" s="56">
-        <f>VLOOKUP(C15,Data!$A:$P,2,FALSE)</f>
-        <v>98.590000985899991</v>
+        <f>VLOOKUP(C15,Data!$B:$P,2,FALSE)</f>
+        <v>917.50000917499995</v>
       </c>
       <c r="I15" s="9">
-        <f>VLOOKUP(C15,Data!$A:$P,12,FALSE)</f>
-        <v>103.17498016357422</v>
+        <f>VLOOKUP(C15,Data!$B:$P,12,FALSE)</f>
+        <v>1150</v>
       </c>
       <c r="J15" s="10">
         <f t="shared" ref="J15:J18" si="22">IF(I15&gt;0,I15/H15-1,0)</f>
-        <v>4.6505519138091422E-2</v>
+        <v>0.25340598201634901</v>
       </c>
       <c r="K15" s="9">
-        <f>VLOOKUP(C15,Data!$A:$P,11,FALSE)</f>
-        <v>4.125</v>
+        <f>VLOOKUP(C15,Data!$B:$P,11,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L15" s="11" t="str">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C15,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M15" s="7">
         <f t="shared" ref="M15:M18" si="23">IF(O15&gt;0,Q15/O15-1,0)</f>
-        <v>0.12429896369149551</v>
+        <v>2.688978591633262E-2</v>
       </c>
       <c r="N15" s="7">
         <f t="shared" ref="N15:N18" si="24">IF(P15&gt;0,R15/P15-1,0)</f>
-        <v>0.12304914588485594</v>
+        <v>7.3175611581204336E-3</v>
       </c>
       <c r="O15" s="36">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2999004.8400000003</v>
+        <f>VLOOKUP(C15,Data!$B:$P,8,FALSE)</f>
+        <v>8711378</v>
       </c>
       <c r="P15" s="36">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>53315.167687398331</v>
+        <f>VLOOKUP(C15,Data!$B:$P,7,FALSE)</f>
+        <v>155364.05505524145</v>
       </c>
       <c r="Q15" s="36">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>3371778.0337177799</v>
+        <f>VLOOKUP(C15,Data!$B:$P,6,FALSE)</f>
+        <v>8945625.089456249</v>
       </c>
       <c r="R15" s="36">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>59875.55353404057</v>
+        <f>VLOOKUP(C15,Data!$B:$P,5,FALSE)</f>
+        <v>156500.94102988177</v>
       </c>
       <c r="S15" s="36">
         <f t="shared" ref="S15:S18" si="25">Q15-O15</f>
-        <v>372773.19371777959</v>
+        <v>234247.08945624903</v>
       </c>
       <c r="T15" s="36">
         <f t="shared" ref="T15:T18" si="26">R15-P15</f>
-        <v>6560.3858466422389</v>
+        <v>1136.8859746403177</v>
       </c>
       <c r="U15" s="37">
-        <f>VLOOKUP(C15,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>9.0577140736137345</v>
+        <f>VLOOKUP(C15,Data!$B:$P,14,FALSE)</f>
+        <v>8.5013623978201647</v>
       </c>
       <c r="V15" s="58" t="str">
-        <f>IF(VLOOKUP(C15,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C15,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>19/07/2017</v>
+        <f>IF(VLOOKUP(C15,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C15,Data!$B:$P,15,FALSE))</f>
+        <v>19/06/2017</v>
       </c>
       <c r="W15" s="58" t="str">
-        <f>IF(VLOOKUP(C15,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C15,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>19/04/2018</v>
+        <f>IF(VLOOKUP(C15,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C15,Data!$B:$P,15,FALSE))</f>
+        <v>19/06/2017</v>
       </c>
     </row>
     <row r="16" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="39" t="str">
         <f>IF(LEFT(C16,2) = "RU", VLOOKUP(C16,MICEX!$A:$D,4,FALSE),VLOOKUP(C16,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>НКНХ ап</v>
+        <v>АЛРОСА ао</v>
       </c>
       <c r="C16" s="39" t="s">
-        <v>503</v>
+        <v>108</v>
       </c>
       <c r="D16" s="7">
         <f t="shared" si="0"/>
-        <v>2.268811931937096E-2</v>
+        <v>1.9187404337671098E-2</v>
       </c>
       <c r="E16" s="36">
-        <f>VLOOKUP(C16,Data!$A:$P,4,FALSE)</f>
-        <v>130500</v>
+        <f>VLOOKUP(C16,Data!$B:$P,4,FALSE)</f>
+        <v>88000</v>
       </c>
       <c r="F16" s="36">
         <f t="shared" si="21"/>
-        <v>2422678.0643306761</v>
+        <v>2364560.0672832895</v>
       </c>
       <c r="G16" s="57">
-        <f>VLOOKUP(C16,Data!$A:$P,3,FALSE)</f>
-        <v>34.422600000000003</v>
+        <f>VLOOKUP(C16,Data!$B:$P,3,FALSE)</f>
+        <v>87.734329545454543</v>
       </c>
       <c r="H16" s="56">
-        <f>VLOOKUP(C16,Data!$A:$P,2,FALSE)</f>
-        <v>23.150000231499998</v>
+        <f>VLOOKUP(C16,Data!$B:$P,2,FALSE)</f>
+        <v>89.560000895599998</v>
       </c>
       <c r="I16" s="9">
-        <f>VLOOKUP(C16,Data!$A:$P,12,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C16,Data!$B:$P,12,FALSE)</f>
+        <v>103.30160522460937</v>
       </c>
       <c r="J16" s="10">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.15343461580608908</v>
       </c>
       <c r="K16" s="9">
-        <f>VLOOKUP(C16,Data!$A:$P,11,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(C16,Data!$B:$P,11,FALSE)</f>
+        <v>4.125</v>
       </c>
       <c r="L16" s="11" t="str">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C16,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M16" s="7">
         <f t="shared" si="23"/>
-        <v>-0.32747670915328897</v>
+        <v>2.0809087612615462E-2</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="24"/>
-        <v>-0.30617593648131403</v>
+        <v>1.8019958111525902E-2</v>
       </c>
       <c r="O16" s="36">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>4492149.3000000007</v>
+        <f>VLOOKUP(C16,Data!$B:$P,8,FALSE)</f>
+        <v>7720621</v>
       </c>
       <c r="P16" s="36">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>77321.935669323735</v>
+        <f>VLOOKUP(C16,Data!$B:$P,7,FALSE)</f>
+        <v>135439.93271671049</v>
       </c>
       <c r="Q16" s="36">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>3021075.0302107497</v>
+        <f>VLOOKUP(C16,Data!$B:$P,6,FALSE)</f>
+        <v>7881280.0788127994</v>
       </c>
       <c r="R16" s="36">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>53647.819605220626</v>
+        <f>VLOOKUP(C16,Data!$B:$P,5,FALSE)</f>
+        <v>137880.55463089352</v>
       </c>
       <c r="S16" s="36">
         <f t="shared" si="25"/>
-        <v>-1471074.269789251</v>
+        <v>160659.07881279942</v>
       </c>
       <c r="T16" s="36">
         <f t="shared" si="26"/>
-        <v>-23674.116064103109</v>
+        <v>2440.6219141830225</v>
       </c>
       <c r="U16" s="37">
-        <f>VLOOKUP(C16,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C16,Data!$B:$P,14,FALSE)</f>
+        <v>9.9709691826708351</v>
       </c>
       <c r="V16" s="58" t="str">
-        <f>IF(VLOOKUP(C16,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C16,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>03/05/2016</v>
+        <f>IF(VLOOKUP(C16,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C16,Data!$B:$P,15,FALSE))</f>
+        <v>19/07/2017</v>
       </c>
       <c r="W16" s="58" t="str">
-        <f>IF(VLOOKUP(C16,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C16,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C16,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C16,Data!$B:$P,15,FALSE))</f>
+        <v>19/07/2017</v>
       </c>
     </row>
     <row r="17" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="39" t="str">
         <f>IF(LEFT(C17,2) = "RU", VLOOKUP(C17,MICEX!$A:$D,4,FALSE),VLOOKUP(C17,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>Система ао</v>
+        <v>МегаФон ао</v>
       </c>
       <c r="C17" s="39" t="s">
-        <v>703</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
         <f t="shared" si="0"/>
-        <v>2.2603632392584002E-2</v>
+        <v>1.7939585689399289E-2</v>
       </c>
       <c r="E17" s="36">
-        <f>VLOOKUP(C17,Data!$A:$P,4,FALSE)</f>
-        <v>135000</v>
+        <f>VLOOKUP(C17,Data!$B:$P,4,FALSE)</f>
+        <v>12070</v>
       </c>
       <c r="F17" s="36">
         <f t="shared" si="21"/>
-        <v>2447666.8121162392</v>
+        <v>2372272.8696516012</v>
       </c>
       <c r="G17" s="57">
-        <f>VLOOKUP(C17,Data!$A:$P,3,FALSE)</f>
-        <v>22.2989</v>
+        <f>VLOOKUP(C17,Data!$B:$P,3,FALSE)</f>
+        <v>598.46097763048886</v>
       </c>
       <c r="H17" s="56">
-        <f>VLOOKUP(C17,Data!$A:$P,2,FALSE)</f>
-        <v>22.295000222950002</v>
+        <f>VLOOKUP(C17,Data!$B:$P,2,FALSE)</f>
+        <v>610.50000610500001</v>
       </c>
       <c r="I17" s="9">
-        <f>VLOOKUP(C17,Data!$A:$P,12,FALSE)</f>
-        <v>28.75</v>
+        <f>VLOOKUP(C17,Data!$B:$P,12,FALSE)</f>
+        <v>707.4000244140625</v>
       </c>
       <c r="J17" s="10">
         <f t="shared" si="22"/>
-        <v>0.2895267868356135</v>
+        <v>0.15872238712540909</v>
       </c>
       <c r="K17" s="9">
-        <f>VLOOKUP(C17,Data!$A:$P,11,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(C17,Data!$B:$P,11,FALSE)</f>
+        <v>4.1999998092651367</v>
       </c>
       <c r="L17" s="11" t="str">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C17,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M17" s="7">
         <f t="shared" si="23"/>
-        <v>-1.7488652130814852E-4</v>
+        <v>2.0116647408119581E-2</v>
       </c>
       <c r="N17" s="7">
         <f t="shared" si="24"/>
-        <v>2.1303036728791191E-2</v>
+        <v>9.2901807021550376E-3</v>
       </c>
       <c r="O17" s="36">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>3010351.5</v>
+        <f>VLOOKUP(C17,Data!$B:$P,8,FALSE)</f>
+        <v>7223424.0000000009</v>
       </c>
       <c r="P17" s="36">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>52333.187883760875</v>
+        <f>VLOOKUP(C17,Data!$B:$P,7,FALSE)</f>
+        <v>127727.13034839868</v>
       </c>
       <c r="Q17" s="36">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>3009825.0300982501</v>
+        <f>VLOOKUP(C17,Data!$B:$P,6,FALSE)</f>
+        <v>7368735.0736873504</v>
       </c>
       <c r="R17" s="36">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>53448.043707383367</v>
+        <f>VLOOKUP(C17,Data!$B:$P,5,FALSE)</f>
+        <v>128913.73846990301</v>
       </c>
       <c r="S17" s="36">
         <f t="shared" si="25"/>
-        <v>-526.46990174986422</v>
+        <v>145311.07368734945</v>
       </c>
       <c r="T17" s="36">
         <f t="shared" si="26"/>
-        <v>1114.8558236224926</v>
+        <v>1186.6081215043232</v>
       </c>
       <c r="U17" s="37">
-        <f>VLOOKUP(C17,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>7.2662032059581589</v>
+        <f>VLOOKUP(C17,Data!$B:$P,14,FALSE)</f>
+        <v>10.565110565110565</v>
       </c>
       <c r="V17" s="58" t="str">
-        <f>IF(VLOOKUP(C17,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C17,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>12/07/2017</v>
+        <f>IF(VLOOKUP(C17,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C17,Data!$B:$P,15,FALSE))</f>
+        <v>10/07/2017</v>
       </c>
       <c r="W17" s="58" t="str">
-        <f>IF(VLOOKUP(C17,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C17,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>07/08/2017</v>
+        <f>IF(VLOOKUP(C17,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C17,Data!$B:$P,15,FALSE))</f>
+        <v>10/07/2017</v>
       </c>
     </row>
     <row r="18" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="39" t="str">
         <f>IF(LEFT(C18,2) = "RU", VLOOKUP(C18,MICEX!$A:$D,4,FALSE),VLOOKUP(C18,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>ЛСР ао</v>
+        <v>НМТП ао</v>
       </c>
       <c r="C18" s="39" t="s">
-        <v>375</v>
+        <v>35</v>
       </c>
       <c r="D18" s="7">
         <f t="shared" si="0"/>
-        <v>2.2431466810664789E-2</v>
+        <v>1.4490467362892624E-2</v>
       </c>
       <c r="E18" s="36">
-        <f>VLOOKUP(C18,Data!$A:$P,4,FALSE)</f>
-        <v>3400</v>
+        <f>VLOOKUP(C18,Data!$B:$P,4,FALSE)</f>
+        <v>800000</v>
       </c>
       <c r="F18" s="36">
         <f t="shared" si="21"/>
-        <v>2446144.5214216746</v>
+        <v>2414949.7964533661</v>
       </c>
       <c r="G18" s="57">
-        <f>VLOOKUP(C18,Data!$A:$P,3,FALSE)</f>
-        <v>899</v>
+        <f>VLOOKUP(C18,Data!$B:$P,3,FALSE)</f>
+        <v>6.0270812500000002</v>
       </c>
       <c r="H18" s="56">
-        <f>VLOOKUP(C18,Data!$A:$P,2,FALSE)</f>
-        <v>878.50000878499998</v>
+        <f>VLOOKUP(C18,Data!$B:$P,2,FALSE)</f>
+        <v>7.4400000744000003</v>
       </c>
       <c r="I18" s="9">
-        <f>VLOOKUP(C18,Data!$A:$P,12,FALSE)</f>
-        <v>1150</v>
+        <f>VLOOKUP(C18,Data!$B:$P,12,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J18" s="10">
         <f t="shared" si="22"/>
-        <v>0.30904950313033597</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9">
-        <f>VLOOKUP(C18,Data!$A:$P,11,FALSE)</f>
-        <v>5</v>
+        <f>VLOOKUP(C18,Data!$B:$P,11,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="L18" s="11" t="str">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C18,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M18" s="7">
         <f t="shared" si="23"/>
-        <v>-2.280310479977754E-2</v>
+        <v>0.23442836852415105</v>
       </c>
       <c r="N18" s="7">
         <f t="shared" si="24"/>
-        <v>-1.5124436317202505E-2</v>
+        <v>0.22431685910887156</v>
       </c>
       <c r="O18" s="36">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>3056600</v>
+        <f>VLOOKUP(C18,Data!$B:$P,8,FALSE)</f>
+        <v>4821665</v>
       </c>
       <c r="P18" s="36">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>53855.47857832531</v>
+        <f>VLOOKUP(C18,Data!$B:$P,7,FALSE)</f>
+        <v>85050.203546633813</v>
       </c>
       <c r="Q18" s="36">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2986900.029869</v>
+        <f>VLOOKUP(C18,Data!$B:$P,6,FALSE)</f>
+        <v>5952000.0595200006</v>
       </c>
       <c r="R18" s="36">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>53040.944822234967</v>
+        <f>VLOOKUP(C18,Data!$B:$P,5,FALSE)</f>
+        <v>104128.39807278491</v>
       </c>
       <c r="S18" s="36">
         <f t="shared" si="25"/>
-        <v>-69699.970131000038</v>
+        <v>1130335.0595200006</v>
       </c>
       <c r="T18" s="36">
         <f t="shared" si="26"/>
-        <v>-814.53375609034265</v>
+        <v>19078.194526151099</v>
       </c>
       <c r="U18" s="37">
-        <f>VLOOKUP(C18,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>8.8787706317586803</v>
+        <f>VLOOKUP(C18,Data!$B:$P,14,FALSE)</f>
+        <v>10.489207726937753</v>
       </c>
       <c r="V18" s="58" t="str">
-        <f>IF(VLOOKUP(C18,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C18,Data!$A$2:$P$100,15,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C18,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C18,Data!$B:$P,15,FALSE))</f>
+        <v>26/05/2017</v>
       </c>
       <c r="W18" s="58" t="str">
-        <f>IF(VLOOKUP(C18,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C18,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>05/03/2018</v>
+        <f>IF(VLOOKUP(C18,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C18,Data!$B:$P,15,FALSE))</f>
+        <v>26/05/2017</v>
       </c>
     </row>
     <row r="19" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="39" t="str">
         <f>IF(LEFT(C19,2) = "RU", VLOOKUP(C19,MICEX!$A:$D,4,FALSE),VLOOKUP(C19,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>Русал рдр</v>
+        <v>МосБиржа</v>
       </c>
       <c r="C19" s="39" t="s">
-        <v>634</v>
+        <v>482</v>
       </c>
       <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2283370615443554E-2</v>
+        <f t="shared" ref="D19:D23" si="27">R19/$R$55</f>
+        <v>1.1875171721106035E-2</v>
       </c>
       <c r="E19" s="36">
-        <f>VLOOKUP(C19,Data!$A:$P,4,FALSE)</f>
-        <v>10200</v>
+        <f>VLOOKUP(C19,Data!$B:$P,4,FALSE)</f>
+        <v>48000</v>
       </c>
       <c r="F19" s="36">
-        <f t="shared" ref="F19:F22" si="27">$J$5-P19</f>
-        <v>2447913.8911874942</v>
+        <f t="shared" ref="F19:F23" si="28">$J$5-P19</f>
+        <v>2411642.8561395626</v>
       </c>
       <c r="G19" s="57">
-        <f>VLOOKUP(C19,Data!$A:$P,3,FALSE)</f>
-        <v>293.73910000000001</v>
+        <f>VLOOKUP(C19,Data!$B:$P,3,FALSE)</f>
+        <v>104.84164166666669</v>
       </c>
       <c r="H19" s="56">
-        <f>VLOOKUP(C19,Data!$A:$P,2,FALSE)</f>
-        <v>290.90000290899997</v>
+        <f>VLOOKUP(C19,Data!$B:$P,2,FALSE)</f>
+        <v>101.62000101619999</v>
       </c>
       <c r="I19" s="9">
-        <f>VLOOKUP(C19,Data!$A:$P,12,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C19,Data!$B:$P,12,FALSE)</f>
+        <v>137.27499389648437</v>
       </c>
       <c r="J19" s="10">
-        <f t="shared" ref="J19:J22" si="28">IF(I19&gt;0,I19/H19-1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="J19:J23" si="29">IF(I19&gt;0,I19/H19-1,0)</f>
+        <v>0.35086589769469056</v>
       </c>
       <c r="K19" s="9">
-        <f>VLOOKUP(C19,Data!$A:$P,11,FALSE)</f>
-        <v>0</v>
+        <f>VLOOKUP(C19,Data!$B:$P,11,FALSE)</f>
+        <v>3.7999999523162842</v>
       </c>
       <c r="L19" s="11" t="str">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C19,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M19" s="7">
-        <f t="shared" ref="M19:M22" si="29">IF(O19&gt;0,Q19/O19-1,0)</f>
-        <v>-9.6653700205387993E-3</v>
+        <f t="shared" ref="M19:M23" si="30">IF(O19&gt;0,Q19/O19-1,0)</f>
+        <v>-3.0728636057698933E-2</v>
       </c>
       <c r="N19" s="7">
-        <f t="shared" ref="N19:N22" si="30">IF(P19&gt;0,R19/P19-1,0)</f>
-        <v>1.160868169897511E-2</v>
+        <f t="shared" ref="N19:N23" si="31">IF(P19&gt;0,R19/P19-1,0)</f>
+        <v>-3.4204842047323658E-2</v>
       </c>
       <c r="O19" s="36">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2996138.8200000003</v>
+        <f>VLOOKUP(C19,Data!$B:$P,8,FALSE)</f>
+        <v>5032398.8000000007</v>
       </c>
       <c r="P19" s="36">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>52086.108812505656</v>
+        <f>VLOOKUP(C19,Data!$B:$P,7,FALSE)</f>
+        <v>88357.143860437645</v>
       </c>
       <c r="Q19" s="36">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2967180.0296717999</v>
+        <f>VLOOKUP(C19,Data!$B:$P,6,FALSE)</f>
+        <v>4877760.0487775998</v>
       </c>
       <c r="R19" s="36">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>52690.759870648217</v>
+        <f>VLOOKUP(C19,Data!$B:$P,5,FALSE)</f>
+        <v>85334.90171093872</v>
       </c>
       <c r="S19" s="36">
-        <f t="shared" ref="S19:S22" si="31">Q19-O19</f>
-        <v>-28958.790328200441</v>
+        <f t="shared" ref="S19:S23" si="32">Q19-O19</f>
+        <v>-154638.75122240093</v>
       </c>
       <c r="T19" s="36">
-        <f t="shared" ref="T19:T22" si="32">R19-P19</f>
-        <v>604.65105814256094</v>
+        <f t="shared" ref="T19:T23" si="33">R19-P19</f>
+        <v>-3022.2421494989248</v>
       </c>
       <c r="U19" s="37">
-        <f>VLOOKUP(C19,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>3.3826057588820526</v>
+        <f>VLOOKUP(C19,Data!$B:$P,14,FALSE)</f>
+        <v>7.675654398740404</v>
       </c>
       <c r="V19" s="58" t="str">
-        <f>IF(VLOOKUP(C19,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C19,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>29/09/2016</v>
+        <f>IF(VLOOKUP(C19,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C19,Data!$B:$P,15,FALSE))</f>
+        <v>15/05/2017</v>
       </c>
       <c r="W19" s="58" t="str">
-        <f>IF(VLOOKUP(C19,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C19,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C19,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C19,Data!$B:$P,15,FALSE))</f>
+        <v>15/05/2017</v>
       </c>
     </row>
     <row r="20" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -17763,357 +17853,357 @@
         <v>37</v>
       </c>
       <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>2.2209472716813887E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.1835829323158395E-2</v>
       </c>
       <c r="E20" s="36">
-        <f>VLOOKUP(C20,Data!$A:$P,4,FALSE)</f>
-        <v>21430</v>
+        <f>VLOOKUP(C20,Data!$B:$P,4,FALSE)</f>
+        <v>40000</v>
       </c>
       <c r="F20" s="36">
-        <f t="shared" si="27"/>
-        <v>2448019.8497370919</v>
+        <f t="shared" si="28"/>
+        <v>2409546.0802864796</v>
       </c>
       <c r="G20" s="57">
-        <f>VLOOKUP(C20,Data!$A:$P,3,FALSE)</f>
-        <v>140.05000000000001</v>
+        <f>VLOOKUP(C20,Data!$B:$P,3,FALSE)</f>
+        <v>128.94952499999999</v>
       </c>
       <c r="H20" s="56">
-        <f>VLOOKUP(C20,Data!$A:$P,2,FALSE)</f>
-        <v>138.00000137999999</v>
+        <f>VLOOKUP(C20,Data!$B:$P,2,FALSE)</f>
+        <v>121.5400012154</v>
       </c>
       <c r="I20" s="9">
-        <f>VLOOKUP(C20,Data!$A:$P,12,FALSE)</f>
-        <v>140.78932189941406</v>
+        <f>VLOOKUP(C20,Data!$B:$P,12,FALSE)</f>
+        <v>143.60252380371094</v>
       </c>
       <c r="J20" s="10">
-        <f t="shared" si="28"/>
-        <v>2.0212467329861372E-2</v>
+        <f t="shared" si="29"/>
+        <v>0.18152478499000924</v>
       </c>
       <c r="K20" s="9">
-        <f>VLOOKUP(C20,Data!$A:$P,11,FALSE)</f>
-        <v>3.461538553237915</v>
+        <f>VLOOKUP(C20,Data!$B:$P,11,FALSE)</f>
+        <v>3.615384578704834</v>
       </c>
       <c r="L20" s="11" t="str">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C20,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M20" s="7">
-        <f t="shared" si="29"/>
-        <v>-1.463761956444154E-2</v>
+        <f t="shared" si="30"/>
+        <v>-5.7460652023340275E-2</v>
       </c>
       <c r="N20" s="7">
-        <f t="shared" si="30"/>
-        <v>1.0309171604699907E-2</v>
+        <f t="shared" si="31"/>
+        <v>-5.9718055544286885E-2</v>
       </c>
       <c r="O20" s="36">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>3001271.5000000005</v>
+        <f>VLOOKUP(C20,Data!$B:$P,8,FALSE)</f>
+        <v>5157981</v>
       </c>
       <c r="P20" s="36">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>51980.150262908137</v>
+        <f>VLOOKUP(C20,Data!$B:$P,7,FALSE)</f>
+        <v>90453.91971352062</v>
       </c>
       <c r="Q20" s="36">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2957340.0295733996</v>
+        <f>VLOOKUP(C20,Data!$B:$P,6,FALSE)</f>
+        <v>4861600.0486159995</v>
       </c>
       <c r="R20" s="36">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>52516.022552006543</v>
+        <f>VLOOKUP(C20,Data!$B:$P,5,FALSE)</f>
+        <v>85052.187511870128</v>
       </c>
       <c r="S20" s="36">
-        <f t="shared" si="31"/>
-        <v>-43931.470426600892</v>
+        <f t="shared" si="32"/>
+        <v>-296380.95138400048</v>
       </c>
       <c r="T20" s="36">
-        <f t="shared" si="32"/>
-        <v>535.87228909840633</v>
+        <f t="shared" si="33"/>
+        <v>-5401.7322016504913</v>
       </c>
       <c r="U20" s="37">
-        <f>VLOOKUP(C20,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>5.7173912075982578</v>
+        <f>VLOOKUP(C20,Data!$B:$P,14,FALSE)</f>
+        <v>6.6148593055784106</v>
       </c>
       <c r="V20" s="58" t="str">
-        <f>IF(VLOOKUP(C20,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C20,Data!$A$2:$P$100,15,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C20,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C20,Data!$B:$P,15,FALSE))</f>
+        <v>19/07/2017</v>
       </c>
       <c r="W20" s="58" t="str">
-        <f>IF(VLOOKUP(C20,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C20,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>13/04/2017</v>
+        <f>IF(VLOOKUP(C20,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C20,Data!$B:$P,15,FALSE))</f>
+        <v>19/07/2017</v>
       </c>
     </row>
     <row r="21" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="39" t="str">
         <f>IF(LEFT(C21,2) = "RU", VLOOKUP(C21,MICEX!$A:$D,4,FALSE),VLOOKUP(C21,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>МегаФон ао</v>
+        <v>ЛУКОЙЛ</v>
       </c>
       <c r="C21" s="39" t="s">
-        <v>36</v>
+        <v>378</v>
       </c>
       <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>2.1626325173257653E-2</v>
+        <f t="shared" si="27"/>
+        <v>1.1800187447789989E-2</v>
       </c>
       <c r="E21" s="36">
-        <f>VLOOKUP(C21,Data!$A:$P,4,FALSE)</f>
-        <v>4700</v>
+        <f>VLOOKUP(C21,Data!$B:$P,4,FALSE)</f>
+        <v>1720</v>
       </c>
       <c r="F21" s="36">
-        <f t="shared" si="27"/>
-        <v>2447531.8081843266</v>
+        <f t="shared" si="28"/>
+        <v>2412119.6851059631</v>
       </c>
       <c r="G21" s="57">
-        <f>VLOOKUP(C21,Data!$A:$P,3,FALSE)</f>
-        <v>637.99869999999999</v>
+        <f>VLOOKUP(C21,Data!$B:$P,3,FALSE)</f>
+        <v>2899.8255813953488</v>
       </c>
       <c r="H21" s="56">
-        <f>VLOOKUP(C21,Data!$A:$P,2,FALSE)</f>
-        <v>612.70000612700005</v>
+        <f>VLOOKUP(C21,Data!$B:$P,2,FALSE)</f>
+        <v>2818.0000281799998</v>
       </c>
       <c r="I21" s="9">
-        <f>VLOOKUP(C21,Data!$A:$P,12,FALSE)</f>
-        <v>707.4000244140625</v>
+        <f>VLOOKUP(C21,Data!$B:$P,12,FALSE)</f>
+        <v>3515.028564453125</v>
       </c>
       <c r="J21" s="10">
-        <f t="shared" si="28"/>
-        <v>0.15456180404775943</v>
+        <f t="shared" si="29"/>
+        <v>0.24734866192435767</v>
       </c>
       <c r="K21" s="9">
-        <f>VLOOKUP(C21,Data!$A:$P,11,FALSE)</f>
-        <v>4.1999998092651367</v>
+        <f>VLOOKUP(C21,Data!$B:$P,11,FALSE)</f>
+        <v>4.4545454978942871</v>
       </c>
       <c r="L21" s="11" t="str">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C21,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M21" s="7">
-        <f t="shared" si="29"/>
-        <v>-3.9653205990858642E-2</v>
+        <f t="shared" si="30"/>
+        <v>-2.8217405122681893E-2</v>
       </c>
       <c r="N21" s="7">
-        <f t="shared" si="30"/>
-        <v>-2.5369025672920875E-2</v>
+        <f t="shared" si="31"/>
+        <v>-3.5096024124843472E-2</v>
       </c>
       <c r="O21" s="36">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2998593.89</v>
+        <f>VLOOKUP(C21,Data!$B:$P,8,FALSE)</f>
+        <v>4987700</v>
       </c>
       <c r="P21" s="36">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>52468.191815673294</v>
+        <f>VLOOKUP(C21,Data!$B:$P,7,FALSE)</f>
+        <v>87880.31489403687</v>
       </c>
       <c r="Q21" s="36">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2879690.0287969001</v>
+        <f>VLOOKUP(C21,Data!$B:$P,6,FALSE)</f>
+        <v>4846960.0484695993</v>
       </c>
       <c r="R21" s="36">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>51137.124910489743</v>
+        <f>VLOOKUP(C21,Data!$B:$P,5,FALSE)</f>
+        <v>84796.065242416909</v>
       </c>
       <c r="S21" s="36">
-        <f t="shared" si="31"/>
-        <v>-118903.86120310007</v>
+        <f t="shared" si="32"/>
+        <v>-140739.95153040066</v>
       </c>
       <c r="T21" s="36">
-        <f t="shared" si="32"/>
-        <v>-1331.0669051835503</v>
+        <f t="shared" si="33"/>
+        <v>-3084.2496516199608</v>
       </c>
       <c r="U21" s="37">
-        <f>VLOOKUP(C21,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>7.8961973344402203</v>
+        <f>VLOOKUP(C21,Data!$B:$P,14,FALSE)</f>
+        <v>7.0972320794889994</v>
       </c>
       <c r="V21" s="58" t="str">
-        <f>IF(VLOOKUP(C21,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C21,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>19/12/2016</v>
+        <f>IF(VLOOKUP(C21,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C21,Data!$B:$P,15,FALSE))</f>
+        <v>07/07/2017</v>
       </c>
       <c r="W21" s="58" t="str">
-        <f>IF(VLOOKUP(C21,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C21,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C21,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C21,Data!$B:$P,15,FALSE))</f>
+        <v>07/07/2017</v>
       </c>
     </row>
     <row r="22" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="39" t="str">
         <f>IF(LEFT(C22,2) = "RU", VLOOKUP(C22,MICEX!$A:$D,4,FALSE),VLOOKUP(C22,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>ГМКНорНик</v>
+        <v>Русал рдр</v>
       </c>
       <c r="C22" s="39" t="s">
-        <v>229</v>
+        <v>634</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9306952509356715E-2</v>
+        <f t="shared" si="27"/>
+        <v>8.9893484023428633E-3</v>
       </c>
       <c r="E22" s="36">
-        <f>VLOOKUP(C22,Data!$A:$P,4,FALSE)</f>
-        <v>290</v>
+        <f>VLOOKUP(C22,Data!$B:$P,4,FALSE)</f>
+        <v>13600</v>
       </c>
       <c r="F22" s="36">
-        <f t="shared" si="27"/>
-        <v>2450785.0191211919</v>
+        <f t="shared" si="28"/>
+        <v>2435878.7464004676</v>
       </c>
       <c r="G22" s="57">
-        <f>VLOOKUP(C22,Data!$A:$P,3,FALSE)</f>
-        <v>10180</v>
+        <f>VLOOKUP(C22,Data!$B:$P,3,FALSE)</f>
+        <v>269.49880000000002</v>
       </c>
       <c r="H22" s="56">
-        <f>VLOOKUP(C22,Data!$A:$P,2,FALSE)</f>
-        <v>8865.0000886500002</v>
+        <f>VLOOKUP(C22,Data!$B:$P,2,FALSE)</f>
+        <v>271.50000271499999</v>
       </c>
       <c r="I22" s="9">
-        <f>VLOOKUP(C22,Data!$A:$P,12,FALSE)</f>
-        <v>11078.8779296875</v>
+        <f>VLOOKUP(C22,Data!$B:$P,12,FALSE)</f>
+        <v>376.77935001286096</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" si="28"/>
-        <v>0.24973241047926931</v>
+        <f t="shared" si="29"/>
+        <v>0.38776923110522099</v>
       </c>
       <c r="K22" s="9">
-        <f>VLOOKUP(C22,Data!$A:$P,11,FALSE)</f>
-        <v>3.7999999523162842</v>
+        <f>VLOOKUP(C22,Data!$B:$P,11,FALSE)</f>
+        <v>4.5</v>
       </c>
       <c r="L22" s="11" t="str">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C22,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M22" s="7">
-        <f t="shared" si="29"/>
-        <v>-0.12917484394400791</v>
+        <f t="shared" si="30"/>
+        <v>7.4256461067729873E-3</v>
       </c>
       <c r="N22" s="7">
-        <f t="shared" si="30"/>
-        <v>-7.2380251732837797E-2</v>
+        <f t="shared" si="31"/>
+        <v>7.4256461067727653E-3</v>
       </c>
       <c r="O22" s="36">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>2952200</v>
+        <f>VLOOKUP(C22,Data!$B:$P,8,FALSE)</f>
+        <v>3665183.68</v>
       </c>
       <c r="P22" s="36">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>49214.980878807983</v>
+        <f>VLOOKUP(C22,Data!$B:$P,7,FALSE)</f>
+        <v>64121.253599532545</v>
       </c>
       <c r="Q22" s="36">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>2570850.0257084998</v>
+        <f>VLOOKUP(C22,Data!$B:$P,6,FALSE)</f>
+        <v>3692400.0369239999</v>
       </c>
       <c r="R22" s="36">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>45652.788173773064</v>
+        <f>VLOOKUP(C22,Data!$B:$P,5,FALSE)</f>
+        <v>64597.395336685309</v>
       </c>
       <c r="S22" s="36">
-        <f t="shared" si="31"/>
-        <v>-381349.97429150017</v>
+        <f t="shared" si="32"/>
+        <v>27216.35692399973</v>
       </c>
       <c r="T22" s="36">
-        <f t="shared" si="32"/>
-        <v>-3562.1927050349186</v>
+        <f t="shared" si="33"/>
+        <v>476.14173715276411</v>
       </c>
       <c r="U22" s="37">
-        <f>VLOOKUP(C22,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>10.064297938037578</v>
+        <f>VLOOKUP(C22,Data!$B:$P,14,FALSE)</f>
+        <v>3.6243094484669944</v>
       </c>
       <c r="V22" s="58" t="str">
-        <f>IF(VLOOKUP(C22,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C22,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>22/06/2017</v>
+        <f>IF(VLOOKUP(C22,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C22,Data!$B:$P,15,FALSE))</f>
+        <v>29/09/2016</v>
       </c>
       <c r="W22" s="58" t="str">
-        <f>IF(VLOOKUP(C22,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C22,Data!$A$2:$P$100,16,FALSE))</f>
-        <v>07/11/2017</v>
+        <f>IF(VLOOKUP(C22,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C22,Data!$B:$P,15,FALSE))</f>
+        <v>29/09/2016</v>
       </c>
     </row>
     <row r="23" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="39" t="str">
         <f>IF(LEFT(C23,2) = "RU", VLOOKUP(C23,MICEX!$A:$D,4,FALSE),VLOOKUP(C23,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>Highland Gold Mining Ltd</v>
+        <v>НКНХ ап</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>4671</v>
+        <v>503</v>
       </c>
       <c r="D23" s="7">
-        <f t="shared" si="0"/>
-        <v>3.8355915029912271E-2</v>
+        <f t="shared" si="27"/>
+        <v>2.5666678536302671E-3</v>
       </c>
       <c r="E23" s="36">
-        <f>VLOOKUP(C23,Data!$A:$P,4,FALSE)</f>
-        <v>51220</v>
+        <f>VLOOKUP(C23,Data!$B:$P,4,FALSE)</f>
+        <v>43800</v>
       </c>
       <c r="F23" s="36">
-        <f t="shared" ref="F23" si="33">$J$5-P23</f>
-        <v>2394133.5210520742</v>
+        <f t="shared" si="28"/>
+        <v>2481816.7035804633</v>
       </c>
       <c r="G23" s="57">
-        <f>VLOOKUP(C23,Data!$A:$P,3,FALSE)</f>
-        <v>163.16052682041811</v>
+        <f>VLOOKUP(C23,Data!$B:$P,3,FALSE)</f>
+        <v>23.729700000000001</v>
       </c>
       <c r="H23" s="56">
-        <f>VLOOKUP(C23,Data!$A:$P,2,FALSE)</f>
-        <v>138.25000138249999</v>
+        <f>VLOOKUP(C23,Data!$B:$P,2,FALSE)</f>
+        <v>24.070000240699997</v>
       </c>
       <c r="I23" s="9">
-        <f>VLOOKUP(C23,Data!$A:$P,12,FALSE)</f>
-        <v>205</v>
+        <f>VLOOKUP(C23,Data!$B:$P,12,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J23" s="10">
-        <f t="shared" ref="J23" si="34">IF(I23&gt;0,I23/H23-1,0)</f>
-        <v>0.48282096166365318</v>
+        <f t="shared" si="29"/>
+        <v>0</v>
       </c>
       <c r="K23" s="9">
-        <f>VLOOKUP(C23,Data!$A:$P,11,FALSE)</f>
-        <v>4.3333334922790527</v>
+        <f>VLOOKUP(C23,Data!$B:$P,11,FALSE)</f>
+        <v>5</v>
       </c>
       <c r="L23" s="11" t="str">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,10,FALSE)</f>
-        <v>GBX</v>
+        <f>VLOOKUP(C23,Data!$B:$P,10,FALSE)</f>
+        <v>RUB</v>
       </c>
       <c r="M23" s="7">
-        <f t="shared" ref="M23" si="35">IF(O23&gt;0,Q23/O23-1,0)</f>
-        <v>-0.14282401639593767</v>
+        <f t="shared" si="30"/>
+        <v>1.4340688702343174E-2</v>
       </c>
       <c r="N23" s="7">
-        <f t="shared" ref="N23" si="36">IF(P23&gt;0,R23/P23-1,0)</f>
-        <v>-0.14330258368517712</v>
+        <f t="shared" si="31"/>
+        <v>1.4340688702343174E-2</v>
       </c>
       <c r="O23" s="36">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>5958341.1742000002</v>
+        <f>VLOOKUP(C23,Data!$B:$P,8,FALSE)</f>
+        <v>1039360.8600000001</v>
       </c>
       <c r="P23" s="36">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>105866.47894792595</v>
+        <f>VLOOKUP(C23,Data!$B:$P,7,FALSE)</f>
+        <v>18183.296419536669</v>
       </c>
       <c r="Q23" s="36">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>5107346.9566434687</v>
+        <f>VLOOKUP(C23,Data!$B:$P,6,FALSE)</f>
+        <v>1054266.0105426598</v>
       </c>
       <c r="R23" s="36">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>90695.538989035747</v>
+        <f>VLOOKUP(C23,Data!$B:$P,5,FALSE)</f>
+        <v>18444.057413071678</v>
       </c>
       <c r="S23" s="36">
-        <f t="shared" ref="S23" si="37">Q23-O23</f>
-        <v>-850994.21755653154</v>
+        <f t="shared" si="32"/>
+        <v>14905.150542659685</v>
       </c>
       <c r="T23" s="36">
-        <f t="shared" ref="T23" si="38">R23-P23</f>
-        <v>-15170.939958890202</v>
+        <f t="shared" si="33"/>
+        <v>260.76099353500831</v>
       </c>
       <c r="U23" s="37">
-        <f>VLOOKUP(C23,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>7.5226037023727113</v>
+        <f>VLOOKUP(C23,Data!$B:$P,14,FALSE)</f>
+        <v>0</v>
       </c>
       <c r="V23" s="58" t="str">
-        <f>IF(VLOOKUP(C23,Data!$A$2:$P$100,15,FALSE)=0,"",VLOOKUP(C23,Data!$A$2:$P$100,15,FALSE))</f>
-        <v>20/04/2017</v>
+        <f>IF(VLOOKUP(C23,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C23,Data!$B:$P,15,FALSE))</f>
+        <v>03/05/2016</v>
       </c>
       <c r="W23" s="58" t="str">
-        <f>IF(VLOOKUP(C23,Data!$A$2:$P$100,16,FALSE)=0,"",VLOOKUP(C23,Data!$A$2:$P$100,16,FALSE))</f>
-        <v/>
+        <f>IF(VLOOKUP(C23,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C23,Data!$B:$P,15,FALSE))</f>
+        <v>03/05/2016</v>
       </c>
     </row>
     <row r="24" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
-        <v>51</v>
+        <v>4671</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="36"/>
@@ -18137,14 +18227,16 @@
       <c r="T24" s="36"/>
       <c r="U24" s="37"/>
       <c r="V24" s="59"/>
-      <c r="W24" s="58" t="str">
+      <c r="W24" s="58" t="e">
         <f>VLOOKUP(C24,Data!$A$2:$P$100,16,FALSE)</f>
-        <v>23/08/2017</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
+      <c r="C25" s="39" t="s">
+        <v>51</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="36"/>
@@ -18357,7 +18449,7 @@
       <c r="C32" s="39"/>
       <c r="D32" s="54">
         <f>SUM(D9:D31)</f>
-        <v>0.40987182319957433</v>
+        <v>0.33061007574538992</v>
       </c>
       <c r="E32" s="54"/>
       <c r="F32" s="36"/>
@@ -18369,32 +18461,32 @@
       <c r="L32" s="11"/>
       <c r="M32" s="7">
         <f>SUMPRODUCT($D$9:$D$23,M9:M23)</f>
-        <v>-5.5203548698172043E-3</v>
+        <v>9.0711073396879307E-3</v>
       </c>
       <c r="N32" s="7">
         <f>SUMPRODUCT($D$9:$D$23,N9:N23)</f>
-        <v>2.6222002153764986E-3</v>
+        <v>6.024026548688239E-3</v>
       </c>
       <c r="O32" s="36"/>
       <c r="P32" s="41">
         <f>SUM(P9:P31)</f>
-        <v>978482.94214456959</v>
+        <v>2344660.3257740242</v>
       </c>
       <c r="Q32" s="41">
         <f>SUM(Q9:Q31)</f>
-        <v>54577178.179681771</v>
+        <v>135799014.70629013</v>
       </c>
       <c r="R32" s="41">
         <f>SUM(R9:R31)</f>
-        <v>969173.74784342863</v>
+        <v>2375761.7136799754</v>
       </c>
       <c r="S32" s="41">
         <f>SUM(S9:S31)</f>
-        <v>-1660235.4755182294</v>
+        <v>2936257.6114901253</v>
       </c>
       <c r="T32" s="41">
         <f>SUM(T9:T31)</f>
-        <v>-9309.1943011410767</v>
+        <v>31101.387905950764</v>
       </c>
       <c r="U32" s="37"/>
       <c r="V32" s="59"/>
@@ -18441,75 +18533,75 @@
       </c>
       <c r="D34" s="7">
         <f>R34/$R$55</f>
-        <v>0.13952491891529245</v>
+        <v>0.28445964254315886</v>
       </c>
       <c r="E34" s="36">
-        <f>VLOOKUP(C34,Data!$A:$P,4,FALSE)</f>
-        <v>186000</v>
+        <f>VLOOKUP(C34,Data!$B:$P,4,FALSE)</f>
+        <v>1150000</v>
       </c>
       <c r="F34" s="36">
-        <f t="shared" ref="F34:F38" si="39">$J$5-P34</f>
-        <v>2174900.5</v>
+        <f t="shared" ref="F34:F38" si="34">$J$5-P34</f>
+        <v>486620</v>
       </c>
       <c r="G34" s="57">
-        <f>VLOOKUP(C34,Data!$A:$P,3,FALSE)</f>
-        <v>174.78467741935484</v>
+        <f>VLOOKUP(C34,Data!$B:$P,3,FALSE)</f>
+        <v>175.07652173913044</v>
       </c>
       <c r="H34" s="56">
-        <f>VLOOKUP(C34,Data!$A:$P,2,FALSE)</f>
-        <v>177.37500177375</v>
+        <f>VLOOKUP(C34,Data!$B:$P,2,FALSE)</f>
+        <v>177.75000177749999</v>
       </c>
       <c r="I34" s="9">
-        <f>VLOOKUP(C34,Data!$A:$P,13,FALSE)</f>
-        <v>7.2900400273741361</v>
+        <f>VLOOKUP(C34,Data!$B:$P,13,FALSE)</f>
+        <v>7.2285878416895297</v>
       </c>
       <c r="J34" s="7">
-        <f>VLOOKUP(C34,Data!$A:$P,14,FALSE)/100</f>
-        <v>4.0339327000000001E-2</v>
+        <f>VLOOKUP(C34,Data!$B:$P,14,FALSE)/100</f>
+        <v>3.9611146E-2</v>
       </c>
       <c r="K34" s="9"/>
       <c r="L34" s="11" t="str">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C34,Data!$B:$P,10,FALSE)</f>
         <v>USD</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" ref="M34:N38" si="40">IF(O34&gt;0,Q34/O34-1,0)</f>
-        <v>-2.6551961238345023E-2</v>
+        <f t="shared" ref="M34:N38" si="35">IF(O34&gt;0,Q34/O34-1,0)</f>
+        <v>-1.1090508060901505E-2</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="40"/>
-        <v>1.4820088308886925E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.5270351568630769E-2</v>
       </c>
       <c r="O34" s="36">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>19085433.033150002</v>
+        <f>VLOOKUP(C34,Data!$B:$P,8,FALSE)</f>
+        <v>118152971.47599998</v>
       </c>
       <c r="P34" s="36">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>325099.5</v>
+        <f>VLOOKUP(C34,Data!$B:$P,7,FALSE)</f>
+        <v>2013380</v>
       </c>
       <c r="Q34" s="36">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>18578677.355036773</v>
+        <f>VLOOKUP(C34,Data!$B:$P,6,FALSE)</f>
+        <v>116842594.99342594</v>
       </c>
       <c r="R34" s="36">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>329917.503299175</v>
+        <f>VLOOKUP(C34,Data!$B:$P,5,FALSE)</f>
+        <v>2044125.0204412499</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" ref="S34:S38" si="41">Q34-O34</f>
-        <v>-506755.67811322957</v>
+        <f t="shared" ref="S34:S38" si="36">Q34-O34</f>
+        <v>-1310376.4825740457</v>
       </c>
       <c r="T34" s="36">
-        <f t="shared" ref="T34:T38" si="42">R34-P34</f>
-        <v>4818.0032991750049</v>
+        <f t="shared" ref="T34:T38" si="37">R34-P34</f>
+        <v>30745.020441249944</v>
       </c>
       <c r="U34" s="37">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>4.0339327000000003</v>
+        <f>VLOOKUP(C34,Data!$B:$P,14,FALSE)</f>
+        <v>3.9611146000000002</v>
       </c>
       <c r="V34" s="58" t="str">
-        <f>VLOOKUP(C34,Data!$A$2:$P$100,15,FALSE)</f>
+        <f>VLOOKUP(C34,Data!$B:$P,15,FALSE)</f>
         <v>24/06/2017</v>
       </c>
       <c r="W34" s="59"/>
@@ -18517,166 +18609,166 @@
     <row r="35" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="str">
         <f>IF(LEFT(C35,2) = "RU", VLOOKUP(C35,MICEX!$A:$D,4,FALSE),VLOOKUP(C35,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>ГТЛК 1P-03</v>
+        <v>АльфаБО-18</v>
       </c>
       <c r="C35" s="39" t="s">
-        <v>1844</v>
+        <v>34</v>
       </c>
       <c r="D35" s="7">
         <f>R35/$R$55</f>
-        <v>0.10807567674588268</v>
+        <v>6.2087221761117119E-2</v>
       </c>
       <c r="E35" s="36">
-        <f>VLOOKUP(C35,Data!$A:$P,4,FALSE)</f>
-        <v>13500</v>
+        <f>VLOOKUP(C35,Data!$B:$P,4,FALSE)</f>
+        <v>25000</v>
       </c>
       <c r="F35" s="36">
-        <f t="shared" si="39"/>
-        <v>2263337.5965709742</v>
+        <f t="shared" si="34"/>
+        <v>2058589.3279247549</v>
       </c>
       <c r="G35" s="57">
-        <f>VLOOKUP(C35,Data!$A:$P,3,FALSE)</f>
-        <v>101.43</v>
+        <f>VLOOKUP(C35,Data!$B:$P,3,FALSE)</f>
+        <v>100.56</v>
       </c>
       <c r="H35" s="56">
-        <f>VLOOKUP(C35,Data!$A:$P,2,FALSE)</f>
-        <v>106.60000106599999</v>
+        <f>VLOOKUP(C35,Data!$B:$P,2,FALSE)</f>
+        <v>102.01000102009999</v>
       </c>
       <c r="I35" s="9">
-        <f>VLOOKUP(C35,Data!$A:$P,13,FALSE)</f>
-        <v>4.8117893487329804</v>
+        <f>VLOOKUP(C35,Data!$B:$P,13,FALSE)</f>
+        <v>2.3426088900231807</v>
       </c>
       <c r="J35" s="7">
-        <f>VLOOKUP(C35,Data!$A:$P,14,FALSE)/100</f>
-        <v>9.9900000000000003E-2</v>
+        <f>VLOOKUP(C35,Data!$B:$P,14,FALSE)/100</f>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="K35" s="9"/>
       <c r="L35" s="11" t="str">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,10,FALSE)</f>
-        <v>RUR</v>
+        <f>VLOOKUP(C35,Data!$B:$P,10,FALSE)</f>
+        <v>RUB</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="40"/>
-        <v>5.0971123592625567E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.4419262331941018E-2</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="40"/>
-        <v>7.982224810826799E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0755683154513251E-2</v>
       </c>
       <c r="O35" s="36">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>13693050</v>
+        <f>VLOOKUP(C35,Data!$B:$P,8,FALSE)</f>
+        <v>25140000</v>
       </c>
       <c r="P35" s="36">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>236662.40342902576</v>
+        <f>VLOOKUP(C35,Data!$B:$P,7,FALSE)</f>
+        <v>441410.67207524495</v>
       </c>
       <c r="Q35" s="36">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>14391000.14391</v>
+        <f>VLOOKUP(C35,Data!$B:$P,6,FALSE)</f>
+        <v>25502500.255024999</v>
       </c>
       <c r="R35" s="36">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>255553.32851343649</v>
+        <f>VLOOKUP(C35,Data!$B:$P,5,FALSE)</f>
+        <v>446158.34540510701</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" si="41"/>
-        <v>697950.1439100001</v>
+        <f t="shared" si="36"/>
+        <v>362500.25502499938</v>
       </c>
       <c r="T35" s="36">
-        <f t="shared" si="42"/>
-        <v>18890.92508441073</v>
+        <f t="shared" si="37"/>
+        <v>4747.6733298620675</v>
       </c>
       <c r="U35" s="37">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>9.99</v>
+        <f>VLOOKUP(C35,Data!$B:$P,14,FALSE)</f>
+        <v>9.1999999999999993</v>
       </c>
       <c r="V35" s="58" t="str">
-        <f>VLOOKUP(C35,Data!$A$2:$P$100,15,FALSE)</f>
-        <v>11/05/2017</v>
+        <f>VLOOKUP(C35,Data!$B:$P,15,FALSE)</f>
+        <v>24/07/2017</v>
       </c>
       <c r="W35" s="59"/>
     </row>
     <row r="36" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="str">
         <f>IF(LEFT(C36,2) = "RU", VLOOKUP(C36,MICEX!$A:$D,4,FALSE),VLOOKUP(C36,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>ГИДРОМАШБ1</v>
+        <v>ОФЗ 29011</v>
       </c>
       <c r="C36" s="39" t="s">
-        <v>1772</v>
+        <v>31</v>
       </c>
       <c r="D36" s="7">
         <f>R36/$R$55</f>
-        <v>0.10466916385783234</v>
+        <v>6.3389708326834118E-2</v>
       </c>
       <c r="E36" s="36">
-        <f>VLOOKUP(C36,Data!$A:$P,4,FALSE)</f>
-        <v>13500</v>
+        <f>VLOOKUP(C36,Data!$B:$P,4,FALSE)</f>
+        <v>25000</v>
       </c>
       <c r="F36" s="36">
-        <f t="shared" si="39"/>
-        <v>2267628.798193357</v>
+        <f t="shared" si="34"/>
+        <v>2045728.6498619514</v>
       </c>
       <c r="G36" s="57">
-        <f>VLOOKUP(C36,Data!$A:$P,3,FALSE)</f>
-        <v>100</v>
+        <f>VLOOKUP(C36,Data!$B:$P,3,FALSE)</f>
+        <v>103.45830119999999</v>
       </c>
       <c r="H36" s="56">
-        <f>VLOOKUP(C36,Data!$A:$P,2,FALSE)</f>
-        <v>103.24000103239999</v>
+        <f>VLOOKUP(C36,Data!$B:$P,2,FALSE)</f>
+        <v>104.1500010415</v>
       </c>
       <c r="I36" s="9">
-        <f>VLOOKUP(C36,Data!$A:$P,13,FALSE)</f>
-        <v>2.450910370163923</v>
+        <f>VLOOKUP(C36,Data!$B:$P,13,FALSE)</f>
+        <v>0.20376948425799851</v>
       </c>
       <c r="J36" s="7">
-        <f>VLOOKUP(C36,Data!$A:$P,14,FALSE)/100</f>
-        <v>9.6799999999999997E-2</v>
+        <f>VLOOKUP(C36,Data!$B:$P,14,FALSE)/100</f>
+        <v>9.2699999999999991E-2</v>
       </c>
       <c r="K36" s="9"/>
       <c r="L36" s="11" t="str">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C36,Data!$B:$P,10,FALSE)</f>
         <v>RUR</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="40"/>
-        <v>3.2400010323999862E-2</v>
+        <f t="shared" si="35"/>
+        <v>6.6857838711547046E-3</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="40"/>
-        <v>6.5099127552742164E-2</v>
+        <f t="shared" si="35"/>
+        <v>2.744295240422634E-3</v>
       </c>
       <c r="O36" s="36">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>13500000</v>
+        <f>VLOOKUP(C36,Data!$B:$P,8,FALSE)</f>
+        <v>25864575.299999997</v>
       </c>
       <c r="P36" s="36">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>232371.20180664305</v>
+        <f>VLOOKUP(C36,Data!$B:$P,7,FALSE)</f>
+        <v>454271.35013804876</v>
       </c>
       <c r="Q36" s="36">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>13937400.139373999</v>
+        <f>VLOOKUP(C36,Data!$B:$P,6,FALSE)</f>
+        <v>26037500.260375001</v>
       </c>
       <c r="R36" s="36">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>247498.36431263771</v>
+        <f>VLOOKUP(C36,Data!$B:$P,5,FALSE)</f>
+        <v>455518.00484209292</v>
       </c>
       <c r="S36" s="36">
-        <f t="shared" si="41"/>
-        <v>437400.13937399909</v>
+        <f t="shared" si="36"/>
+        <v>172924.96037500352</v>
       </c>
       <c r="T36" s="36">
-        <f t="shared" si="42"/>
-        <v>15127.162505994667</v>
+        <f t="shared" si="37"/>
+        <v>1246.6547040441656</v>
       </c>
       <c r="U36" s="37">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>9.68</v>
+        <f>VLOOKUP(C36,Data!$B:$P,14,FALSE)</f>
+        <v>9.27</v>
       </c>
       <c r="V36" s="58" t="str">
-        <f>VLOOKUP(C36,Data!$A$2:$P$100,15,FALSE)</f>
-        <v>22/08/2017</v>
+        <f>VLOOKUP(C36,Data!$B:$P,15,FALSE)</f>
+        <v>02/08/2017</v>
       </c>
       <c r="W36" s="59"/>
     </row>
@@ -18690,75 +18782,75 @@
       </c>
       <c r="D37" s="7">
         <f>R37/$R$55</f>
-        <v>0.10270230820223185</v>
+        <v>0.12385795145953665</v>
       </c>
       <c r="E37" s="36">
-        <f>VLOOKUP(C37,Data!$A:$P,4,FALSE)</f>
-        <v>13500</v>
+        <f>VLOOKUP(C37,Data!$B:$P,4,FALSE)</f>
+        <v>50000</v>
       </c>
       <c r="F37" s="36">
-        <f t="shared" si="39"/>
-        <v>2260544.4686659132</v>
+        <f t="shared" si="34"/>
+        <v>1613127.6617256054</v>
       </c>
       <c r="G37" s="57">
-        <f>VLOOKUP(C37,Data!$A:$P,3,FALSE)</f>
+        <f>VLOOKUP(C37,Data!$B:$P,3,FALSE)</f>
         <v>100</v>
       </c>
       <c r="H37" s="56">
-        <f>VLOOKUP(C37,Data!$A:$P,2,FALSE)</f>
-        <v>101.30000101299999</v>
+        <f>VLOOKUP(C37,Data!$B:$P,2,FALSE)</f>
+        <v>101.7500010175</v>
       </c>
       <c r="I37" s="9">
-        <f>VLOOKUP(C37,Data!$A:$P,13,FALSE)</f>
-        <v>2.966556471918671</v>
+        <f>VLOOKUP(C37,Data!$B:$P,13,FALSE)</f>
+        <v>2.9046339467610651</v>
       </c>
       <c r="J37" s="7">
-        <f>VLOOKUP(C37,Data!$A:$P,14,FALSE)/100</f>
-        <v>9.2600000000000002E-2</v>
+        <f>VLOOKUP(C37,Data!$B:$P,14,FALSE)/100</f>
+        <v>9.11E-2</v>
       </c>
       <c r="K37" s="9"/>
       <c r="L37" s="11" t="str">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C37,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="40"/>
-        <v>1.3000010129999851E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.7500010175000025E-2</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="40"/>
-        <v>1.4165678520772662E-2</v>
+        <f t="shared" si="35"/>
+        <v>3.5744070812406825E-3</v>
       </c>
       <c r="O37" s="36">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>13500000</v>
+        <f>VLOOKUP(C37,Data!$B:$P,8,FALSE)</f>
+        <v>50000000</v>
       </c>
       <c r="P37" s="36">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>239455.53133408658</v>
+        <f>VLOOKUP(C37,Data!$B:$P,7,FALSE)</f>
+        <v>886872.33827439474</v>
       </c>
       <c r="Q37" s="36">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>13675500.136754999</v>
+        <f>VLOOKUP(C37,Data!$B:$P,6,FALSE)</f>
+        <v>50875000.508749999</v>
       </c>
       <c r="R37" s="36">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>242847.58141098605</v>
+        <f>VLOOKUP(C37,Data!$B:$P,5,FALSE)</f>
+        <v>890042.38104047917</v>
       </c>
       <c r="S37" s="36">
-        <f t="shared" si="41"/>
-        <v>175500.13675499894</v>
+        <f t="shared" si="36"/>
+        <v>875000.50874999911</v>
       </c>
       <c r="T37" s="36">
-        <f t="shared" si="42"/>
-        <v>3392.050076899468</v>
+        <f t="shared" si="37"/>
+        <v>3170.0427660844289</v>
       </c>
       <c r="U37" s="37">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>9.26</v>
+        <f>VLOOKUP(C37,Data!$B:$P,14,FALSE)</f>
+        <v>9.11</v>
       </c>
       <c r="V37" s="58" t="str">
-        <f>VLOOKUP(C37,Data!$A$2:$P$100,15,FALSE)</f>
+        <f>VLOOKUP(C37,Data!$B:$P,15,FALSE)</f>
         <v>29/09/2017</v>
       </c>
       <c r="W37" s="59"/>
@@ -18766,83 +18858,83 @@
     <row r="38" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="str">
         <f>IF(LEFT(C38,2) = "RU", VLOOKUP(C38,MICEX!$A:$D,4,FALSE),VLOOKUP(C38,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>ОФЗ 24019</v>
+        <v>ОФЗ 26204</v>
       </c>
       <c r="C38" s="39" t="s">
-        <v>948</v>
+        <v>33</v>
       </c>
       <c r="D38" s="7">
         <f>R38/$R$55</f>
-        <v>5.0574407581058252E-2</v>
+        <v>0.10776347797734936</v>
       </c>
       <c r="E38" s="36">
-        <f>VLOOKUP(C38,Data!$A:$P,4,FALSE)</f>
-        <v>6590</v>
+        <f>VLOOKUP(C38,Data!$B:$P,4,FALSE)</f>
+        <v>44500</v>
       </c>
       <c r="F38" s="36">
-        <f t="shared" si="39"/>
-        <v>2383832.3270178363</v>
+        <f t="shared" si="34"/>
+        <v>1722467.5061798301</v>
       </c>
       <c r="G38" s="57">
-        <f>VLOOKUP(C38,Data!$A:$P,3,FALSE)</f>
-        <v>101.6</v>
+        <f>VLOOKUP(C38,Data!$B:$P,3,FALSE)</f>
+        <v>98.867944494382002</v>
       </c>
       <c r="H38" s="56">
-        <f>VLOOKUP(C38,Data!$A:$P,2,FALSE)</f>
-        <v>102.19000102189999</v>
+        <f>VLOOKUP(C38,Data!$B:$P,2,FALSE)</f>
+        <v>99.470000994699987</v>
       </c>
       <c r="I38" s="9">
-        <f>VLOOKUP(C38,Data!$A:$P,13,FALSE)</f>
-        <v>0.44811590035241372</v>
+        <f>VLOOKUP(C38,Data!$B:$P,13,FALSE)</f>
+        <v>0.7847127715139941</v>
       </c>
       <c r="J38" s="7">
-        <f>VLOOKUP(C38,Data!$A:$P,14,FALSE)/100</f>
-        <v>9.4299999999999995E-2</v>
+        <f>VLOOKUP(C38,Data!$B:$P,14,FALSE)/100</f>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="K38" s="9"/>
       <c r="L38" s="11" t="str">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,10,FALSE)</f>
+        <f>VLOOKUP(C38,Data!$B:$P,10,FALSE)</f>
         <v>RUB</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="40"/>
-        <v>5.8070966722438833E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.089501540635478E-3</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="40"/>
-        <v>2.9435385794805313E-2</v>
+        <f t="shared" si="35"/>
+        <v>-4.044702616794793E-3</v>
       </c>
       <c r="O38" s="36">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,8,FALSE)</f>
-        <v>6695440</v>
+        <f>VLOOKUP(C38,Data!$B:$P,8,FALSE)</f>
+        <v>43996235.29999999</v>
       </c>
       <c r="P38" s="36">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,7,FALSE)</f>
-        <v>116167.67298216392</v>
+        <f>VLOOKUP(C38,Data!$B:$P,7,FALSE)</f>
+        <v>777532.49382016982</v>
       </c>
       <c r="Q38" s="36">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,6,FALSE)</f>
-        <v>6734321.0673432089</v>
+        <f>VLOOKUP(C38,Data!$B:$P,6,FALSE)</f>
+        <v>44264150.442641497</v>
       </c>
       <c r="R38" s="36">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,5,FALSE)</f>
-        <v>119587.1132532787</v>
+        <f>VLOOKUP(C38,Data!$B:$P,5,FALSE)</f>
+        <v>774387.60610777244</v>
       </c>
       <c r="S38" s="36">
-        <f t="shared" si="41"/>
-        <v>38881.067343208939</v>
+        <f t="shared" si="36"/>
+        <v>267915.14264150709</v>
       </c>
       <c r="T38" s="36">
-        <f t="shared" si="42"/>
-        <v>3419.440271114785</v>
+        <f t="shared" si="37"/>
+        <v>-3144.8877123973798</v>
       </c>
       <c r="U38" s="37">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,14,FALSE)</f>
-        <v>9.43</v>
+        <f>VLOOKUP(C38,Data!$B:$P,14,FALSE)</f>
+        <v>8.2799999999999994</v>
       </c>
       <c r="V38" s="58" t="str">
-        <f>VLOOKUP(C38,Data!$A$2:$P$100,15,FALSE)</f>
-        <v>18/10/2017</v>
+        <f>VLOOKUP(C38,Data!$B:$P,15,FALSE)</f>
+        <v>14/09/2017</v>
       </c>
       <c r="W38" s="59"/>
     </row>
@@ -19159,7 +19251,7 @@
       <c r="C53" s="6"/>
       <c r="D53" s="54">
         <f>SUM(D34:D52)</f>
-        <v>0.50554647530229768</v>
+        <v>0.64155800206799607</v>
       </c>
       <c r="E53" s="54"/>
       <c r="F53" s="36"/>
@@ -19171,32 +19263,32 @@
       <c r="L53" s="11"/>
       <c r="M53" s="7">
         <f>SUMPRODUCT($D$34:$D$38,M34:M38)</f>
-        <v>6.8241819485152086E-3</v>
+        <v>9.880011449014865E-4</v>
       </c>
       <c r="N53" s="7">
         <f>SUMPRODUCT($D$34:$D$38,N34:N38)</f>
-        <v>2.0452011431939938E-2</v>
+        <v>5.1923968261757998E-3</v>
       </c>
       <c r="O53" s="36"/>
       <c r="P53" s="41">
         <f>SUM(P34:P52)</f>
-        <v>1149756.3095519193</v>
+        <v>4573466.8543078583</v>
       </c>
       <c r="Q53" s="41">
         <f>SUM(Q34:Q52)</f>
-        <v>67316898.842418984</v>
+        <v>263521746.46021742</v>
       </c>
       <c r="R53" s="41">
         <f>SUM(R34:R52)</f>
-        <v>1195403.8907895139</v>
+        <v>4610231.357836701</v>
       </c>
       <c r="S53" s="41">
         <f>SUM(S34:S52)</f>
-        <v>842975.80926897749</v>
+        <v>367964.38421746343</v>
       </c>
       <c r="T53" s="41">
         <f>SUM(T34:T52)</f>
-        <v>45647.581237594655</v>
+        <v>36764.503528843226</v>
       </c>
       <c r="U53" s="37"/>
     </row>
@@ -19207,7 +19299,7 @@
       <c r="C54" s="13"/>
       <c r="D54" s="14">
         <f>R54/R55</f>
-        <v>8.4581701498128034E-2</v>
+        <v>2.7831922186614077E-2</v>
       </c>
       <c r="E54" s="14"/>
       <c r="F54" s="15"/>
@@ -19222,8 +19314,8 @@
       <c r="O54" s="15"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="15">
-        <f>R54*Data!F2/Data!E2</f>
-        <v>11262620</v>
+        <f>R54*Data!G2/Data!F2</f>
+        <v>11432040</v>
       </c>
       <c r="R54" s="20">
         <v>200000</v>
@@ -19251,39 +19343,39 @@
       <c r="L55" s="26"/>
       <c r="M55" s="28">
         <f>M32+M53</f>
-        <v>1.3038270786980043E-3</v>
+        <v>1.0059108484589418E-2</v>
       </c>
       <c r="N55" s="28">
         <f>N32+N53</f>
-        <v>2.3074211647316437E-2</v>
+        <v>1.1216423374864039E-2</v>
       </c>
       <c r="O55" s="29">
         <f>SUM(O9:O54)</f>
-        <v>122711336.68835001</v>
+        <v>396016539.17080003</v>
       </c>
       <c r="P55" s="29">
         <f>P32+P53+P54</f>
-        <v>2128239.2516964888</v>
+        <v>6918127.1800818825</v>
       </c>
       <c r="Q55" s="29">
         <f>Q32+Q53+Q54</f>
-        <v>133156697.02210075</v>
+        <v>410752801.16650754</v>
       </c>
       <c r="R55" s="29">
         <f>R32+R53+R54</f>
-        <v>2364577.6386329425</v>
+        <v>7185993.0715166759</v>
       </c>
       <c r="S55" s="29">
         <f>S32+S53+S54</f>
-        <v>-817259.66624925192</v>
+        <v>3304221.9957075887</v>
       </c>
       <c r="T55" s="29">
         <f>T32+T53+T54</f>
-        <v>36338.386936453579</v>
+        <v>67865.891434793986</v>
       </c>
       <c r="U55" s="28">
         <f>SUMPRODUCT($D$9:$D$52,U9:U52)/100</f>
-        <v>6.3814305886411959E-2</v>
+        <v>5.8847164910310459E-2</v>
       </c>
       <c r="V55" s="28"/>
       <c r="W55" s="28"/>
@@ -19307,7 +19399,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J31:J32 J53">
-    <cfRule type="dataBar" priority="224">
+    <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19321,7 +19413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U31:U33 U53">
-    <cfRule type="dataBar" priority="225">
+    <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19335,7 +19427,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:N53 M31:N33">
-    <cfRule type="dataBar" priority="226">
+    <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19349,7 +19441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:N53 M31:N33">
-    <cfRule type="dataBar" priority="227">
+    <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19363,7 +19455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J53:J55 J31:J32">
-    <cfRule type="dataBar" priority="228">
+    <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19377,7 +19469,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:M55 M31:M33">
-    <cfRule type="dataBar" priority="230">
+    <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19391,7 +19483,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53:N55 N31:N33">
-    <cfRule type="dataBar" priority="232">
+    <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19405,7 +19497,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U53:U54 U31:U33">
-    <cfRule type="dataBar" priority="234">
+    <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19419,7 +19511,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53:N55 M7:N7 M31:N33">
-    <cfRule type="dataBar" priority="236">
+    <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19433,7 +19525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="dataBar" priority="193">
+    <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19447,7 +19539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55">
-    <cfRule type="dataBar" priority="191">
+    <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19461,7 +19553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55">
-    <cfRule type="dataBar" priority="192">
+    <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19475,7 +19567,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U55">
-    <cfRule type="dataBar" priority="190">
+    <cfRule type="dataBar" priority="202">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19489,7 +19581,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="dataBar" priority="170">
+    <cfRule type="dataBar" priority="182">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19503,7 +19595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="dataBar" priority="171">
+    <cfRule type="dataBar" priority="183">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19517,7 +19609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N8">
-    <cfRule type="dataBar" priority="172">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19531,7 +19623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N8">
-    <cfRule type="dataBar" priority="173">
+    <cfRule type="dataBar" priority="185">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19545,7 +19637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8">
-    <cfRule type="dataBar" priority="174">
+    <cfRule type="dataBar" priority="186">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19559,7 +19651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8">
-    <cfRule type="dataBar" priority="175">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19573,7 +19665,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N8">
-    <cfRule type="dataBar" priority="176">
+    <cfRule type="dataBar" priority="188">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19587,7 +19679,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U8">
-    <cfRule type="dataBar" priority="177">
+    <cfRule type="dataBar" priority="189">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19601,7 +19693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M8:N8">
-    <cfRule type="dataBar" priority="178">
+    <cfRule type="dataBar" priority="190">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19615,7 +19707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U23">
-    <cfRule type="dataBar" priority="154">
+    <cfRule type="dataBar" priority="166">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19629,7 +19721,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:N13">
-    <cfRule type="dataBar" priority="155">
+    <cfRule type="dataBar" priority="167">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19643,7 +19735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:N13">
-    <cfRule type="dataBar" priority="156">
+    <cfRule type="dataBar" priority="168">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19657,7 +19749,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:M13">
-    <cfRule type="dataBar" priority="157">
+    <cfRule type="dataBar" priority="169">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19671,7 +19763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N13">
-    <cfRule type="dataBar" priority="158">
+    <cfRule type="dataBar" priority="170">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19685,7 +19777,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U9:U23">
-    <cfRule type="dataBar" priority="159">
+    <cfRule type="dataBar" priority="171">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19699,7 +19791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M9:N13">
-    <cfRule type="dataBar" priority="160">
+    <cfRule type="dataBar" priority="172">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19713,7 +19805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J13">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="164">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19727,7 +19819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J13">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="165">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19741,7 +19833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="dataBar" priority="112">
+    <cfRule type="dataBar" priority="124">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19755,7 +19847,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:N25">
-    <cfRule type="dataBar" priority="113">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19769,7 +19861,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:N25">
-    <cfRule type="dataBar" priority="114">
+    <cfRule type="dataBar" priority="126">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19783,7 +19875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25">
-    <cfRule type="dataBar" priority="115">
+    <cfRule type="dataBar" priority="127">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19797,7 +19889,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N25">
-    <cfRule type="dataBar" priority="116">
+    <cfRule type="dataBar" priority="128">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19811,7 +19903,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U25">
-    <cfRule type="dataBar" priority="117">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19825,7 +19917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M25:N25">
-    <cfRule type="dataBar" priority="118">
+    <cfRule type="dataBar" priority="130">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19839,7 +19931,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="dataBar" priority="110">
+    <cfRule type="dataBar" priority="122">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19853,7 +19945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25">
-    <cfRule type="dataBar" priority="111">
+    <cfRule type="dataBar" priority="123">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19867,7 +19959,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="dataBar" priority="102">
+    <cfRule type="dataBar" priority="114">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19881,7 +19973,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:N26">
-    <cfRule type="dataBar" priority="103">
+    <cfRule type="dataBar" priority="115">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19895,7 +19987,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:N26">
-    <cfRule type="dataBar" priority="104">
+    <cfRule type="dataBar" priority="116">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19909,7 +20001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26">
-    <cfRule type="dataBar" priority="105">
+    <cfRule type="dataBar" priority="117">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19923,7 +20015,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N26">
-    <cfRule type="dataBar" priority="106">
+    <cfRule type="dataBar" priority="118">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19937,7 +20029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U26">
-    <cfRule type="dataBar" priority="107">
+    <cfRule type="dataBar" priority="119">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19951,7 +20043,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M26:N26">
-    <cfRule type="dataBar" priority="108">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19965,7 +20057,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="dataBar" priority="100">
+    <cfRule type="dataBar" priority="112">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19979,7 +20071,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J26">
-    <cfRule type="dataBar" priority="101">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -19993,7 +20085,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="dataBar" priority="92">
+    <cfRule type="dataBar" priority="104">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20007,7 +20099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:N27">
-    <cfRule type="dataBar" priority="93">
+    <cfRule type="dataBar" priority="105">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20021,7 +20113,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:N27">
-    <cfRule type="dataBar" priority="94">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20035,7 +20127,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27">
-    <cfRule type="dataBar" priority="95">
+    <cfRule type="dataBar" priority="107">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20049,7 +20141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27">
-    <cfRule type="dataBar" priority="96">
+    <cfRule type="dataBar" priority="108">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20063,7 +20155,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U27">
-    <cfRule type="dataBar" priority="97">
+    <cfRule type="dataBar" priority="109">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20077,7 +20169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M27:N27">
-    <cfRule type="dataBar" priority="98">
+    <cfRule type="dataBar" priority="110">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20091,7 +20183,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="dataBar" priority="90">
+    <cfRule type="dataBar" priority="102">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20105,7 +20197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27">
-    <cfRule type="dataBar" priority="91">
+    <cfRule type="dataBar" priority="103">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20119,7 +20211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28:U30">
-    <cfRule type="dataBar" priority="82">
+    <cfRule type="dataBar" priority="94">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20133,7 +20225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:N30">
-    <cfRule type="dataBar" priority="83">
+    <cfRule type="dataBar" priority="95">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20147,7 +20239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:N30">
-    <cfRule type="dataBar" priority="84">
+    <cfRule type="dataBar" priority="96">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20161,7 +20253,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:M30">
-    <cfRule type="dataBar" priority="85">
+    <cfRule type="dataBar" priority="97">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20175,7 +20267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28:N30">
-    <cfRule type="dataBar" priority="86">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20189,7 +20281,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28:U30">
-    <cfRule type="dataBar" priority="87">
+    <cfRule type="dataBar" priority="99">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20203,7 +20295,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M28:N30">
-    <cfRule type="dataBar" priority="88">
+    <cfRule type="dataBar" priority="100">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20217,7 +20309,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J30">
-    <cfRule type="dataBar" priority="80">
+    <cfRule type="dataBar" priority="92">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20231,7 +20323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J30">
-    <cfRule type="dataBar" priority="81">
+    <cfRule type="dataBar" priority="93">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20245,7 +20337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51:U52 U39:U42">
-    <cfRule type="dataBar" priority="56">
+    <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20259,7 +20351,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51:N52 M39:N42">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20273,7 +20365,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51:N52 M39:N42">
-    <cfRule type="dataBar" priority="58">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20287,7 +20379,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51:M52 M39:M42">
-    <cfRule type="dataBar" priority="59">
+    <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20301,7 +20393,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N51:N52 N39:N42">
-    <cfRule type="dataBar" priority="60">
+    <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20315,7 +20407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U51:U52 U39:U42">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20329,7 +20421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M51:N52">
-    <cfRule type="dataBar" priority="62">
+    <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20342,8 +20434,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U24">
-    <cfRule type="dataBar" priority="48">
+  <conditionalFormatting sqref="U14:U18 U24">
+    <cfRule type="dataBar" priority="60">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20356,8 +20448,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:N24">
-    <cfRule type="dataBar" priority="49">
+  <conditionalFormatting sqref="M14:N18 M24:N24">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20370,8 +20462,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:N24">
-    <cfRule type="dataBar" priority="50">
+  <conditionalFormatting sqref="M14:N18 M24:N24">
+    <cfRule type="dataBar" priority="62">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20384,8 +20476,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:M24">
-    <cfRule type="dataBar" priority="51">
+  <conditionalFormatting sqref="M14:M18 M24">
+    <cfRule type="dataBar" priority="63">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20398,8 +20490,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N24">
-    <cfRule type="dataBar" priority="52">
+  <conditionalFormatting sqref="N14:N18 N24">
+    <cfRule type="dataBar" priority="64">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20412,8 +20504,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:U24">
-    <cfRule type="dataBar" priority="53">
+  <conditionalFormatting sqref="U14:U18 U24">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20426,8 +20518,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M14:N24">
-    <cfRule type="dataBar" priority="54">
+  <conditionalFormatting sqref="M14:N18 M24:N24">
+    <cfRule type="dataBar" priority="66">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20440,8 +20532,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J24">
-    <cfRule type="dataBar" priority="46">
+  <conditionalFormatting sqref="J14:J18 J24">
+    <cfRule type="dataBar" priority="58">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20454,8 +20546,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J14:J24">
-    <cfRule type="dataBar" priority="47">
+  <conditionalFormatting sqref="J14:J18 J24">
+    <cfRule type="dataBar" priority="59">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20469,7 +20561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U43:U50">
-    <cfRule type="dataBar" priority="38">
+    <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20483,7 +20575,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:N50">
-    <cfRule type="dataBar" priority="39">
+    <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20497,7 +20589,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:N50">
-    <cfRule type="dataBar" priority="40">
+    <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20511,7 +20603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:M50">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20525,7 +20617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N43:N50">
-    <cfRule type="dataBar" priority="42">
+    <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20539,7 +20631,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U43:U50">
-    <cfRule type="dataBar" priority="43">
+    <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20553,7 +20645,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M43:N50">
-    <cfRule type="dataBar" priority="44">
+    <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20567,7 +20659,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V54:W54">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20581,7 +20673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V55:W55">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20595,7 +20687,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V55:W55">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20609,7 +20701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V55:W55">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20623,7 +20715,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:U38">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20637,7 +20729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U34:U38">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20651,7 +20743,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20665,7 +20757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20679,7 +20771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20693,7 +20785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M34:M38">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20707,7 +20799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20721,7 +20813,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20735,7 +20827,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20749,7 +20841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N38">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -20758,6 +20850,160 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{B4C6371D-DF78-4395-95BB-08F7695351B7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U23">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{8EFD676A-87DE-4793-A389-333D66B9DA7A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U23">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A755E6A8-56F1-475B-9820-C445AA21A5BC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U23">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{304DE4B4-C76F-4A74-8496-AC3E2A0F33CB}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N23">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{24CCC23B-A56C-48DC-89CE-20D4E2E872C5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N23">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{25F86773-D61F-47C2-BEDF-CAD879570407}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M23">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4D8C8906-8953-45B0-B3C8-69ED061A8EC7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:N23">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ABC1771D-9B85-464F-B2D0-C3E81295F239}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19:U23">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D0D6D11F-B9BE-4DF5-859E-754AB5C0D23A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:N23">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E1A3F201-845F-4DDB-9E50-8590B648474D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J23">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55A46C67-2474-4CAA-8D77-BEF7BFE13C46}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J23">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E02206A5-7988-499E-BD2E-DE72DB1EA88D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21740,7 +21986,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U14:U24</xm:sqref>
+          <xm:sqref>U14:U18 U24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8DB76DA2-1A0D-45C5-9EC0-EC38B2D1D3A9}">
@@ -21753,7 +21999,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M14:N24</xm:sqref>
+          <xm:sqref>M14:N18 M24:N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6EE65933-B656-4636-901A-2FCD9C483034}">
@@ -21766,7 +22012,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M14:N24</xm:sqref>
+          <xm:sqref>M14:N18 M24:N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCA5D5F8-AF46-4D74-A051-155679A41EA5}">
@@ -21779,7 +22025,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M14:M24</xm:sqref>
+          <xm:sqref>M14:M18 M24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8EDC83DA-F030-4D62-B43A-FAF1C8479625}">
@@ -21792,7 +22038,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N14:N24</xm:sqref>
+          <xm:sqref>N14:N18 N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{79415044-B95D-4175-A34C-CE683D5B825C}">
@@ -21805,7 +22051,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U14:U24</xm:sqref>
+          <xm:sqref>U14:U18 U24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{74120A5F-8593-41BF-84A6-E8A924A9A56F}">
@@ -21818,7 +22064,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M14:N24</xm:sqref>
+          <xm:sqref>M14:N18 M24:N24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{50F2273C-2D29-4272-9D7E-339E7DDF204C}">
@@ -21831,7 +22077,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J14:J24</xm:sqref>
+          <xm:sqref>J14:J18 J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B63E6810-4CA4-4677-A58E-4B2468A91668}">
@@ -21844,7 +22090,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J14:J24</xm:sqref>
+          <xm:sqref>J14:J18 J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{11C20CD6-38D5-4EEF-B79E-87F9DB5413E3}">
@@ -22120,7 +22366,7 @@
           <xm:sqref>N34:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="238" id="{EF154165-A510-48D6-8441-6E52AFB69160}">
+          <x14:cfRule type="iconSet" priority="250" id="{EF154165-A510-48D6-8441-6E52AFB69160}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -22139,7 +22385,7 @@
           <xm:sqref>K53 K32:K33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="179" id="{114ECFA3-0821-47BE-B7AB-089367875297}">
+          <x14:cfRule type="iconSet" priority="191" id="{114ECFA3-0821-47BE-B7AB-089367875297}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -22158,7 +22404,7 @@
           <xm:sqref>K8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="161" id="{9C82F187-496F-4ACE-BA8C-CD06B1B5CA98}">
+          <x14:cfRule type="iconSet" priority="173" id="{9C82F187-496F-4ACE-BA8C-CD06B1B5CA98}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -22177,7 +22423,7 @@
           <xm:sqref>K9:K31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="63" id="{A6BBD403-352E-48A7-80C6-F5EAACA8076B}">
+          <x14:cfRule type="iconSet" priority="75" id="{A6BBD403-352E-48A7-80C6-F5EAACA8076B}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -22196,7 +22442,7 @@
           <xm:sqref>K51:K52 K34:K42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="45" id="{A6E7F667-E3CA-4B6B-822E-484CF02F32A1}">
+          <x14:cfRule type="iconSet" priority="57" id="{A6E7F667-E3CA-4B6B-822E-484CF02F32A1}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -22214,6 +22460,168 @@
           </x14:cfRule>
           <xm:sqref>K43:K50</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8EFD676A-87DE-4793-A389-333D66B9DA7A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U19:U23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A755E6A8-56F1-475B-9820-C445AA21A5BC}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U19:U23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{304DE4B4-C76F-4A74-8496-AC3E2A0F33CB}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U19:U23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{24CCC23B-A56C-48DC-89CE-20D4E2E872C5}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:N23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{25F86773-D61F-47C2-BEDF-CAD879570407}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:N23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4D8C8906-8953-45B0-B3C8-69ED061A8EC7}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:M23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ABC1771D-9B85-464F-B2D0-C3E81295F239}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N19:N23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D0D6D11F-B9BE-4DF5-859E-754AB5C0D23A}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U19:U23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E1A3F201-845F-4DDB-9E50-8590B648474D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:N23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55A46C67-2474-4CAA-8D77-BEF7BFE13C46}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J19:J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E02206A5-7988-499E-BD2E-DE72DB1EA88D}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J19:J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="12" id="{A70E0C30-2B1F-4119-859A-02C77EEA2754}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K19:K23</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -22222,1078 +22630,1687 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="31.42578125" customWidth="1"/>
     <col min="16" max="16" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4680</v>
       </c>
       <c r="B1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="C1" t="s">
         <v>4681</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4682</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4683</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4684</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4685</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4686</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4687</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4688</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4689</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>4690</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>4691</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>4692</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>4693</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>4694</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>4695</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>177.37500177375</v>
+        <v>4665</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4666</v>
       </c>
       <c r="C2">
-        <v>174.78467741935484</v>
+        <v>3.8700000386999998</v>
       </c>
       <c r="D2">
-        <v>186000</v>
+        <v>3.8288056550490075</v>
       </c>
       <c r="E2">
-        <v>329917.503299175</v>
-      </c>
-      <c r="F2">
-        <v>18578677.355036773</v>
-      </c>
-      <c r="G2">
-        <v>325099.5</v>
+        <v>35950</v>
+      </c>
+      <c r="F2" s="36">
+        <v>139126.50139126502</v>
+      </c>
+      <c r="G2" s="36">
+        <v>7952498.6448249863</v>
       </c>
       <c r="H2">
-        <v>19085433.033150002</v>
+        <v>137645.56329901182</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>7803963.1322999997</v>
       </c>
       <c r="J2" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2">
+      <c r="L2">
+        <v>4.5789475440979004</v>
+      </c>
+      <c r="M2">
+        <v>5.315333366394043</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="O2">
+        <v>5.9431524547803622</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4701</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>11.700000116999998</v>
+      </c>
+      <c r="D3">
+        <v>12.318525954929372</v>
+      </c>
+      <c r="E3">
+        <v>10950</v>
+      </c>
+      <c r="F3" s="36">
+        <v>128115.00128114998</v>
+      </c>
+      <c r="G3" s="36">
+        <v>7323079.0962307891</v>
+      </c>
+      <c r="H3">
+        <v>134887.8592064766</v>
+      </c>
+      <c r="I3">
+        <v>7646222.7825000007</v>
+      </c>
+      <c r="J3" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>15.971428871154785</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
-      <c r="M2">
-        <v>7.2900400273741361</v>
-      </c>
-      <c r="N2">
-        <v>4.0339327000000003</v>
-      </c>
-      <c r="O2" t="s">
-        <v>4698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1844</v>
-      </c>
-      <c r="B3">
-        <v>106.60000106599999</v>
-      </c>
-      <c r="C3">
-        <v>101.43</v>
-      </c>
-      <c r="D3">
-        <v>13500</v>
-      </c>
-      <c r="E3">
-        <v>255553.32851343649</v>
-      </c>
-      <c r="F3">
-        <v>14391000.14391</v>
-      </c>
-      <c r="G3">
-        <v>236662.40342902576</v>
-      </c>
-      <c r="H3">
-        <v>13693050</v>
-      </c>
-      <c r="I3">
-        <v>5</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4696</v>
-      </c>
-      <c r="K3">
+      <c r="O3">
+        <v>9.9145296292427272</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4664</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4">
+        <v>28.470000284699996</v>
+      </c>
+      <c r="D4">
+        <v>22.337144347987682</v>
+      </c>
+      <c r="E4">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="36">
+        <v>113880.00113879998</v>
+      </c>
+      <c r="G4" s="36">
+        <v>6509403.6410940355</v>
+      </c>
+      <c r="H4">
+        <v>89348.577391950777</v>
+      </c>
+      <c r="I4">
+        <v>5000000</v>
+      </c>
+      <c r="J4" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>4.0555553436279297</v>
+      </c>
+      <c r="M4">
+        <v>27.668838500976563</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
-      <c r="L3">
+      <c r="O4">
         <v>0</v>
       </c>
-      <c r="M3">
-        <v>4.8117893487329804</v>
-      </c>
-      <c r="N3">
-        <v>9.99</v>
-      </c>
-      <c r="O3" t="s">
-        <v>4699</v>
-      </c>
-      <c r="P3" t="s">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B4">
-        <v>103.24000103239999</v>
-      </c>
-      <c r="C4">
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <v>13500</v>
-      </c>
-      <c r="E4">
-        <v>247498.36431263771</v>
-      </c>
-      <c r="F4">
-        <v>13937400.139373999</v>
-      </c>
-      <c r="G4">
-        <v>232371.20180664305</v>
-      </c>
-      <c r="H4">
-        <v>13500000</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>4696</v>
-      </c>
-      <c r="K4">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4668</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4669</v>
+      </c>
+      <c r="C5">
+        <v>9.6500000964999995</v>
+      </c>
+      <c r="D5">
+        <v>10.107925842843956</v>
+      </c>
+      <c r="E5">
+        <v>8800</v>
+      </c>
+      <c r="F5" s="36">
+        <v>84920.000849200005</v>
+      </c>
+      <c r="G5" s="36">
+        <v>4854044.2325404426</v>
+      </c>
+      <c r="H5">
+        <v>88949.747417026796</v>
+      </c>
+      <c r="I5">
+        <v>5020048</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <v>4.1111111640930176</v>
+      </c>
+      <c r="M5">
+        <v>12.428571701049805</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
-      <c r="L4">
+      <c r="O5">
+        <v>1.5931503142717587</v>
+      </c>
+      <c r="P5" t="s">
+        <v>5103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+      <c r="C6">
+        <v>386.80000386799998</v>
+      </c>
+      <c r="D6">
+        <v>383.37481709664996</v>
+      </c>
+      <c r="E6">
+        <v>129850</v>
+      </c>
+      <c r="F6" s="36">
+        <v>878687.97698853037</v>
+      </c>
+      <c r="G6" s="36">
+        <v>50225980.502259798</v>
+      </c>
+      <c r="H6">
+        <v>878023.43165328971</v>
+      </c>
+      <c r="I6">
+        <v>49781220</v>
+      </c>
+      <c r="J6" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L6">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="M6">
+        <v>412.79998779296875</v>
+      </c>
+      <c r="N6">
         <v>0</v>
       </c>
-      <c r="M4">
-        <v>2.450910370163923</v>
-      </c>
-      <c r="N4">
-        <v>9.68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>4701</v>
-      </c>
-      <c r="P4" t="s">
-        <v>4702</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4660</v>
-      </c>
-      <c r="B5">
-        <v>101.30000101299999</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>13500</v>
-      </c>
-      <c r="E5">
-        <v>242847.58141098605</v>
-      </c>
-      <c r="F5">
-        <v>13675500.136754999</v>
-      </c>
-      <c r="G5">
-        <v>239455.53133408658</v>
-      </c>
-      <c r="H5">
-        <v>13500000</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4703</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5109</v>
+      </c>
+      <c r="B7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C7">
+        <v>201.20000201199997</v>
+      </c>
+      <c r="D7">
+        <v>196.90520038310098</v>
+      </c>
+      <c r="E7">
+        <v>46985</v>
+      </c>
+      <c r="F7" s="36">
+        <v>165383.99261258388</v>
+      </c>
+      <c r="G7" s="36">
+        <v>9453382.0945338178</v>
+      </c>
+      <c r="H7">
+        <v>163227.89665221993</v>
+      </c>
+      <c r="I7">
+        <v>9251590.8399999999</v>
+      </c>
+      <c r="J7" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K7" t="s">
         <v>4667</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>2.966556471918671</v>
-      </c>
-      <c r="N5">
-        <v>9.26</v>
-      </c>
-      <c r="O5" t="s">
-        <v>4703</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>948</v>
-      </c>
-      <c r="B6">
-        <v>102.19000102189999</v>
-      </c>
-      <c r="C6">
-        <v>101.6</v>
-      </c>
-      <c r="D6">
-        <v>6590</v>
-      </c>
-      <c r="E6">
-        <v>119587.1132532787</v>
-      </c>
-      <c r="F6">
-        <v>6734321.0673432089</v>
-      </c>
-      <c r="G6">
-        <v>116167.67298216392</v>
-      </c>
-      <c r="H6">
-        <v>6695440</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0.44811590035241372</v>
-      </c>
-      <c r="N6">
-        <v>9.43</v>
-      </c>
-      <c r="O6" t="s">
-        <v>4704</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7">
-        <v>27.330000273299998</v>
-      </c>
-      <c r="C7">
-        <v>22.338161563762544</v>
-      </c>
-      <c r="D7">
-        <v>2330</v>
-      </c>
-      <c r="E7">
-        <v>63678.900636788989</v>
-      </c>
-      <c r="F7">
-        <v>3585956.2994495621</v>
-      </c>
-      <c r="G7">
-        <v>52047.916443566726</v>
-      </c>
-      <c r="H7">
-        <v>2993941.8880000003</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7">
-        <v>4.0999999046325684</v>
-      </c>
       <c r="L7">
-        <v>26.539688110351563</v>
+        <v>4.0909090042114258</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>218.6844482421875</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>11.474024359930398</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5110</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>5111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4666</v>
-      </c>
-      <c r="B8">
-        <v>4.1450000414499995</v>
+        <v>5112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>375</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>917.50000917499995</v>
       </c>
       <c r="D8">
-        <v>12500</v>
+        <v>893.47466666666662</v>
       </c>
       <c r="E8">
-        <v>51812.500518124994</v>
-      </c>
-      <c r="F8">
-        <v>2917722.5229272246</v>
-      </c>
-      <c r="G8">
-        <v>50000</v>
+        <v>9750</v>
+      </c>
+      <c r="F8" s="36">
+        <v>156500.94102988177</v>
+      </c>
+      <c r="G8" s="36">
+        <v>8945625.089456249</v>
       </c>
       <c r="H8">
-        <v>2960870</v>
+        <v>155364.05505524145</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>8711378</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8">
-        <v>4.5789475440979004</v>
+        <v>5102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>4667</v>
       </c>
       <c r="L8">
-        <v>5.445624828338623</v>
+        <v>5</v>
       </c>
       <c r="M8">
+        <v>1150</v>
+      </c>
+      <c r="N8">
         <v>0</v>
       </c>
-      <c r="N8">
-        <v>4.704463036126481</v>
-      </c>
-      <c r="O8" t="s">
-        <v>4705</v>
+      <c r="O8">
+        <v>8.5013623978201647</v>
       </c>
       <c r="P8" t="s">
-        <v>4706</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4669</v>
-      </c>
-      <c r="B9">
-        <v>9.7000000969999984</v>
+        <v>5114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>9.7320443329827686</v>
+        <v>89.560000895599998</v>
       </c>
       <c r="D9">
-        <v>5300</v>
+        <v>87.734329545454543</v>
       </c>
       <c r="E9">
-        <v>51410.0005141</v>
-      </c>
-      <c r="F9">
-        <v>2895056.4999505645</v>
-      </c>
-      <c r="G9">
-        <v>51579.834964808673</v>
+        <v>88000</v>
+      </c>
+      <c r="F9" s="36">
+        <v>137880.55463089352</v>
+      </c>
+      <c r="G9" s="36">
+        <v>7881280.0788127994</v>
       </c>
       <c r="H9">
-        <v>2996618.1980000003</v>
+        <v>135439.93271671049</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>7720621</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9">
-        <v>4.1111111640930176</v>
+        <v>5102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4667</v>
       </c>
       <c r="L9">
-        <v>12.428571701049805</v>
+        <v>4.125</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>103.30160522460937</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
-      <c r="O9" t="s">
-        <v>4707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>9.9709691826708351</v>
+      </c>
+      <c r="P9" t="s">
+        <v>4705</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10">
-        <v>382.20000382199999</v>
+        <v>5115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
       </c>
       <c r="C10">
-        <v>382.2</v>
+        <v>610.50000610500001</v>
       </c>
       <c r="D10">
-        <v>21000</v>
+        <v>598.46097763048886</v>
       </c>
       <c r="E10">
-        <v>142528.11655302229</v>
-      </c>
-      <c r="F10">
-        <v>8026200.0802619997</v>
-      </c>
-      <c r="G10">
-        <v>142528.11512774116</v>
+        <v>12070</v>
+      </c>
+      <c r="F10" s="36">
+        <v>128913.73846990301</v>
+      </c>
+      <c r="G10" s="36">
+        <v>7368735.0736873504</v>
       </c>
       <c r="H10">
-        <v>8026200</v>
+        <v>127727.13034839868</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>7223424.0000000009</v>
       </c>
       <c r="J10" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K10" t="s">
         <v>4667</v>
       </c>
-      <c r="K10">
-        <v>3.4000000953674316</v>
-      </c>
       <c r="L10">
-        <v>412.79998779296875</v>
+        <v>4.1999998092651367</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>707.4000244140625</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
-      <c r="O10" t="s">
-        <v>4708</v>
+      <c r="O10">
+        <v>10.565110565110565</v>
       </c>
       <c r="P10" t="s">
-        <v>4709</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11">
-        <v>1274.5000127449998</v>
+        <v>5116</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
       </c>
       <c r="C11">
-        <v>1289.1397704697986</v>
+        <v>7.4400000744000003</v>
       </c>
       <c r="D11">
-        <v>3725</v>
+        <v>6.0270812500000002</v>
       </c>
       <c r="E11">
-        <v>84305.65086054799</v>
-      </c>
-      <c r="F11">
-        <v>4747512.5474751247</v>
-      </c>
-      <c r="G11">
-        <v>81852.342091092651</v>
+        <v>800000</v>
+      </c>
+      <c r="F11" s="36">
+        <v>104128.39807278491</v>
+      </c>
+      <c r="G11" s="36">
+        <v>5952000.0595200006</v>
       </c>
       <c r="H11">
-        <v>4802045.6449999996</v>
+        <v>85050.203546633813</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>4821665</v>
       </c>
       <c r="J11" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K11" t="s">
         <v>4667</v>
       </c>
-      <c r="K11">
-        <v>3.5</v>
-      </c>
       <c r="L11">
-        <v>1839.0594482421875</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.867791290702236</v>
-      </c>
-      <c r="O11" t="s">
-        <v>4710</v>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>10.489207726937753</v>
       </c>
       <c r="P11" t="s">
-        <v>4711</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>7.19500007195</v>
+        <v>4809</v>
+      </c>
+      <c r="B12" t="s">
+        <v>482</v>
       </c>
       <c r="C12">
-        <v>6.0959000000000003</v>
+        <v>101.62000101619999</v>
       </c>
       <c r="D12">
-        <v>491000</v>
+        <v>104.84164166666669</v>
       </c>
       <c r="E12">
-        <v>62733.98259601141</v>
-      </c>
-      <c r="F12">
-        <v>3532745.0353274499</v>
-      </c>
-      <c r="G12">
-        <v>52033.052980731125</v>
+        <v>48000</v>
+      </c>
+      <c r="F12" s="36">
+        <v>85334.90171093872</v>
+      </c>
+      <c r="G12" s="36">
+        <v>4877760.0487775998</v>
       </c>
       <c r="H12">
-        <v>2993086.9000000004</v>
+        <v>88357.143860437645</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5032398.8000000007</v>
       </c>
       <c r="J12" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K12" t="s">
         <v>4667</v>
       </c>
-      <c r="K12">
+      <c r="L12">
+        <v>3.7999999523162842</v>
+      </c>
+      <c r="M12">
+        <v>137.27499389648437</v>
+      </c>
+      <c r="N12">
         <v>0</v>
       </c>
-      <c r="L12">
+      <c r="O12">
+        <v>7.675654398740404</v>
+      </c>
+      <c r="P12" t="s">
+        <v>5118</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>5119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>5120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>121.5400012154</v>
+      </c>
+      <c r="D13">
+        <v>128.94952499999999</v>
+      </c>
+      <c r="E13">
+        <v>40000</v>
+      </c>
+      <c r="F13" s="36">
+        <v>85052.187511870128</v>
+      </c>
+      <c r="G13" s="36">
+        <v>4861600.0486159995</v>
+      </c>
+      <c r="H13">
+        <v>90453.91971352062</v>
+      </c>
+      <c r="I13">
+        <v>5157981</v>
+      </c>
+      <c r="J13" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K13" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L13">
+        <v>3.615384578704834</v>
+      </c>
+      <c r="M13">
+        <v>143.60252380371094</v>
+      </c>
+      <c r="N13">
         <v>0</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>10.824512490967729</v>
-      </c>
-      <c r="O12" t="s">
-        <v>4712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13">
-        <v>98.590000985899991</v>
-      </c>
-      <c r="C13">
-        <v>87.690200000000004</v>
-      </c>
-      <c r="D13">
-        <v>34200</v>
-      </c>
-      <c r="E13">
-        <v>59875.55353404057</v>
-      </c>
-      <c r="F13">
-        <v>3371778.0337177799</v>
-      </c>
-      <c r="G13">
-        <v>53315.167687398331</v>
-      </c>
-      <c r="H13">
-        <v>2999004.8400000003</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="O13">
+        <v>6.6148593055784106</v>
+      </c>
+      <c r="P13" t="s">
+        <v>4705</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>5121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14">
+        <v>2818.0000281799998</v>
+      </c>
+      <c r="D14">
+        <v>2899.8255813953488</v>
+      </c>
+      <c r="E14">
+        <v>1720</v>
+      </c>
+      <c r="F14" s="36">
+        <v>84796.065242416909</v>
+      </c>
+      <c r="G14" s="36">
+        <v>4846960.0484695993</v>
+      </c>
+      <c r="H14">
+        <v>87880.31489403687</v>
+      </c>
+      <c r="I14">
+        <v>4987700</v>
+      </c>
+      <c r="J14" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K14" t="s">
         <v>4667</v>
       </c>
-      <c r="K13">
-        <v>4.125</v>
-      </c>
-      <c r="L13">
-        <v>103.17498016357422</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>9.0577140736137345</v>
-      </c>
-      <c r="O13" t="s">
-        <v>4713</v>
-      </c>
-      <c r="P13" t="s">
-        <v>4714</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>503</v>
-      </c>
-      <c r="B14">
-        <v>23.150000231499998</v>
-      </c>
-      <c r="C14">
-        <v>34.422600000000003</v>
-      </c>
-      <c r="D14">
-        <v>130500</v>
-      </c>
-      <c r="E14">
-        <v>53647.819605220626</v>
-      </c>
-      <c r="F14">
-        <v>3021075.0302107497</v>
-      </c>
-      <c r="G14">
-        <v>77321.935669323735</v>
-      </c>
-      <c r="H14">
-        <v>4492149.3000000007</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K14">
-        <v>5</v>
-      </c>
       <c r="L14">
-        <v>0</v>
+        <v>4.4545454978942871</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3515.028564453125</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
-      <c r="O14" t="s">
-        <v>4715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>7.0972320794889994</v>
+      </c>
+      <c r="P14" t="s">
+        <v>5123</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>703</v>
-      </c>
-      <c r="B15">
-        <v>22.295000222950002</v>
+        <v>5104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>634</v>
       </c>
       <c r="C15">
-        <v>22.2989</v>
+        <v>271.50000271499999</v>
       </c>
       <c r="D15">
-        <v>135000</v>
+        <v>269.49880000000002</v>
       </c>
       <c r="E15">
-        <v>53448.043707383367</v>
-      </c>
-      <c r="F15">
-        <v>3009825.0300982501</v>
-      </c>
-      <c r="G15">
-        <v>52333.187883760875</v>
+        <v>13600</v>
+      </c>
+      <c r="F15" s="36">
+        <v>64597.395336685309</v>
+      </c>
+      <c r="G15" s="36">
+        <v>3692400.0369239999</v>
       </c>
       <c r="H15">
-        <v>3010351.5</v>
+        <v>64121.253599532545</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3665183.68</v>
       </c>
       <c r="J15" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K15" t="s">
         <v>4667</v>
       </c>
-      <c r="K15">
+      <c r="L15">
+        <v>4.5</v>
+      </c>
+      <c r="M15">
+        <v>376.77935001286096</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>3.6243094484669944</v>
+      </c>
+      <c r="P15" t="s">
+        <v>4709</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16">
+        <v>24.070000240699997</v>
+      </c>
+      <c r="D16">
+        <v>23.729700000000001</v>
+      </c>
+      <c r="E16">
+        <v>43800</v>
+      </c>
+      <c r="F16" s="36">
+        <v>18444.057413071678</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1054266.0105426598</v>
+      </c>
+      <c r="H16">
+        <v>18183.296419536669</v>
+      </c>
+      <c r="I16">
+        <v>1039360.8600000001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K16" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L16">
         <v>5</v>
-      </c>
-      <c r="L15">
-        <v>28.75</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>7.2662032059581589</v>
-      </c>
-      <c r="O15" t="s">
-        <v>4716</v>
-      </c>
-      <c r="P15" t="s">
-        <v>4717</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>375</v>
-      </c>
-      <c r="B16">
-        <v>878.50000878499998</v>
-      </c>
-      <c r="C16">
-        <v>899</v>
-      </c>
-      <c r="D16">
-        <v>3400</v>
-      </c>
-      <c r="E16">
-        <v>53040.944822234967</v>
-      </c>
-      <c r="F16">
-        <v>2986900.029869</v>
-      </c>
-      <c r="G16">
-        <v>53855.47857832531</v>
-      </c>
-      <c r="H16">
-        <v>3056600</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-      <c r="J16" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K16">
-        <v>5</v>
-      </c>
-      <c r="L16">
-        <v>1150</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>8.8787706317586803</v>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
       </c>
       <c r="P16" t="s">
-        <v>4718</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>4707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>634</v>
-      </c>
-      <c r="B17">
-        <v>290.90000290899997</v>
+        <v>4670</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4671</v>
       </c>
       <c r="C17">
-        <v>293.73910000000001</v>
+        <v>152.25000152249999</v>
       </c>
       <c r="D17">
-        <v>10200</v>
+        <v>156.05965748005735</v>
       </c>
       <c r="E17">
-        <v>52690.759870648217</v>
-      </c>
-      <c r="F17">
-        <v>2967180.0296717999</v>
-      </c>
-      <c r="G17">
-        <v>52086.108812505656</v>
+        <v>119010</v>
+      </c>
+      <c r="F17" s="36">
+        <v>231592.40422162064</v>
+      </c>
+      <c r="G17" s="36">
+        <v>13237868.14378868</v>
       </c>
       <c r="H17">
-        <v>2996138.8200000003</v>
+        <v>235995.0447481072</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>13278498.6289475</v>
       </c>
       <c r="J17" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K17">
+        <v>5102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>4697</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>215</v>
+      </c>
+      <c r="N17">
         <v>0</v>
       </c>
-      <c r="L17">
+      <c r="O17">
+        <v>6.8308700285913124</v>
+      </c>
+      <c r="P17" t="s">
+        <v>4710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18">
+        <v>1025.0000102499998</v>
+      </c>
+      <c r="D18">
+        <v>1014.5493936106103</v>
+      </c>
+      <c r="E18">
+        <v>740</v>
+      </c>
+      <c r="F18" s="36">
+        <v>9694.8063782416884</v>
+      </c>
+      <c r="G18" s="36">
+        <v>554157.07154157059</v>
+      </c>
+      <c r="H18">
+        <v>9359.0579800788437</v>
+      </c>
+      <c r="I18">
+        <v>523738.50000000006</v>
+      </c>
+      <c r="J18" t="s">
+        <v>5102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4697</v>
+      </c>
+      <c r="L18">
+        <v>3.4000000953674316</v>
+      </c>
+      <c r="M18">
+        <v>1029.4375</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
-      <c r="M17">
+      <c r="O18">
+        <v>5.2678714728936917</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4711</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4712</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>177.75000177749999</v>
+      </c>
+      <c r="D19">
+        <v>175.07652173913044</v>
+      </c>
+      <c r="E19">
+        <v>1150000</v>
+      </c>
+      <c r="F19" s="36">
+        <v>2044125.0204412499</v>
+      </c>
+      <c r="G19" s="36">
+        <v>116842594.99342594</v>
+      </c>
+      <c r="H19">
+        <v>2013380</v>
+      </c>
+      <c r="I19">
+        <v>118152971.47599998</v>
+      </c>
+      <c r="J19" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="N17">
-        <v>3.3826057588820526</v>
-      </c>
-      <c r="O17" t="s">
-        <v>4719</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18">
-        <v>138.00000137999999</v>
-      </c>
-      <c r="C18">
-        <v>140.05000000000001</v>
-      </c>
-      <c r="D18">
-        <v>21430</v>
-      </c>
-      <c r="E18">
-        <v>52516.022552006543</v>
-      </c>
-      <c r="F18">
-        <v>2957340.0295733996</v>
-      </c>
-      <c r="G18">
-        <v>51980.150262908137</v>
-      </c>
-      <c r="H18">
-        <v>3001271.5000000005</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K18">
-        <v>3.461538553237915</v>
-      </c>
-      <c r="L18">
-        <v>140.78932189941406</v>
-      </c>
-      <c r="M18">
+      <c r="M19">
+        <v>5.5250000000000004</v>
+      </c>
+      <c r="N19">
+        <v>7.2285878416895297</v>
+      </c>
+      <c r="O19">
+        <v>3.9611146000000002</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5128</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>95</v>
+      </c>
+      <c r="E20">
+        <v>150000</v>
+      </c>
+      <c r="F20" s="36">
+        <v>150000.00000000003</v>
+      </c>
+      <c r="G20" s="36">
+        <v>8574030.0000000019</v>
+      </c>
+      <c r="H20">
+        <v>142500</v>
+      </c>
+      <c r="I20">
+        <v>8054926.5</v>
+      </c>
+      <c r="J20" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20">
         <v>0</v>
-      </c>
-      <c r="N18">
-        <v>5.7173912075982578</v>
-      </c>
-      <c r="P18" t="s">
-        <v>4720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19">
-        <v>612.70000612700005</v>
-      </c>
-      <c r="C19">
-        <v>637.99869999999999</v>
-      </c>
-      <c r="D19">
-        <v>4700</v>
-      </c>
-      <c r="E19">
-        <v>51137.124910489743</v>
-      </c>
-      <c r="F19">
-        <v>2879690.0287969001</v>
-      </c>
-      <c r="G19">
-        <v>52468.191815673294</v>
-      </c>
-      <c r="H19">
-        <v>2998593.89</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K19">
-        <v>4.1999998092651367</v>
-      </c>
-      <c r="L19">
-        <v>707.4000244140625</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>7.8961973344402203</v>
-      </c>
-      <c r="O19" t="s">
-        <v>4721</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B20">
-        <v>8865.0000886500002</v>
-      </c>
-      <c r="C20">
-        <v>10180</v>
-      </c>
-      <c r="D20">
-        <v>290</v>
-      </c>
-      <c r="E20">
-        <v>45652.788173773064</v>
-      </c>
-      <c r="F20">
-        <v>2570850.0257084998</v>
-      </c>
-      <c r="G20">
-        <v>49214.980878807983</v>
-      </c>
-      <c r="H20">
-        <v>2952200</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4667</v>
-      </c>
-      <c r="K20">
-        <v>3.7999999523162842</v>
-      </c>
-      <c r="L20">
-        <v>11078.8779296875</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.064297938037578</v>
-      </c>
-      <c r="O20" t="s">
-        <v>4722</v>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20" t="s">
-        <v>4723</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4671</v>
-      </c>
-      <c r="B21">
-        <v>138.25000138249999</v>
+        <v>4826</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
       </c>
       <c r="C21">
-        <v>163.16052682041811</v>
+        <v>104.1500010415</v>
       </c>
       <c r="D21">
-        <v>51220</v>
+        <v>103.45830119999999</v>
       </c>
       <c r="E21">
-        <v>90695.538989035747</v>
-      </c>
-      <c r="F21">
-        <v>5107346.9566434687</v>
-      </c>
-      <c r="G21">
-        <v>105866.47894792595</v>
+        <v>25000</v>
+      </c>
+      <c r="F21" s="36">
+        <v>455518.00484209292</v>
+      </c>
+      <c r="G21" s="36">
+        <v>26037500.260375001</v>
       </c>
       <c r="H21">
-        <v>5958341.1742000002</v>
+        <v>454271.35013804876</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>25864575.299999997</v>
       </c>
       <c r="J21" t="s">
-        <v>4697</v>
-      </c>
-      <c r="K21">
-        <v>4.3333334922790527</v>
+        <v>5126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>4696</v>
       </c>
       <c r="L21">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="M21">
+        <v>3.492</v>
+      </c>
+      <c r="N21">
+        <v>0.20376948425799851</v>
+      </c>
+      <c r="O21">
+        <v>9.27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4808</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4660</v>
+      </c>
+      <c r="C22">
+        <v>101.7500010175</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <v>50000</v>
+      </c>
+      <c r="F22" s="36">
+        <v>890042.38104047917</v>
+      </c>
+      <c r="G22" s="36">
+        <v>50875000.508749999</v>
+      </c>
+      <c r="H22">
+        <v>886872.33827439474</v>
+      </c>
+      <c r="I22">
+        <v>50000000</v>
+      </c>
+      <c r="J22" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K22" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L22">
         <v>0</v>
       </c>
-      <c r="N21">
-        <v>7.5226037023727113</v>
-      </c>
-      <c r="O21" t="s">
-        <v>4724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22">
-        <v>1010.0000100999999</v>
-      </c>
-      <c r="C22">
-        <v>784.52293160529086</v>
-      </c>
-      <c r="D22">
-        <v>6000</v>
-      </c>
-      <c r="E22">
-        <v>77616.460889353184</v>
-      </c>
-      <c r="F22">
-        <v>4370823.5237082345</v>
-      </c>
-      <c r="G22">
-        <v>58255.537917073241</v>
-      </c>
-      <c r="H22">
-        <v>3600000</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4697</v>
-      </c>
-      <c r="K22">
-        <v>3.6315789222717285</v>
-      </c>
-      <c r="L22">
-        <v>1067.5333251953125</v>
-      </c>
       <c r="M22">
+        <v>1.4319999999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.9046339467610651</v>
+      </c>
+      <c r="O22">
+        <v>9.11</v>
+      </c>
+      <c r="P22" t="s">
+        <v>4699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23">
+        <v>99.470000994699987</v>
+      </c>
+      <c r="D23">
+        <v>98.867944494382002</v>
+      </c>
+      <c r="E23">
+        <v>44500</v>
+      </c>
+      <c r="F23" s="36">
+        <v>774387.60610777244</v>
+      </c>
+      <c r="G23" s="36">
+        <v>44264150.442641497</v>
+      </c>
+      <c r="H23">
+        <v>777532.49382016982</v>
+      </c>
+      <c r="I23">
+        <v>43996235.29999999</v>
+      </c>
+      <c r="J23" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L23">
         <v>0</v>
       </c>
-      <c r="N22">
-        <v>2.0528942523616376</v>
-      </c>
-      <c r="O22" t="s">
-        <v>4725</v>
-      </c>
-      <c r="P22" t="s">
-        <v>4726</v>
+      <c r="M23">
+        <v>1.4590000000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.7847127715139941</v>
+      </c>
+      <c r="O23">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="P23" t="s">
+        <v>5131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>996</v>
+      </c>
+      <c r="C24">
+        <v>103.30000103299999</v>
+      </c>
+      <c r="D24">
+        <v>103.13</v>
+      </c>
+      <c r="E24">
+        <v>25000</v>
+      </c>
+      <c r="F24" s="36">
+        <v>451800.38310310314</v>
+      </c>
+      <c r="G24" s="36">
+        <v>25825000.258249998</v>
+      </c>
+      <c r="H24">
+        <v>457315.72123119165</v>
+      </c>
+      <c r="I24">
+        <v>25782500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="N24">
+        <v>0.48519257334769894</v>
+      </c>
+      <c r="O24">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="P24" t="s">
+        <v>5132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>5128</v>
+      </c>
+      <c r="B25" t="s">
+        <v>948</v>
+      </c>
+      <c r="C25">
+        <v>102.2900010229</v>
+      </c>
+      <c r="D25">
+        <v>101.6</v>
+      </c>
+      <c r="E25">
+        <v>25000</v>
+      </c>
+      <c r="F25" s="36">
+        <v>447382.97374265664</v>
+      </c>
+      <c r="G25" s="36">
+        <v>25572500.255725004</v>
+      </c>
+      <c r="H25">
+        <v>445431.95500786521</v>
+      </c>
+      <c r="I25">
+        <v>25400000</v>
+      </c>
+      <c r="J25" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.0489999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.38754188555079067</v>
+      </c>
+      <c r="O25">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="P25" t="s">
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>102.01000102009999</v>
+      </c>
+      <c r="D26">
+        <v>100.56</v>
+      </c>
+      <c r="E26">
+        <v>25000</v>
+      </c>
+      <c r="F26" s="36">
+        <v>446158.34540510701</v>
+      </c>
+      <c r="G26" s="36">
+        <v>25502500.255024999</v>
+      </c>
+      <c r="H26">
+        <v>441410.67207524495</v>
+      </c>
+      <c r="I26">
+        <v>25140000</v>
+      </c>
+      <c r="J26" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="N26">
+        <v>2.3426088900231807</v>
+      </c>
+      <c r="O26">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P26" t="s">
+        <v>5133</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>5134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>101.0400010104</v>
+      </c>
+      <c r="D27">
+        <v>101.11</v>
+      </c>
+      <c r="E27">
+        <v>25000</v>
+      </c>
+      <c r="F27" s="36">
+        <v>441915.88295002468</v>
+      </c>
+      <c r="G27" s="36">
+        <v>25260000.252600003</v>
+      </c>
+      <c r="H27">
+        <v>443283.71034296503</v>
+      </c>
+      <c r="I27">
+        <v>25277500</v>
+      </c>
+      <c r="J27" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K27" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>4.47</v>
+      </c>
+      <c r="N27">
+        <v>9.1757757171232676E-2</v>
+      </c>
+      <c r="O27">
+        <v>8.81</v>
+      </c>
+      <c r="P27" t="s">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>99.700000997000004</v>
+      </c>
+      <c r="D28">
+        <v>99.595423639999979</v>
+      </c>
+      <c r="E28">
+        <v>25000</v>
+      </c>
+      <c r="F28" s="36">
+        <v>436055.16162032326</v>
+      </c>
+      <c r="G28" s="36">
+        <v>24925000.249250002</v>
+      </c>
+      <c r="H28">
+        <v>437309.97938050178</v>
+      </c>
+      <c r="I28">
+        <v>24898855.909999996</v>
+      </c>
+      <c r="J28" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="N28">
+        <v>4.656036927132149E-2</v>
+      </c>
+      <c r="O28">
+        <v>12.53</v>
+      </c>
+      <c r="P28" t="s">
+        <v>5136</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29">
+        <v>98.570010985700094</v>
+      </c>
+      <c r="D29">
+        <v>97.789000000000001</v>
+      </c>
+      <c r="E29">
+        <v>25000</v>
+      </c>
+      <c r="F29" s="36">
+        <v>431112.95528051024</v>
+      </c>
+      <c r="G29" s="36">
+        <v>24642502.746425021</v>
+      </c>
+      <c r="H29">
+        <v>428723.87252228474</v>
+      </c>
+      <c r="I29">
+        <v>24447250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K29" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="N29">
+        <v>0.66983012403781783</v>
+      </c>
+      <c r="O29">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="P29" t="s">
+        <v>5130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4820</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C30">
+        <v>98.100000980999994</v>
+      </c>
+      <c r="D30">
+        <v>96.8</v>
+      </c>
+      <c r="E30">
+        <v>25000</v>
+      </c>
+      <c r="F30" s="36">
+        <v>429057.28540575429</v>
+      </c>
+      <c r="G30" s="36">
+        <v>24525000.245249998</v>
+      </c>
+      <c r="H30">
+        <v>429246.2117248071</v>
+      </c>
+      <c r="I30">
+        <v>24200000</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K30" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1.466</v>
+      </c>
+      <c r="N30">
+        <v>0.69179870501410823</v>
+      </c>
+      <c r="O30">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="P30" t="s">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4827</v>
+      </c>
+      <c r="B31" t="s">
+        <v>973</v>
+      </c>
+      <c r="C31">
+        <v>97.390000973900001</v>
+      </c>
+      <c r="D31">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>25000</v>
+      </c>
+      <c r="F31" s="36">
+        <v>425951.97783553932</v>
+      </c>
+      <c r="G31" s="36">
+        <v>24347500.243474998</v>
+      </c>
+      <c r="H31">
+        <v>430133.08406308142</v>
+      </c>
+      <c r="I31">
+        <v>24250000</v>
+      </c>
+      <c r="J31" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K31" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="N31">
+        <v>1.8738054775838235</v>
+      </c>
+      <c r="O31">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="P31" t="s">
+        <v>5139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B32" t="s">
+        <v>983</v>
+      </c>
+      <c r="C32">
+        <v>98.850009999999997</v>
+      </c>
+      <c r="D32">
+        <v>98.49</v>
+      </c>
+      <c r="E32">
+        <v>5455</v>
+      </c>
+      <c r="F32" s="36">
+        <v>94336.059802100048</v>
+      </c>
+      <c r="G32" s="36">
+        <v>5392268.0454999991</v>
+      </c>
+      <c r="H32">
+        <v>95495.926968039625</v>
+      </c>
+      <c r="I32">
+        <v>5372629.5</v>
+      </c>
+      <c r="J32" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K32" t="s">
+        <v>4667</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>2.11</v>
+      </c>
+      <c r="N32">
+        <v>9.1910048049363997</v>
+      </c>
+      <c r="O32">
+        <v>7.96</v>
+      </c>
+      <c r="P32" t="s">
+        <v>5141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5143</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>8500</v>
+      </c>
+      <c r="F33" s="36">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>149199.50079602323</v>
+      </c>
+      <c r="I33">
+        <v>8500000</v>
+      </c>
+      <c r="J33" t="s">
+        <v>5126</v>
+      </c>
+      <c r="K33" t="s">
+        <v>4667</v>
+      </c>
+      <c r="P33" t="s">
+        <v>5144</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>5144</v>
       </c>
     </row>
   </sheetData>
@@ -23301,6 +24318,7 @@
     <sortCondition descending="1" ref="Q13:Q27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45096,8 +46114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45109,35 +46127,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4881</v>
+        <v>4867</v>
       </c>
       <c r="B1" t="s">
-        <v>4727</v>
+        <v>4713</v>
       </c>
       <c r="C1" t="s">
-        <v>4882</v>
+        <v>4868</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4883</v>
+        <v>4869</v>
       </c>
       <c r="B2" t="s">
-        <v>4728</v>
+        <v>4714</v>
       </c>
       <c r="C2" t="s">
-        <v>4884</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4885</v>
+        <v>4871</v>
       </c>
       <c r="B3" t="s">
-        <v>4729</v>
+        <v>4715</v>
       </c>
       <c r="C3" t="s">
-        <v>4886</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -45145,21 +46163,21 @@
         <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>4730</v>
+        <v>4716</v>
       </c>
       <c r="C4" t="s">
-        <v>4887</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4888</v>
+        <v>4874</v>
       </c>
       <c r="B5" t="s">
-        <v>4731</v>
+        <v>4717</v>
       </c>
       <c r="C5" t="s">
-        <v>4889</v>
+        <v>4875</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -45167,10 +46185,10 @@
         <v>1068</v>
       </c>
       <c r="B6" t="s">
-        <v>4732</v>
+        <v>4718</v>
       </c>
       <c r="C6" t="s">
-        <v>4890</v>
+        <v>4876</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -45181,29 +46199,29 @@
         <v>4663</v>
       </c>
       <c r="C7" t="s">
-        <v>4891</v>
+        <v>4877</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4892</v>
+        <v>4878</v>
       </c>
       <c r="B8" t="s">
-        <v>4733</v>
+        <v>4719</v>
       </c>
       <c r="C8" t="s">
-        <v>4893</v>
+        <v>4879</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4894</v>
+        <v>4880</v>
       </c>
       <c r="B9" t="s">
-        <v>4734</v>
+        <v>4720</v>
       </c>
       <c r="C9" t="s">
-        <v>4895</v>
+        <v>4881</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -45211,10 +46229,10 @@
         <v>634</v>
       </c>
       <c r="B10" t="s">
-        <v>4735</v>
+        <v>4721</v>
       </c>
       <c r="C10" t="s">
-        <v>4896</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -45222,10 +46240,10 @@
         <v>456</v>
       </c>
       <c r="B11" t="s">
-        <v>4736</v>
+        <v>4722</v>
       </c>
       <c r="C11" t="s">
-        <v>4897</v>
+        <v>4883</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -45236,7 +46254,7 @@
         <v>4665</v>
       </c>
       <c r="C12" t="s">
-        <v>4898</v>
+        <v>4884</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -45244,32 +46262,32 @@
         <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>4737</v>
+        <v>4723</v>
       </c>
       <c r="C13" t="s">
-        <v>4887</v>
+        <v>4873</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4899</v>
+        <v>4885</v>
       </c>
       <c r="B14" t="s">
-        <v>4738</v>
+        <v>4724</v>
       </c>
       <c r="C14" t="s">
-        <v>4900</v>
+        <v>4886</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4901</v>
+        <v>4887</v>
       </c>
       <c r="B15" t="s">
-        <v>4739</v>
+        <v>4725</v>
       </c>
       <c r="C15" t="s">
-        <v>4902</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -45280,18 +46298,18 @@
         <v>4668</v>
       </c>
       <c r="C16" t="s">
-        <v>4903</v>
+        <v>4889</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4904</v>
+        <v>4890</v>
       </c>
       <c r="B17" t="s">
-        <v>4740</v>
+        <v>4726</v>
       </c>
       <c r="C17" t="s">
-        <v>4905</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -45299,21 +46317,21 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>4741</v>
+        <v>4727</v>
       </c>
       <c r="C18" t="s">
-        <v>4905</v>
+        <v>4891</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4906</v>
+        <v>4892</v>
       </c>
       <c r="B19" t="s">
-        <v>4742</v>
+        <v>4728</v>
       </c>
       <c r="C19" t="s">
-        <v>4907</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -45321,10 +46339,10 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>4743</v>
+        <v>4729</v>
       </c>
       <c r="C20" t="s">
-        <v>4908</v>
+        <v>4894</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -45335,62 +46353,62 @@
         <v>4664</v>
       </c>
       <c r="C21" t="s">
-        <v>4909</v>
+        <v>4895</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>4910</v>
+        <v>4896</v>
       </c>
       <c r="B22" t="s">
-        <v>4744</v>
+        <v>4730</v>
       </c>
       <c r="C22" t="s">
-        <v>4911</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>4912</v>
+        <v>4898</v>
       </c>
       <c r="B23" t="s">
-        <v>4745</v>
+        <v>4731</v>
       </c>
       <c r="C23" t="s">
-        <v>4913</v>
+        <v>4899</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>4914</v>
+        <v>4900</v>
       </c>
       <c r="B24" t="s">
-        <v>4746</v>
+        <v>4732</v>
       </c>
       <c r="C24" t="s">
-        <v>4915</v>
+        <v>4901</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>4916</v>
+        <v>4902</v>
       </c>
       <c r="B25" t="s">
-        <v>4747</v>
+        <v>4733</v>
       </c>
       <c r="C25" t="s">
-        <v>4917</v>
+        <v>4903</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4918</v>
+        <v>4904</v>
       </c>
       <c r="B26" t="s">
-        <v>4748</v>
+        <v>4734</v>
       </c>
       <c r="C26" t="s">
-        <v>4919</v>
+        <v>4905</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -45398,10 +46416,10 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>4749</v>
+        <v>4735</v>
       </c>
       <c r="C27" t="s">
-        <v>4920</v>
+        <v>4906</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -45409,10 +46427,10 @@
         <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>4750</v>
+        <v>4736</v>
       </c>
       <c r="C28" t="s">
-        <v>4921</v>
+        <v>4907</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -45420,21 +46438,21 @@
         <v>628</v>
       </c>
       <c r="B29" t="s">
-        <v>4751</v>
+        <v>4737</v>
       </c>
       <c r="C29" t="s">
-        <v>4922</v>
+        <v>4908</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4923</v>
+        <v>4909</v>
       </c>
       <c r="B30" t="s">
-        <v>4752</v>
+        <v>4738</v>
       </c>
       <c r="C30" t="s">
-        <v>4924</v>
+        <v>4910</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -45442,10 +46460,10 @@
         <v>37</v>
       </c>
       <c r="B31" t="s">
-        <v>4753</v>
+        <v>4739</v>
       </c>
       <c r="C31" t="s">
-        <v>4907</v>
+        <v>4893</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -45456,29 +46474,29 @@
         <v>4670</v>
       </c>
       <c r="C32" t="s">
-        <v>4925</v>
+        <v>4911</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>4926</v>
+        <v>4912</v>
       </c>
       <c r="B33" t="s">
-        <v>4754</v>
+        <v>4740</v>
       </c>
       <c r="C33" t="s">
-        <v>4927</v>
+        <v>4913</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>4928</v>
+        <v>4914</v>
       </c>
       <c r="B34" t="s">
-        <v>4755</v>
+        <v>4741</v>
       </c>
       <c r="C34" t="s">
-        <v>4929</v>
+        <v>4915</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -45486,10 +46504,10 @@
         <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>4756</v>
+        <v>4742</v>
       </c>
       <c r="C35" t="s">
-        <v>4930</v>
+        <v>4916</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -45497,10 +46515,10 @@
         <v>378</v>
       </c>
       <c r="B36" t="s">
-        <v>4757</v>
+        <v>4743</v>
       </c>
       <c r="C36" t="s">
-        <v>4931</v>
+        <v>4917</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -45508,10 +46526,10 @@
         <v>447</v>
       </c>
       <c r="B37" t="s">
-        <v>4758</v>
+        <v>4744</v>
       </c>
       <c r="C37" t="s">
-        <v>4932</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -45519,10 +46537,10 @@
         <v>399</v>
       </c>
       <c r="B38" t="s">
-        <v>4759</v>
+        <v>4745</v>
       </c>
       <c r="C38" t="s">
-        <v>4933</v>
+        <v>4919</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -45530,10 +46548,10 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>4760</v>
+        <v>4746</v>
       </c>
       <c r="C39" t="s">
-        <v>4934</v>
+        <v>4920</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -45541,10 +46559,10 @@
         <v>235</v>
       </c>
       <c r="B40" t="s">
-        <v>4761</v>
+        <v>4747</v>
       </c>
       <c r="C40" t="s">
-        <v>4902</v>
+        <v>4888</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -45552,10 +46570,10 @@
         <v>751</v>
       </c>
       <c r="B41" t="s">
-        <v>4762</v>
+        <v>4748</v>
       </c>
       <c r="C41" t="s">
-        <v>4935</v>
+        <v>4921</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -45563,21 +46581,21 @@
         <v>895</v>
       </c>
       <c r="B42" t="s">
-        <v>4763</v>
+        <v>4749</v>
       </c>
       <c r="C42" t="s">
-        <v>4936</v>
+        <v>4922</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4937</v>
+        <v>4923</v>
       </c>
       <c r="B43" t="s">
-        <v>4764</v>
+        <v>4750</v>
       </c>
       <c r="C43" t="s">
-        <v>4938</v>
+        <v>4924</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -45585,10 +46603,10 @@
         <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>4765</v>
+        <v>4751</v>
       </c>
       <c r="C44" t="s">
-        <v>4939</v>
+        <v>4925</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -45596,21 +46614,21 @@
         <v>244</v>
       </c>
       <c r="B45" t="s">
-        <v>4766</v>
+        <v>4752</v>
       </c>
       <c r="C45" t="s">
-        <v>4940</v>
+        <v>4926</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>4941</v>
+        <v>4927</v>
       </c>
       <c r="B46" t="s">
-        <v>4767</v>
+        <v>4753</v>
       </c>
       <c r="C46" t="s">
-        <v>4942</v>
+        <v>4928</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -45618,10 +46636,10 @@
         <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>4768</v>
+        <v>4754</v>
       </c>
       <c r="C47" t="s">
-        <v>4943</v>
+        <v>4929</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -45629,32 +46647,32 @@
         <v>375</v>
       </c>
       <c r="B48" t="s">
-        <v>4769</v>
+        <v>4755</v>
       </c>
       <c r="C48" t="s">
-        <v>4944</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>4945</v>
+        <v>4931</v>
       </c>
       <c r="B49" t="s">
-        <v>4770</v>
+        <v>4756</v>
       </c>
       <c r="C49" t="s">
-        <v>4946</v>
+        <v>4932</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>4947</v>
+        <v>4933</v>
       </c>
       <c r="B50" t="s">
-        <v>4771</v>
+        <v>4757</v>
       </c>
       <c r="C50" t="s">
-        <v>4948</v>
+        <v>4934</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -45662,10 +46680,10 @@
         <v>438</v>
       </c>
       <c r="B51" t="s">
-        <v>4772</v>
+        <v>4758</v>
       </c>
       <c r="C51" t="s">
-        <v>4949</v>
+        <v>4935</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -45673,10 +46691,10 @@
         <v>500</v>
       </c>
       <c r="B52" t="s">
-        <v>4773</v>
+        <v>4759</v>
       </c>
       <c r="C52" t="s">
-        <v>4950</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -45687,40 +46705,40 @@
         <v>4672</v>
       </c>
       <c r="C53" t="s">
-        <v>4950</v>
+        <v>4936</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>4951</v>
+        <v>4937</v>
       </c>
       <c r="B54" t="s">
-        <v>4774</v>
+        <v>4760</v>
       </c>
       <c r="C54" t="s">
-        <v>4952</v>
+        <v>4938</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>4953</v>
+        <v>4939</v>
       </c>
       <c r="B55" t="s">
-        <v>4775</v>
+        <v>4761</v>
       </c>
       <c r="C55" t="s">
-        <v>4954</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>4955</v>
+        <v>4941</v>
       </c>
       <c r="B56" t="s">
-        <v>4776</v>
+        <v>4762</v>
       </c>
       <c r="C56" t="s">
-        <v>4956</v>
+        <v>4942</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -45728,10 +46746,10 @@
         <v>562</v>
       </c>
       <c r="B57" t="s">
-        <v>4777</v>
+        <v>4763</v>
       </c>
       <c r="C57" t="s">
-        <v>4957</v>
+        <v>4943</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -45739,10 +46757,10 @@
         <v>658</v>
       </c>
       <c r="B58" t="s">
-        <v>4778</v>
+        <v>4764</v>
       </c>
       <c r="C58" t="s">
-        <v>4958</v>
+        <v>4944</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -45750,10 +46768,10 @@
         <v>730</v>
       </c>
       <c r="B59" t="s">
-        <v>4779</v>
+        <v>4765</v>
       </c>
       <c r="C59" t="s">
-        <v>4959</v>
+        <v>4945</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -45761,21 +46779,21 @@
         <v>826</v>
       </c>
       <c r="B60" t="s">
-        <v>4780</v>
+        <v>4766</v>
       </c>
       <c r="C60" t="s">
-        <v>4960</v>
+        <v>4946</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4961</v>
+        <v>4947</v>
       </c>
       <c r="B61" t="s">
-        <v>4781</v>
+        <v>4767</v>
       </c>
       <c r="C61" t="s">
-        <v>4962</v>
+        <v>4948</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -45783,10 +46801,10 @@
         <v>2060</v>
       </c>
       <c r="B62" t="s">
-        <v>4782</v>
+        <v>4768</v>
       </c>
       <c r="C62" t="s">
-        <v>4963</v>
+        <v>4949</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -45794,10 +46812,10 @@
         <v>2063</v>
       </c>
       <c r="B63" t="s">
-        <v>4783</v>
+        <v>4769</v>
       </c>
       <c r="C63" t="s">
-        <v>4964</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -45805,7 +46823,7 @@
         <v>1844</v>
       </c>
       <c r="B64" t="s">
-        <v>4784</v>
+        <v>4770</v>
       </c>
       <c r="C64" t="s">
         <v>4673</v>
@@ -45813,13 +46831,13 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>4965</v>
+        <v>4951</v>
       </c>
       <c r="B65" t="s">
-        <v>4785</v>
+        <v>4771</v>
       </c>
       <c r="C65" t="s">
-        <v>4966</v>
+        <v>4952</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -45827,10 +46845,10 @@
         <v>2582</v>
       </c>
       <c r="B66" t="s">
-        <v>4786</v>
+        <v>4772</v>
       </c>
       <c r="C66" t="s">
-        <v>4967</v>
+        <v>4953</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -45838,21 +46856,21 @@
         <v>2654</v>
       </c>
       <c r="B67" t="s">
-        <v>4787</v>
+        <v>4773</v>
       </c>
       <c r="C67" t="s">
-        <v>4968</v>
+        <v>4954</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>4969</v>
+        <v>4955</v>
       </c>
       <c r="B68" t="s">
-        <v>4788</v>
+        <v>4774</v>
       </c>
       <c r="C68" t="s">
-        <v>4970</v>
+        <v>4956</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -45860,10 +46878,10 @@
         <v>3179</v>
       </c>
       <c r="B69" t="s">
-        <v>4789</v>
+        <v>4775</v>
       </c>
       <c r="C69" t="s">
-        <v>4971</v>
+        <v>4957</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -45871,7 +46889,7 @@
         <v>32</v>
       </c>
       <c r="B70" t="s">
-        <v>4790</v>
+        <v>4776</v>
       </c>
       <c r="C70" t="s">
         <v>4656</v>
@@ -45882,21 +46900,21 @@
         <v>1373</v>
       </c>
       <c r="B71" t="s">
-        <v>4791</v>
+        <v>4777</v>
       </c>
       <c r="C71" t="s">
-        <v>4972</v>
+        <v>4958</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>4973</v>
+        <v>4959</v>
       </c>
       <c r="B72" t="s">
-        <v>4792</v>
+        <v>4778</v>
       </c>
       <c r="C72" t="s">
-        <v>4974</v>
+        <v>4960</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -45904,10 +46922,10 @@
         <v>3611</v>
       </c>
       <c r="B73" t="s">
-        <v>4793</v>
+        <v>4779</v>
       </c>
       <c r="C73" t="s">
-        <v>4975</v>
+        <v>4961</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -45915,10 +46933,10 @@
         <v>3380</v>
       </c>
       <c r="B74" t="s">
-        <v>4794</v>
+        <v>4780</v>
       </c>
       <c r="C74" t="s">
-        <v>4976</v>
+        <v>4962</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -45926,10 +46944,10 @@
         <v>1889</v>
       </c>
       <c r="B75" t="s">
-        <v>4795</v>
+        <v>4781</v>
       </c>
       <c r="C75" t="s">
-        <v>4977</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -45937,32 +46955,32 @@
         <v>1880</v>
       </c>
       <c r="B76" t="s">
-        <v>4796</v>
+        <v>4782</v>
       </c>
       <c r="C76" t="s">
-        <v>4977</v>
+        <v>4963</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>4978</v>
+        <v>4964</v>
       </c>
       <c r="B77" t="s">
-        <v>4797</v>
+        <v>4783</v>
       </c>
       <c r="C77" t="s">
-        <v>4979</v>
+        <v>4965</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>4980</v>
+        <v>4966</v>
       </c>
       <c r="B78" t="s">
-        <v>4798</v>
+        <v>4784</v>
       </c>
       <c r="C78" t="s">
-        <v>4981</v>
+        <v>4967</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -45970,10 +46988,10 @@
         <v>3998</v>
       </c>
       <c r="B79" t="s">
-        <v>4799</v>
+        <v>4785</v>
       </c>
       <c r="C79" t="s">
-        <v>4982</v>
+        <v>4968</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -45981,10 +46999,10 @@
         <v>1637</v>
       </c>
       <c r="B80" t="s">
-        <v>4800</v>
+        <v>4786</v>
       </c>
       <c r="C80" t="s">
-        <v>4983</v>
+        <v>4969</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -45992,43 +47010,43 @@
         <v>1769</v>
       </c>
       <c r="B81" t="s">
-        <v>4801</v>
+        <v>4787</v>
       </c>
       <c r="C81" t="s">
-        <v>4984</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>4985</v>
+        <v>4971</v>
       </c>
       <c r="B82" t="s">
-        <v>4802</v>
+        <v>4788</v>
       </c>
       <c r="C82" t="s">
-        <v>4986</v>
+        <v>4972</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>4987</v>
+        <v>4973</v>
       </c>
       <c r="B83" t="s">
-        <v>4803</v>
+        <v>4789</v>
       </c>
       <c r="C83" t="s">
-        <v>4988</v>
+        <v>4974</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>4989</v>
+        <v>4975</v>
       </c>
       <c r="B84" t="s">
-        <v>4804</v>
+        <v>4790</v>
       </c>
       <c r="C84" t="s">
-        <v>4990</v>
+        <v>4976</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -46036,10 +47054,10 @@
         <v>2366</v>
       </c>
       <c r="B85" t="s">
-        <v>4805</v>
+        <v>4791</v>
       </c>
       <c r="C85" t="s">
-        <v>4991</v>
+        <v>4977</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -46047,10 +47065,10 @@
         <v>703</v>
       </c>
       <c r="B86" t="s">
-        <v>4806</v>
+        <v>4792</v>
       </c>
       <c r="C86" t="s">
-        <v>4992</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -46058,43 +47076,43 @@
         <v>48</v>
       </c>
       <c r="B87" t="s">
-        <v>4807</v>
+        <v>4793</v>
       </c>
       <c r="C87" t="s">
-        <v>4993</v>
+        <v>4979</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>4994</v>
+        <v>4980</v>
       </c>
       <c r="B88" t="s">
-        <v>4808</v>
+        <v>4794</v>
       </c>
       <c r="C88" t="s">
-        <v>4995</v>
+        <v>4981</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>4996</v>
+        <v>4982</v>
       </c>
       <c r="B89" t="s">
-        <v>4809</v>
+        <v>4795</v>
       </c>
       <c r="C89" t="s">
-        <v>4997</v>
+        <v>4983</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>4998</v>
+        <v>4984</v>
       </c>
       <c r="B90" t="s">
-        <v>4810</v>
+        <v>4796</v>
       </c>
       <c r="C90" t="s">
-        <v>4999</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -46102,10 +47120,10 @@
         <v>54</v>
       </c>
       <c r="B91" t="s">
-        <v>4811</v>
+        <v>4797</v>
       </c>
       <c r="C91" t="s">
-        <v>4896</v>
+        <v>4882</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -46113,21 +47131,21 @@
         <v>721</v>
       </c>
       <c r="B92" t="s">
-        <v>4812</v>
+        <v>4798</v>
       </c>
       <c r="C92" t="s">
-        <v>5000</v>
+        <v>4986</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>5001</v>
+        <v>4987</v>
       </c>
       <c r="B93" t="s">
-        <v>4813</v>
+        <v>4799</v>
       </c>
       <c r="C93" t="s">
-        <v>5002</v>
+        <v>4988</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -46135,10 +47153,10 @@
         <v>1865</v>
       </c>
       <c r="B94" t="s">
-        <v>4814</v>
+        <v>4800</v>
       </c>
       <c r="C94" t="s">
-        <v>5003</v>
+        <v>4989</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -46146,7 +47164,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>4815</v>
+        <v>4801</v>
       </c>
       <c r="C95" t="s">
         <v>4659</v>
@@ -46157,10 +47175,10 @@
         <v>957</v>
       </c>
       <c r="B96" t="s">
-        <v>4816</v>
+        <v>4802</v>
       </c>
       <c r="C96" t="s">
-        <v>5004</v>
+        <v>4990</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -46168,10 +47186,10 @@
         <v>969</v>
       </c>
       <c r="B97" t="s">
-        <v>4817</v>
+        <v>4803</v>
       </c>
       <c r="C97" t="s">
-        <v>5005</v>
+        <v>4991</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -46179,10 +47197,10 @@
         <v>1011</v>
       </c>
       <c r="B98" t="s">
-        <v>4818</v>
+        <v>4804</v>
       </c>
       <c r="C98" t="s">
-        <v>5006</v>
+        <v>4992</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -46190,10 +47208,10 @@
         <v>1015</v>
       </c>
       <c r="B99" t="s">
-        <v>4819</v>
+        <v>4805</v>
       </c>
       <c r="C99" t="s">
-        <v>5007</v>
+        <v>4993</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -46201,21 +47219,21 @@
         <v>1772</v>
       </c>
       <c r="B100" t="s">
-        <v>4820</v>
+        <v>4806</v>
       </c>
       <c r="C100" t="s">
-        <v>5008</v>
+        <v>4994</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>5009</v>
+        <v>4995</v>
       </c>
       <c r="B101" t="s">
-        <v>4821</v>
+        <v>4807</v>
       </c>
       <c r="C101" t="s">
-        <v>5010</v>
+        <v>4996</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -46223,10 +47241,10 @@
         <v>4660</v>
       </c>
       <c r="B102" t="s">
-        <v>4822</v>
+        <v>4808</v>
       </c>
       <c r="C102" t="s">
-        <v>5011</v>
+        <v>4997</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -46234,120 +47252,120 @@
         <v>482</v>
       </c>
       <c r="B103" t="s">
-        <v>4823</v>
+        <v>4809</v>
       </c>
       <c r="C103" t="s">
-        <v>5012</v>
+        <v>4998</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>5013</v>
+        <v>4999</v>
       </c>
       <c r="B104" t="s">
-        <v>4824</v>
+        <v>4810</v>
       </c>
       <c r="C104" t="s">
-        <v>5014</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>5015</v>
+        <v>5001</v>
       </c>
       <c r="B105" t="s">
-        <v>4825</v>
+        <v>4811</v>
       </c>
       <c r="C105" t="s">
-        <v>5016</v>
+        <v>5002</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>5017</v>
+        <v>5003</v>
       </c>
       <c r="B106" t="s">
-        <v>4826</v>
+        <v>4812</v>
       </c>
       <c r="C106" t="s">
-        <v>5018</v>
+        <v>5004</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>5019</v>
+        <v>5005</v>
       </c>
       <c r="B107" t="s">
-        <v>4827</v>
+        <v>4813</v>
       </c>
       <c r="C107" t="s">
-        <v>5020</v>
+        <v>5006</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>5021</v>
+        <v>5007</v>
       </c>
       <c r="B108" t="s">
-        <v>4828</v>
+        <v>4814</v>
       </c>
       <c r="C108" t="s">
-        <v>5022</v>
+        <v>5008</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>5023</v>
+        <v>5009</v>
       </c>
       <c r="B109" t="s">
-        <v>4829</v>
+        <v>4815</v>
       </c>
       <c r="C109" t="s">
-        <v>5024</v>
+        <v>5010</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>5025</v>
+        <v>5011</v>
       </c>
       <c r="B110" t="s">
-        <v>4830</v>
+        <v>4816</v>
       </c>
       <c r="C110" t="s">
-        <v>5026</v>
+        <v>5012</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>5027</v>
+        <v>5013</v>
       </c>
       <c r="B111" t="s">
-        <v>4831</v>
+        <v>4817</v>
       </c>
       <c r="C111" t="s">
-        <v>5028</v>
+        <v>5014</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>5029</v>
+        <v>5015</v>
       </c>
       <c r="B112" t="s">
-        <v>4832</v>
+        <v>4818</v>
       </c>
       <c r="C112" t="s">
-        <v>5030</v>
+        <v>5016</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>5031</v>
+        <v>5017</v>
       </c>
       <c r="B113" t="s">
-        <v>4833</v>
+        <v>4819</v>
       </c>
       <c r="C113" t="s">
-        <v>5032</v>
+        <v>5018</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -46355,7 +47373,7 @@
         <v>1013</v>
       </c>
       <c r="B114" t="s">
-        <v>4834</v>
+        <v>4820</v>
       </c>
       <c r="C114" t="s">
         <v>4658</v>
@@ -46363,13 +47381,13 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>5033</v>
+        <v>5019</v>
       </c>
       <c r="B115" t="s">
-        <v>4835</v>
+        <v>4821</v>
       </c>
       <c r="C115" t="s">
-        <v>5034</v>
+        <v>5020</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -46377,10 +47395,10 @@
         <v>948</v>
       </c>
       <c r="B116" t="s">
-        <v>4836</v>
+        <v>4822</v>
       </c>
       <c r="C116" t="s">
-        <v>5035</v>
+        <v>5021</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -46388,10 +47406,10 @@
         <v>30</v>
       </c>
       <c r="B117" t="s">
-        <v>4837</v>
+        <v>4823</v>
       </c>
       <c r="C117" t="s">
-        <v>5036</v>
+        <v>5022</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -46399,7 +47417,7 @@
         <v>34</v>
       </c>
       <c r="B118" t="s">
-        <v>4838</v>
+        <v>4824</v>
       </c>
       <c r="C118" t="s">
         <v>4655</v>
@@ -46410,10 +47428,10 @@
         <v>996</v>
       </c>
       <c r="B119" t="s">
-        <v>4839</v>
+        <v>4825</v>
       </c>
       <c r="C119" t="s">
-        <v>5037</v>
+        <v>5023</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -46421,10 +47439,10 @@
         <v>31</v>
       </c>
       <c r="B120" t="s">
-        <v>4840</v>
+        <v>4826</v>
       </c>
       <c r="C120" t="s">
-        <v>5038</v>
+        <v>5024</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -46432,7 +47450,7 @@
         <v>973</v>
       </c>
       <c r="B121" t="s">
-        <v>4841</v>
+        <v>4827</v>
       </c>
       <c r="C121" t="s">
         <v>4657</v>
@@ -46443,10 +47461,10 @@
         <v>33</v>
       </c>
       <c r="B122" t="s">
-        <v>4842</v>
+        <v>4828</v>
       </c>
       <c r="C122" t="s">
-        <v>5039</v>
+        <v>5025</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -46454,87 +47472,87 @@
         <v>613</v>
       </c>
       <c r="B123" t="s">
-        <v>4843</v>
+        <v>4829</v>
       </c>
       <c r="C123" t="s">
-        <v>5040</v>
+        <v>5026</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>5041</v>
+        <v>5027</v>
       </c>
       <c r="B124" t="s">
-        <v>4844</v>
+        <v>4830</v>
       </c>
       <c r="C124" t="s">
-        <v>5042</v>
+        <v>5028</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>5043</v>
+        <v>5029</v>
       </c>
       <c r="B125" t="s">
-        <v>4845</v>
+        <v>4831</v>
       </c>
       <c r="C125" t="s">
-        <v>5044</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>5045</v>
+        <v>5031</v>
       </c>
       <c r="B126" t="s">
-        <v>4846</v>
+        <v>4832</v>
       </c>
       <c r="C126" t="s">
-        <v>5046</v>
+        <v>5032</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>5047</v>
+        <v>5033</v>
       </c>
       <c r="B127" t="s">
-        <v>4847</v>
+        <v>4833</v>
       </c>
       <c r="C127" t="s">
-        <v>5048</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>5049</v>
+        <v>5035</v>
       </c>
       <c r="B128" t="s">
-        <v>4848</v>
+        <v>4834</v>
       </c>
       <c r="C128" t="s">
-        <v>5050</v>
+        <v>5036</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>5051</v>
+        <v>5037</v>
       </c>
       <c r="B129" t="s">
-        <v>4849</v>
+        <v>4835</v>
       </c>
       <c r="C129" t="s">
-        <v>5052</v>
+        <v>5038</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>5053</v>
+        <v>5039</v>
       </c>
       <c r="B130" t="s">
-        <v>4850</v>
+        <v>4836</v>
       </c>
       <c r="C130" t="s">
-        <v>5054</v>
+        <v>5040</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -46542,329 +47560,329 @@
         <v>168</v>
       </c>
       <c r="B131" t="s">
-        <v>4851</v>
+        <v>4837</v>
       </c>
       <c r="C131" t="s">
-        <v>5055</v>
+        <v>5041</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>5056</v>
+        <v>5042</v>
       </c>
       <c r="B132" t="s">
-        <v>4852</v>
+        <v>4838</v>
       </c>
       <c r="C132" t="s">
-        <v>5057</v>
+        <v>5043</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>5058</v>
+        <v>5044</v>
       </c>
       <c r="B133" t="s">
-        <v>4853</v>
+        <v>4839</v>
       </c>
       <c r="C133" t="s">
-        <v>5059</v>
+        <v>5045</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>5060</v>
+        <v>5046</v>
       </c>
       <c r="B134" t="s">
-        <v>4854</v>
+        <v>4840</v>
       </c>
       <c r="C134" t="s">
-        <v>5061</v>
+        <v>5047</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>5062</v>
+        <v>5048</v>
       </c>
       <c r="B135" t="s">
-        <v>4855</v>
+        <v>4841</v>
       </c>
       <c r="C135" t="s">
-        <v>5063</v>
+        <v>5049</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>5064</v>
+        <v>5050</v>
       </c>
       <c r="B136" t="s">
-        <v>4856</v>
+        <v>4842</v>
       </c>
       <c r="C136" t="s">
-        <v>5065</v>
+        <v>5051</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>5066</v>
+        <v>5052</v>
       </c>
       <c r="B137" t="s">
-        <v>4857</v>
+        <v>4843</v>
       </c>
       <c r="C137" t="s">
-        <v>5067</v>
+        <v>5053</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>5068</v>
+        <v>5054</v>
       </c>
       <c r="B138" t="s">
-        <v>4858</v>
+        <v>4844</v>
       </c>
       <c r="C138" t="s">
-        <v>5069</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>5070</v>
+        <v>5056</v>
       </c>
       <c r="B139" t="s">
-        <v>4859</v>
+        <v>4845</v>
       </c>
       <c r="C139" t="s">
-        <v>5071</v>
+        <v>5057</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>5072</v>
+        <v>5058</v>
       </c>
       <c r="B140" t="s">
-        <v>4860</v>
+        <v>4846</v>
       </c>
       <c r="C140" t="s">
-        <v>5073</v>
+        <v>5059</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>5074</v>
+        <v>5060</v>
       </c>
       <c r="B141" t="s">
-        <v>4861</v>
+        <v>4847</v>
       </c>
       <c r="C141" t="s">
-        <v>5075</v>
+        <v>5061</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>5076</v>
+        <v>5062</v>
       </c>
       <c r="B142" t="s">
-        <v>4862</v>
+        <v>4848</v>
       </c>
       <c r="C142" t="s">
-        <v>5077</v>
+        <v>5063</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>5078</v>
+        <v>5064</v>
       </c>
       <c r="B143" t="s">
-        <v>4863</v>
+        <v>4849</v>
       </c>
       <c r="C143" t="s">
-        <v>5079</v>
+        <v>5065</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>5080</v>
+        <v>5066</v>
       </c>
       <c r="B144" t="s">
-        <v>4864</v>
+        <v>4850</v>
       </c>
       <c r="C144" t="s">
-        <v>5081</v>
+        <v>5067</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>5082</v>
+        <v>5068</v>
       </c>
       <c r="B145" t="s">
-        <v>4865</v>
+        <v>4851</v>
       </c>
       <c r="C145" t="s">
-        <v>5083</v>
+        <v>5069</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>5084</v>
+        <v>5070</v>
       </c>
       <c r="B146" t="s">
-        <v>4866</v>
+        <v>4852</v>
       </c>
       <c r="C146" t="s">
-        <v>5085</v>
+        <v>5071</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>5086</v>
+        <v>5072</v>
       </c>
       <c r="B147" t="s">
-        <v>4867</v>
+        <v>4853</v>
       </c>
       <c r="C147" t="s">
-        <v>5087</v>
+        <v>5073</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>5088</v>
+        <v>5074</v>
       </c>
       <c r="B148" t="s">
-        <v>4868</v>
+        <v>4854</v>
       </c>
       <c r="C148" t="s">
-        <v>5089</v>
+        <v>5075</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>5090</v>
+        <v>5076</v>
       </c>
       <c r="B149" t="s">
-        <v>4869</v>
+        <v>4855</v>
       </c>
       <c r="C149" t="s">
-        <v>5091</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>5092</v>
+        <v>5078</v>
       </c>
       <c r="B150" t="s">
-        <v>4870</v>
+        <v>4856</v>
       </c>
       <c r="C150" t="s">
-        <v>5093</v>
+        <v>5079</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>5094</v>
+        <v>5080</v>
       </c>
       <c r="B151" t="s">
-        <v>4871</v>
+        <v>4857</v>
       </c>
       <c r="C151" t="s">
-        <v>5095</v>
+        <v>5081</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>5096</v>
+        <v>5082</v>
       </c>
       <c r="B152" t="s">
-        <v>4872</v>
+        <v>4858</v>
       </c>
       <c r="C152" t="s">
-        <v>5097</v>
+        <v>5083</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>5098</v>
+        <v>5084</v>
       </c>
       <c r="B153" t="s">
-        <v>4873</v>
+        <v>4859</v>
       </c>
       <c r="C153" t="s">
-        <v>5099</v>
+        <v>5085</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>5100</v>
+        <v>5086</v>
       </c>
       <c r="B154" t="s">
-        <v>4874</v>
+        <v>4860</v>
       </c>
       <c r="C154" t="s">
-        <v>5101</v>
+        <v>5087</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>5102</v>
+        <v>5088</v>
       </c>
       <c r="B155" t="s">
-        <v>4875</v>
+        <v>4861</v>
       </c>
       <c r="C155" t="s">
-        <v>5103</v>
+        <v>5089</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>5104</v>
+        <v>5090</v>
       </c>
       <c r="B156" t="s">
-        <v>4876</v>
+        <v>4862</v>
       </c>
       <c r="C156" t="s">
-        <v>5105</v>
+        <v>5091</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>5106</v>
+        <v>5092</v>
       </c>
       <c r="B157" t="s">
-        <v>4877</v>
+        <v>4863</v>
       </c>
       <c r="C157" t="s">
-        <v>5107</v>
+        <v>5093</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>5108</v>
+        <v>5094</v>
       </c>
       <c r="B158" t="s">
-        <v>4878</v>
+        <v>4864</v>
       </c>
       <c r="C158" t="s">
-        <v>5109</v>
+        <v>5095</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>5110</v>
+        <v>5096</v>
       </c>
       <c r="B159" t="s">
-        <v>4879</v>
+        <v>4865</v>
       </c>
       <c r="C159" t="s">
-        <v>5111</v>
+        <v>5097</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>5112</v>
+        <v>5098</v>
       </c>
       <c r="B160" t="s">
-        <v>4880</v>
+        <v>4866</v>
       </c>
       <c r="C160" t="s">
-        <v>5113</v>
+        <v>5099</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -46872,10 +47890,10 @@
         <v>4660</v>
       </c>
       <c r="B161" t="s">
-        <v>4822</v>
+        <v>4808</v>
       </c>
       <c r="C161" t="s">
-        <v>5011</v>
+        <v>4997</v>
       </c>
     </row>
   </sheetData>

--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6954" uniqueCount="5145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="5169">
   <si>
     <t>Эмитент</t>
   </si>
@@ -15456,6 +15456,78 @@
   </si>
   <si>
     <t>25/05/2017</t>
+  </si>
+  <si>
+    <t>XS0583616239</t>
+  </si>
+  <si>
+    <t>XS0583616239 Corp</t>
+  </si>
+  <si>
+    <t>BELRUS 8.95 01/26/18</t>
+  </si>
+  <si>
+    <t>CH0336352825</t>
+  </si>
+  <si>
+    <t>YPFDAR 3 ¾ 09/30/19</t>
+  </si>
+  <si>
+    <t>CH0336352825 Corp</t>
+  </si>
+  <si>
+    <t>CH0246199050</t>
+  </si>
+  <si>
+    <t>KTZKZ 3.638 06/20/22</t>
+  </si>
+  <si>
+    <t>CH0246199050 Corp</t>
+  </si>
+  <si>
+    <t>US92189F1066</t>
+  </si>
+  <si>
+    <t>GDX US Equity</t>
+  </si>
+  <si>
+    <t>VANECK VECTORS GOLD MINERS E</t>
+  </si>
+  <si>
+    <t>XS0923110232</t>
+  </si>
+  <si>
+    <t>XS0923110232 Corp</t>
+  </si>
+  <si>
+    <t>NMOSRM 7 ¼ 04/25/18</t>
+  </si>
+  <si>
+    <t>XS1085735899</t>
+  </si>
+  <si>
+    <t>XS1085735899 Corp</t>
+  </si>
+  <si>
+    <t>PORTUG 5 ⅛ 10/15/24</t>
+  </si>
+  <si>
+    <t>XS1223394914</t>
+  </si>
+  <si>
+    <t>XS1223394914 Corp</t>
+  </si>
+  <si>
+    <t>TCZIRA 4 ¾ 04/29/21</t>
+  </si>
+  <si>
+    <t>US71647NAP42</t>
+  </si>
+  <si>
+    <t>US71647NAP42 Corp</t>
+  </si>
+  <si>
+    <t>PETBRA 8 ⅜ 05/23/21</t>
   </si>
 </sst>
 </file>
@@ -16621,11 +16693,11 @@
   </sheetPr>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="R54" sqref="R54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -16874,7 +16946,7 @@
         <v>4666</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:D23" si="0">R9/$R$55</f>
+        <f t="shared" ref="D9:D18" si="0">R9/$R$55</f>
         <v>1.9360789804087713E-2</v>
       </c>
       <c r="E9" s="36">
@@ -22366,101 +22438,6 @@
           <xm:sqref>N34:N38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="250" id="{EF154165-A510-48D6-8441-6E52AFB69160}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>3.5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K53 K32:K33</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="191" id="{114ECFA3-0821-47BE-B7AB-089367875297}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>3.5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K8</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="173" id="{9C82F187-496F-4ACE-BA8C-CD06B1B5CA98}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>3.5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K9:K31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="75" id="{A6BBD403-352E-48A7-80C6-F5EAACA8076B}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>3.5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K51:K52 K34:K42</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="57" id="{A6E7F667-E3CA-4B6B-822E-484CF02F32A1}">
-            <x14:iconSet iconSet="3Arrows" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>3.5</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>4</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
-              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>K43:K50</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8EFD676A-87DE-4793-A389-333D66B9DA7A}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
@@ -22604,6 +22581,101 @@
           <xm:sqref>J19:J23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="250" id="{EF154165-A510-48D6-8441-6E52AFB69160}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K53 K32:K33</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="191" id="{114ECFA3-0821-47BE-B7AB-089367875297}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="173" id="{9C82F187-496F-4ACE-BA8C-CD06B1B5CA98}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K9:K31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="75" id="{A6BBD403-352E-48A7-80C6-F5EAACA8076B}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K51:K52 K34:K42</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="57" id="{A6E7F667-E3CA-4B6B-822E-484CF02F32A1}">
+            <x14:iconSet iconSet="3Arrows" custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>3.5</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>4</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3Arrows" iconId="0"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="1"/>
+              <x14:cfIcon iconSet="3Arrows" iconId="2"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>K43:K50</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{A70E0C30-2B1F-4119-859A-02C77EEA2754}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
@@ -46112,10 +46184,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C169"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47896,7 +47968,96 @@
         <v>4997</v>
       </c>
     </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>5145</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5146</v>
+      </c>
+      <c r="C162" t="s">
+        <v>5147</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>5148</v>
+      </c>
+      <c r="B163" t="s">
+        <v>5150</v>
+      </c>
+      <c r="C163" t="s">
+        <v>5149</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>5151</v>
+      </c>
+      <c r="B164" t="s">
+        <v>5153</v>
+      </c>
+      <c r="C164" t="s">
+        <v>5152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>5154</v>
+      </c>
+      <c r="B165" t="s">
+        <v>5155</v>
+      </c>
+      <c r="C165" t="s">
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>5157</v>
+      </c>
+      <c r="B166" t="s">
+        <v>5158</v>
+      </c>
+      <c r="C166" t="s">
+        <v>5159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>5160</v>
+      </c>
+      <c r="B167" t="s">
+        <v>5161</v>
+      </c>
+      <c r="C167" t="s">
+        <v>5162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>5163</v>
+      </c>
+      <c r="B168" t="s">
+        <v>5164</v>
+      </c>
+      <c r="C168" t="s">
+        <v>5165</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>5166</v>
+      </c>
+      <c r="B169" t="s">
+        <v>5167</v>
+      </c>
+      <c r="C169" t="s">
+        <v>5168</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6978" uniqueCount="5169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6981" uniqueCount="5172">
   <si>
     <t>Эмитент</t>
   </si>
@@ -15528,6 +15528,15 @@
   </si>
   <si>
     <t>PETBRA 8 ⅜ 05/23/21</t>
+  </si>
+  <si>
+    <t>GB00B71N6K86</t>
+  </si>
+  <si>
+    <t>EVR LN Equity</t>
+  </si>
+  <si>
+    <t>EVRAZ PLC</t>
   </si>
 </sst>
 </file>
@@ -46184,10 +46193,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C169"/>
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48056,6 +48065,17 @@
         <v>5168</v>
       </c>
     </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>5169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>5170</v>
+      </c>
+      <c r="C170" t="s">
+        <v>5171</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Client!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Data!$J$32:$P$44</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="5920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7806" uniqueCount="5922">
   <si>
     <t>Эмитент</t>
   </si>
@@ -17781,6 +17781,12 @@
   </si>
   <si>
     <t>GS 0 01/04/19</t>
+  </si>
+  <si>
+    <t>RUAL RX Equity</t>
+  </si>
+  <si>
+    <t>Стоимость позиции по текущей цене (USD) с НКД</t>
   </si>
 </sst>
 </file>
@@ -18957,13 +18963,13 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18988,17 +18994,18 @@
     <col min="19" max="19" width="14.140625" style="23" customWidth="1"/>
     <col min="20" max="20" width="11.5703125" style="23" customWidth="1"/>
     <col min="21" max="21" width="13" style="23" customWidth="1"/>
-    <col min="22" max="23" width="12.28515625" style="23" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="23"/>
+    <col min="22" max="22" width="12.5703125" style="23" customWidth="1"/>
+    <col min="23" max="24" width="12.28515625" style="23" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="M1" s="42" t="s">
         <v>23</v>
       </c>
       <c r="N1" s="42"/>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>13</v>
       </c>
@@ -19015,7 +19022,7 @@
       </c>
       <c r="O2" s="49"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>14</v>
       </c>
@@ -19032,23 +19039,23 @@
         <v>41</v>
       </c>
       <c r="L3" s="50">
-        <f>M3/P55</f>
-        <v>9.6957754848492228E-2</v>
+        <f>M3/P54</f>
+        <v>0.10284394231908525</v>
       </c>
       <c r="M3" s="53">
         <f>P32</f>
         <v>332034.52798289154</v>
       </c>
       <c r="N3" s="52">
-        <f>P53</f>
-        <v>3092493.283142006</v>
+        <f>P52</f>
+        <v>2896493.283142006</v>
       </c>
       <c r="O3" s="51">
-        <f>N3/P55</f>
-        <v>0.90304224515150777</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <f>N3/P54</f>
+        <v>0.89715605768091478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>16</v>
       </c>
@@ -19070,7 +19077,7 @@
       <c r="N4" s="42"/>
       <c r="O4" s="43"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>18</v>
       </c>
@@ -19101,16 +19108,16 @@
       </c>
       <c r="N5" s="45">
         <f>D3*70%-N3</f>
-        <v>14407506.716857994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>14603506.716857994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D6" s="47"/>
       <c r="E6" s="47"/>
       <c r="M6" s="44"/>
       <c r="N6" s="44"/>
     </row>
-    <row r="7" spans="1:23" s="5" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" s="5" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -19172,13 +19179,16 @@
         <v>12</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>5921</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>4676</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>4675</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
@@ -19202,8 +19212,9 @@
       <c r="S8" s="36"/>
       <c r="T8" s="36"/>
       <c r="U8" s="37"/>
-    </row>
-    <row r="9" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V8" s="36"/>
+    </row>
+    <row r="9" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="39" t="str">
         <f>IF(LEFT(C9,2) = "RU", VLOOKUP(C9,MICEX!$A:$D,4,FALSE),VLOOKUP(C9,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>MMC Norilsk Nickel PJSC</v>
@@ -19212,7 +19223,7 @@
         <v>5393</v>
       </c>
       <c r="D9" s="7">
-        <f t="shared" ref="D9:D13" si="0">R9/$R$55</f>
+        <f>R9/$R$54</f>
         <v>3.0510877060802067E-2</v>
       </c>
       <c r="E9" s="36">
@@ -19248,11 +19259,11 @@
         <v>USD</v>
       </c>
       <c r="M9" s="7">
-        <f t="shared" ref="M9:M10" si="1">IF(O9&gt;0,Q9/O9-1,0)</f>
+        <f t="shared" ref="M9:M10" si="0">IF(O9&gt;0,Q9/O9-1,0)</f>
         <v>0.10608084636118886</v>
       </c>
       <c r="N9" s="7">
-        <f t="shared" ref="N9:N10" si="2">IF(P9&gt;0,R9/P9-1,0)</f>
+        <f t="shared" ref="N9:N10" si="1">IF(P9&gt;0,R9/P9-1,0)</f>
         <v>5.8022922636103091E-2</v>
       </c>
       <c r="O9" s="36">
@@ -19276,23 +19287,27 @@
         <v>600931.05287999939</v>
       </c>
       <c r="T9" s="36">
-        <f t="shared" ref="T9:T13" si="3">R9-P9</f>
+        <f t="shared" ref="T9:T13" si="2">R9-P9</f>
         <v>5799.5999999999913</v>
       </c>
       <c r="U9" s="37">
         <f>VLOOKUP(C9,Data!$B:$P,14,FALSE)</f>
         <v>11.013184187445791</v>
       </c>
-      <c r="V9" s="58" t="str">
-        <f>IF(VLOOKUP(C9,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C9,Data!$B:$P,15,FALSE))</f>
-        <v>22/06/2017</v>
+      <c r="V9" s="36">
+        <f>VLOOKUP(C9,Data!$B:$P,5,FALSE)</f>
+        <v>105753.2</v>
       </c>
       <c r="W9" s="58" t="str">
         <f>IF(VLOOKUP(C9,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C9,Data!$B:$P,15,FALSE))</f>
         <v>22/06/2017</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X9" s="58" t="str">
+        <f>IF(VLOOKUP(C9,Data!$B:$Q,16,FALSE)=0,"",VLOOKUP(C9,Data!$B:$Q,16,FALSE))</f>
+        <v>17/11/2017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="39" t="str">
         <f>IF(LEFT(C10,2) = "RU", VLOOKUP(C10,MICEX!$A:$D,4,FALSE),VLOOKUP(C10,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>Altria Group Inc</v>
@@ -19301,7 +19316,7 @@
         <v>5837</v>
       </c>
       <c r="D10" s="7">
-        <f t="shared" si="0"/>
+        <f>R10/$R$54</f>
         <v>1.4098916535927758E-2</v>
       </c>
       <c r="E10" s="36">
@@ -19309,7 +19324,7 @@
         <v>760</v>
       </c>
       <c r="F10" s="36">
-        <f t="shared" ref="F10" si="4">$J$5-P10</f>
+        <f t="shared" ref="F10" si="3">$J$5-P10</f>
         <v>2450001.804</v>
       </c>
       <c r="G10" s="57">
@@ -19325,7 +19340,7 @@
         <v>72.642860412597656</v>
       </c>
       <c r="J10" s="10">
-        <f t="shared" ref="J10" si="5">IF(I10&gt;0,I10/H10-1,0)</f>
+        <f t="shared" ref="J10" si="4">IF(I10&gt;0,I10/H10-1,0)</f>
         <v>0.12974899553029018</v>
       </c>
       <c r="K10" s="9">
@@ -19337,11 +19352,11 @@
         <v>USD</v>
       </c>
       <c r="M10" s="7">
+        <f t="shared" si="0"/>
+        <v>-4.4109015701254695E-2</v>
+      </c>
+      <c r="N10" s="7">
         <f t="shared" si="1"/>
-        <v>-4.4109015701254695E-2</v>
-      </c>
-      <c r="N10" s="7">
-        <f t="shared" si="2"/>
         <v>-2.2604735578859558E-2</v>
       </c>
       <c r="O10" s="36">
@@ -19361,27 +19376,31 @@
         <v>48868</v>
       </c>
       <c r="S10" s="36">
-        <f t="shared" ref="S10:S13" si="6">Q10-O10</f>
+        <f t="shared" ref="S10:S13" si="5">Q10-O10</f>
         <v>-133605.57825239934</v>
       </c>
       <c r="T10" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-1130.1959999999963</v>
       </c>
       <c r="U10" s="37">
         <f>VLOOKUP(C10,Data!$B:$P,14,FALSE)</f>
         <v>4.1044776119402995</v>
       </c>
-      <c r="V10" s="58" t="str">
-        <f>IF(VLOOKUP(C10,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C10,Data!$B:$P,15,FALSE))</f>
-        <v>13/06/2017</v>
+      <c r="V10" s="36">
+        <f>VLOOKUP(C10,Data!$B:$P,5,FALSE)</f>
+        <v>48868</v>
       </c>
       <c r="W10" s="58" t="str">
         <f>IF(VLOOKUP(C10,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C10,Data!$B:$P,15,FALSE))</f>
         <v>13/06/2017</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X10" s="58" t="str">
+        <f>IF(VLOOKUP(C10,Data!$B:$Q,16,FALSE)=0,"",VLOOKUP(C10,Data!$B:$Q,16,FALSE))</f>
+        <v>24/08/2017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="39" t="str">
         <f>IF(LEFT(C11,2) = "RU", VLOOKUP(C11,MICEX!$A:$D,4,FALSE),VLOOKUP(C11,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>Highland Gold Mining Ltd</v>
@@ -19390,7 +19409,7 @@
         <v>4669</v>
       </c>
       <c r="D11" s="7">
-        <f t="shared" si="0"/>
+        <f>R11/$R$54</f>
         <v>2.1862026021007133E-2</v>
       </c>
       <c r="E11" s="36">
@@ -19398,7 +19417,7 @@
         <v>42000</v>
       </c>
       <c r="F11" s="36">
-        <f t="shared" ref="F11" si="7">$J$5-P11</f>
+        <f t="shared" ref="F11" si="6">$J$5-P11</f>
         <v>2426675.5397800421</v>
       </c>
       <c r="G11" s="57">
@@ -19414,7 +19433,7 @@
         <v>215</v>
       </c>
       <c r="J11" s="10">
-        <f t="shared" ref="J11" si="8">IF(I11&gt;0,I11/H11-1,0)</f>
+        <f t="shared" ref="J11" si="7">IF(I11&gt;0,I11/H11-1,0)</f>
         <v>0.53571428571428581</v>
       </c>
       <c r="K11" s="9">
@@ -19426,11 +19445,11 @@
         <v>GBX</v>
       </c>
       <c r="M11" s="7">
-        <f t="shared" ref="M11" si="9">IF(O11&gt;0,Q11/O11-1,0)</f>
+        <f t="shared" ref="M11" si="8">IF(O11&gt;0,Q11/O11-1,0)</f>
         <v>7.2459253380069644E-2</v>
       </c>
       <c r="N11" s="7">
-        <f t="shared" ref="N11" si="10">IF(P11&gt;0,R11/P11-1,0)</f>
+        <f t="shared" ref="N11" si="9">IF(P11&gt;0,R11/P11-1,0)</f>
         <v>3.3428318038317917E-2</v>
       </c>
       <c r="O11" s="36">
@@ -19450,27 +19469,31 @@
         <v>75775.57359617883</v>
       </c>
       <c r="S11" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>303335.54999999935</v>
       </c>
       <c r="T11" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2451.1133762207464</v>
       </c>
       <c r="U11" s="37">
         <f>VLOOKUP(C11,Data!$B:$P,14,FALSE)</f>
         <v>7.428571156093053</v>
       </c>
-      <c r="V11" s="58" t="str">
-        <f>IF(VLOOKUP(C11,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C11,Data!$B:$P,15,FALSE))</f>
-        <v>20/04/2017</v>
+      <c r="V11" s="36">
+        <f>VLOOKUP(C11,Data!$B:$P,5,FALSE)</f>
+        <v>75775.57359617883</v>
       </c>
       <c r="W11" s="58" t="str">
         <f>IF(VLOOKUP(C11,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C11,Data!$B:$P,15,FALSE))</f>
         <v>20/04/2017</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X11" s="58" t="str">
+        <f>IF(VLOOKUP(C11,Data!$B:$Q,16,FALSE)=0,"",VLOOKUP(C11,Data!$B:$Q,16,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="39" t="str">
         <f>IF(LEFT(C12,2) = "RU", VLOOKUP(C12,MICEX!$A:$D,4,FALSE),VLOOKUP(C12,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>Polymetal International PLC</v>
@@ -19479,7 +19502,7 @@
         <v>51</v>
       </c>
       <c r="D12" s="7">
-        <f t="shared" si="0"/>
+        <f>R12/$R$54</f>
         <v>1.5114077453630201E-2</v>
       </c>
       <c r="E12" s="36">
@@ -19487,7 +19510,7 @@
         <v>4350</v>
       </c>
       <c r="F12" s="36">
-        <f t="shared" ref="F12:F13" si="11">$J$5-P12</f>
+        <f t="shared" ref="F12:F13" si="10">$J$5-P12</f>
         <v>2450116.2575500002</v>
       </c>
       <c r="G12" s="57">
@@ -19503,7 +19526,7 @@
         <v>954.59637451171875</v>
       </c>
       <c r="J12" s="10">
-        <f t="shared" ref="J12:J13" si="12">IF(I12&gt;0,I12/H12-1,0)</f>
+        <f t="shared" ref="J12:J13" si="11">IF(I12&gt;0,I12/H12-1,0)</f>
         <v>2.1504948648174205E-2</v>
       </c>
       <c r="K12" s="9">
@@ -19515,11 +19538,11 @@
         <v>GBX</v>
       </c>
       <c r="M12" s="7">
-        <f t="shared" ref="M12:M13" si="13">IF(O12&gt;0,Q12/O12-1,0)</f>
+        <f t="shared" ref="M12:M13" si="12">IF(O12&gt;0,Q12/O12-1,0)</f>
         <v>4.436291759501465E-2</v>
       </c>
       <c r="N12" s="7">
-        <f t="shared" ref="N12:N13" si="14">IF(P12&gt;0,R12/P12-1,0)</f>
+        <f t="shared" ref="N12:N13" si="13">IF(P12&gt;0,R12/P12-1,0)</f>
         <v>5.017443262364063E-2</v>
       </c>
       <c r="O12" s="36">
@@ -19539,27 +19562,31 @@
         <v>52386.630924572572</v>
       </c>
       <c r="S12" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>131846.96934418567</v>
       </c>
       <c r="T12" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2502.8884745725663</v>
       </c>
       <c r="U12" s="37">
         <f>VLOOKUP(C12,Data!$B:$P,14,FALSE)</f>
         <v>5.8089467916595803</v>
       </c>
-      <c r="V12" s="58" t="str">
-        <f>IF(VLOOKUP(C12,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C12,Data!$B:$P,15,FALSE))</f>
-        <v>04/05/2017</v>
+      <c r="V12" s="36">
+        <f>VLOOKUP(C12,Data!$B:$P,5,FALSE)</f>
+        <v>52386.630924572572</v>
       </c>
       <c r="W12" s="58" t="str">
         <f>IF(VLOOKUP(C12,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C12,Data!$B:$P,15,FALSE))</f>
         <v>04/05/2017</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X12" s="58" t="str">
+        <f>IF(VLOOKUP(C12,Data!$B:$Q,16,FALSE)=0,"",VLOOKUP(C12,Data!$B:$Q,16,FALSE))</f>
+        <v>29/08/2017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="39" t="str">
         <f>IF(LEFT(C13,2) = "RU", VLOOKUP(C13,MICEX!$A:$D,4,FALSE),VLOOKUP(C13,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>Daimler AG</v>
@@ -19568,7 +19595,7 @@
         <v>5633</v>
       </c>
       <c r="D13" s="7">
-        <f t="shared" si="0"/>
+        <f>R13/$R$54</f>
         <v>1.6972428033997643E-2</v>
       </c>
       <c r="E13" s="36">
@@ -19576,7 +19603,7 @@
         <v>830</v>
       </c>
       <c r="F13" s="36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2441125.4706870667</v>
       </c>
       <c r="G13" s="57">
@@ -19592,7 +19619,7 @@
         <v>71.13043212890625</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0.17980481222269451</v>
       </c>
       <c r="K13" s="9">
@@ -19604,11 +19631,11 @@
         <v>EUR</v>
       </c>
       <c r="M13" s="7">
+        <f t="shared" si="12"/>
+        <v>-2.5486294793532038E-2</v>
+      </c>
+      <c r="N13" s="7">
         <f t="shared" si="13"/>
-        <v>-2.5486294793532038E-2</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="14"/>
         <v>-7.9326325500028716E-4</v>
       </c>
       <c r="O13" s="36">
@@ -19628,27 +19655,31 @@
         <v>58827.826312174046</v>
       </c>
       <c r="S13" s="36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-91155.436949499883</v>
       </c>
       <c r="T13" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>-46.703000759385759</v>
       </c>
       <c r="U13" s="37">
         <f>VLOOKUP(C13,Data!$B:$P,14,FALSE)</f>
         <v>5.3906120417979766</v>
       </c>
-      <c r="V13" s="58" t="str">
-        <f>IF(VLOOKUP(C13,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C13,Data!$B:$P,15,FALSE))</f>
-        <v>30/03/2017</v>
+      <c r="V13" s="36">
+        <f>VLOOKUP(C13,Data!$B:$P,5,FALSE)</f>
+        <v>58827.826312174046</v>
       </c>
       <c r="W13" s="58" t="str">
         <f>IF(VLOOKUP(C13,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C13,Data!$B:$P,15,FALSE))</f>
         <v>30/03/2017</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="58" t="str">
+        <f>IF(VLOOKUP(C13,Data!$B:$Q,16,FALSE)=0,"",VLOOKUP(C13,Data!$B:$Q,16,FALSE))</f>
+        <v>07/02/2018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B14" s="39"/>
       <c r="C14" s="39"/>
       <c r="D14" s="7"/>
@@ -19669,10 +19700,11 @@
       <c r="S14" s="36"/>
       <c r="T14" s="36"/>
       <c r="U14" s="37"/>
-      <c r="V14" s="58"/>
+      <c r="V14" s="36"/>
       <c r="W14" s="58"/>
-    </row>
-    <row r="15" spans="1:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X14" s="58"/>
+    </row>
+    <row r="15" spans="1:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B15" s="39"/>
       <c r="C15" s="39"/>
       <c r="D15" s="7"/>
@@ -19693,10 +19725,11 @@
       <c r="S15" s="36"/>
       <c r="T15" s="36"/>
       <c r="U15" s="37"/>
-      <c r="V15" s="58"/>
+      <c r="V15" s="36"/>
       <c r="W15" s="58"/>
-    </row>
-    <row r="16" spans="1:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X15" s="58"/>
+    </row>
+    <row r="16" spans="1:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" s="39"/>
       <c r="C16" s="39"/>
       <c r="D16" s="7"/>
@@ -19717,10 +19750,11 @@
       <c r="S16" s="36"/>
       <c r="T16" s="36"/>
       <c r="U16" s="37"/>
-      <c r="V16" s="58"/>
+      <c r="V16" s="36"/>
       <c r="W16" s="58"/>
-    </row>
-    <row r="17" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="58"/>
+    </row>
+    <row r="17" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B17" s="39"/>
       <c r="C17" s="39"/>
       <c r="D17" s="7"/>
@@ -19741,10 +19775,11 @@
       <c r="S17" s="36"/>
       <c r="T17" s="36"/>
       <c r="U17" s="37"/>
-      <c r="V17" s="58"/>
+      <c r="V17" s="36"/>
       <c r="W17" s="58"/>
-    </row>
-    <row r="18" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="58"/>
+    </row>
+    <row r="18" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="39"/>
       <c r="C18" s="39"/>
       <c r="D18" s="7"/>
@@ -19765,10 +19800,11 @@
       <c r="S18" s="36"/>
       <c r="T18" s="36"/>
       <c r="U18" s="37"/>
-      <c r="V18" s="58"/>
+      <c r="V18" s="36"/>
       <c r="W18" s="58"/>
-    </row>
-    <row r="19" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="58"/>
+    </row>
+    <row r="19" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="39"/>
       <c r="C19" s="39"/>
       <c r="D19" s="7"/>
@@ -19789,10 +19825,11 @@
       <c r="S19" s="36"/>
       <c r="T19" s="36"/>
       <c r="U19" s="37"/>
-      <c r="V19" s="58"/>
+      <c r="V19" s="36"/>
       <c r="W19" s="58"/>
-    </row>
-    <row r="20" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="58"/>
+    </row>
+    <row r="20" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
       <c r="D20" s="7"/>
@@ -19813,10 +19850,11 @@
       <c r="S20" s="36"/>
       <c r="T20" s="36"/>
       <c r="U20" s="37"/>
-      <c r="V20" s="58"/>
+      <c r="V20" s="36"/>
       <c r="W20" s="58"/>
-    </row>
-    <row r="21" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="58"/>
+    </row>
+    <row r="21" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="39"/>
       <c r="C21" s="39"/>
       <c r="D21" s="7"/>
@@ -19837,10 +19875,11 @@
       <c r="S21" s="36"/>
       <c r="T21" s="36"/>
       <c r="U21" s="37"/>
-      <c r="V21" s="58"/>
+      <c r="V21" s="36"/>
       <c r="W21" s="58"/>
-    </row>
-    <row r="22" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="58"/>
+    </row>
+    <row r="22" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
       <c r="D22" s="7"/>
@@ -19861,10 +19900,11 @@
       <c r="S22" s="36"/>
       <c r="T22" s="36"/>
       <c r="U22" s="37"/>
-      <c r="V22" s="58"/>
+      <c r="V22" s="36"/>
       <c r="W22" s="58"/>
-    </row>
-    <row r="23" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="58"/>
+    </row>
+    <row r="23" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
       <c r="D23" s="7"/>
@@ -19885,10 +19925,11 @@
       <c r="S23" s="36"/>
       <c r="T23" s="36"/>
       <c r="U23" s="37"/>
-      <c r="V23" s="58"/>
+      <c r="V23" s="36"/>
       <c r="W23" s="58"/>
-    </row>
-    <row r="24" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="58"/>
+    </row>
+    <row r="24" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="39"/>
       <c r="C24" s="39" t="s">
         <v>4669</v>
@@ -19901,8 +19942,8 @@
       <c r="I24" s="9"/>
       <c r="J24" s="10"/>
       <c r="K24" s="9" t="e">
-        <f>IF(C24="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C24="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L24" s="11"/>
       <c r="M24" s="7"/>
@@ -19914,13 +19955,14 @@
       <c r="S24" s="36"/>
       <c r="T24" s="36"/>
       <c r="U24" s="37"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="58" t="e">
+      <c r="V24" s="36"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="58" t="e">
         <f>VLOOKUP(C24,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="39"/>
       <c r="C25" s="39" t="s">
         <v>51</v>
@@ -19933,8 +19975,8 @@
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
       <c r="K25" s="9" t="e">
-        <f>IF(C25="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C25="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L25" s="11"/>
       <c r="M25" s="7"/>
@@ -19946,13 +19988,14 @@
       <c r="S25" s="36"/>
       <c r="T25" s="36"/>
       <c r="U25" s="37"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="58" t="e">
+      <c r="V25" s="36"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="58" t="e">
         <f>VLOOKUP(C25,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="26" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="39"/>
       <c r="C26" s="39"/>
       <c r="D26" s="7"/>
@@ -19963,8 +20006,8 @@
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="9" t="e">
-        <f>IF(C26="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C26="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L26" s="11"/>
       <c r="M26" s="7"/>
@@ -19976,13 +20019,14 @@
       <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="37"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="58" t="e">
+      <c r="V26" s="36"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="58" t="e">
         <f>VLOOKUP(C26,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="39"/>
       <c r="C27" s="39"/>
       <c r="D27" s="7"/>
@@ -19993,8 +20037,8 @@
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="9" t="e">
-        <f>IF(C27="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C27="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L27" s="11"/>
       <c r="M27" s="7"/>
@@ -20006,13 +20050,14 @@
       <c r="S27" s="36"/>
       <c r="T27" s="36"/>
       <c r="U27" s="37"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="58" t="e">
+      <c r="V27" s="36"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="58" t="e">
         <f>VLOOKUP(C27,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="28" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="39"/>
       <c r="C28" s="39"/>
       <c r="D28" s="7"/>
@@ -20023,8 +20068,8 @@
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="9" t="e">
-        <f>IF(C28="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C28="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L28" s="11"/>
       <c r="M28" s="7"/>
@@ -20036,13 +20081,14 @@
       <c r="S28" s="36"/>
       <c r="T28" s="36"/>
       <c r="U28" s="37"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="58" t="e">
+      <c r="V28" s="36"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="58" t="e">
         <f>VLOOKUP(C28,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="39"/>
       <c r="C29" s="39"/>
       <c r="D29" s="7"/>
@@ -20053,8 +20099,8 @@
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
       <c r="K29" s="9" t="e">
-        <f>IF(C29="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C29="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L29" s="11"/>
       <c r="M29" s="7"/>
@@ -20066,13 +20112,14 @@
       <c r="S29" s="36"/>
       <c r="T29" s="36"/>
       <c r="U29" s="37"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="58" t="e">
+      <c r="V29" s="36"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="58" t="e">
         <f>VLOOKUP(C29,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="30" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="39"/>
       <c r="C30" s="39"/>
       <c r="D30" s="7"/>
@@ -20083,8 +20130,8 @@
       <c r="I30" s="9"/>
       <c r="J30" s="10"/>
       <c r="K30" s="9" t="e">
-        <f>IF(C30="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C30="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L30" s="11"/>
       <c r="M30" s="7"/>
@@ -20096,13 +20143,14 @@
       <c r="S30" s="36"/>
       <c r="T30" s="36"/>
       <c r="U30" s="37"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="58" t="e">
+      <c r="V30" s="36"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="58" t="e">
         <f>VLOOKUP(C30,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="2:23" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="39"/>
       <c r="C31" s="39"/>
       <c r="D31" s="7"/>
@@ -20113,8 +20161,8 @@
       <c r="I31" s="9"/>
       <c r="J31" s="10"/>
       <c r="K31" s="9" t="e">
-        <f>IF(C31="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
-        <v>#REF!</v>
+        <f ca="1">IF(C31="RU000A0JR5Z5",_xll.BDP("486 HK EQUITY","EQY_REC_CONS"),IF(OR(_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A Field Not Applicable",_xll.BDP(#REF!,"EQY_REC_CONS")="#N/A N/A"),0,_xll.BDP(#REF!,"EQY_REC_CONS")))</f>
+        <v>#NAME?</v>
       </c>
       <c r="L31" s="11"/>
       <c r="M31" s="7"/>
@@ -20126,13 +20174,14 @@
       <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="37"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="58" t="e">
+      <c r="V31" s="36"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="58" t="e">
         <f>VLOOKUP(C31,Data!$A$2:$P$100,16,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="39"/>
       <c r="C32" s="39"/>
       <c r="D32" s="54">
@@ -20177,10 +20226,14 @@
         <v>9576.702850033922</v>
       </c>
       <c r="U32" s="37"/>
-      <c r="V32" s="59"/>
+      <c r="V32" s="41">
+        <f>SUM(V9:V31)</f>
+        <v>341611.23083292547</v>
+      </c>
       <c r="W32" s="59"/>
-    </row>
-    <row r="33" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X32" s="59"/>
+    </row>
+    <row r="33" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>19</v>
       </c>
@@ -20208,10 +20261,11 @@
       <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="37"/>
-      <c r="V33" s="59"/>
+      <c r="V33" s="36"/>
       <c r="W33" s="59"/>
-    </row>
-    <row r="34" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X33" s="59"/>
+    </row>
+    <row r="34" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="39" t="str">
         <f>IF(LEFT(C34,2) = "RU", VLOOKUP(C34,MICEX!$A:$D,4,FALSE),VLOOKUP(C34,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>RUSSIA 12 3/4 06/24/28</v>
@@ -20220,7 +20274,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="7">
-        <f>R34/$R$55</f>
+        <f>R34/$R$54</f>
         <v>0.22789061203107797</v>
       </c>
       <c r="E34" s="36">
@@ -20228,7 +20282,7 @@
         <v>449000</v>
       </c>
       <c r="F34" s="36">
-        <f t="shared" ref="F34:F38" si="15">$J$5-P34</f>
+        <f t="shared" ref="F34:F38" si="14">$J$5-P34</f>
         <v>1713692.5</v>
       </c>
       <c r="G34" s="57">
@@ -20253,11 +20307,11 @@
         <v>USD</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" ref="M34:N38" si="16">IF(O34&gt;0,Q34/O34-1,0)</f>
+        <f t="shared" ref="M34:N38" si="15">IF(O34&gt;0,Q34/O34-1,0)</f>
         <v>9.2665731747936242E-3</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.5529706889482213E-3</v>
       </c>
       <c r="O34" s="36">
@@ -20277,24 +20331,28 @@
         <v>789887.53500000015</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" ref="S34:S38" si="17">Q34-O34</f>
+        <f t="shared" ref="S34:S38" si="16">Q34-O34</f>
         <v>429694.26271501184</v>
       </c>
       <c r="T34" s="36">
-        <f t="shared" ref="T34:T38" si="18">R34-P34</f>
+        <f t="shared" ref="T34:T38" si="17">R34-P34</f>
         <v>3580.035000000149</v>
       </c>
       <c r="U34" s="37">
         <f>VLOOKUP(C34,Data!$B:$P,14,FALSE)</f>
         <v>4.0326066999999997</v>
       </c>
-      <c r="V34" s="58" t="str">
-        <f>VLOOKUP(C34,Data!$B:$P,15,FALSE)</f>
+      <c r="V34" s="36">
+        <f>VLOOKUP(C34,Data!$B:$P,5,FALSE)/VLOOKUP(C34,Data!$B:$P,2,FALSE)*(  VLOOKUP(C34,Data!$B:$P,2,FALSE) + VLOOKUP(C34,Data!$B:$P,12,FALSE))</f>
+        <v>799110.74333333352</v>
+      </c>
+      <c r="W34" s="58" t="str">
+        <f>IF(VLOOKUP(C34,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C34,Data!$B:$P,15,FALSE))</f>
         <v>24/12/2017</v>
       </c>
-      <c r="W34" s="59"/>
-    </row>
-    <row r="35" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X34" s="59"/>
+    </row>
+    <row r="35" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="39" t="str">
         <f>IF(LEFT(C35,2) = "RU", VLOOKUP(C35,MICEX!$A:$D,4,FALSE),VLOOKUP(C35,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>GLPRLI 6.872 01/25/22</v>
@@ -20303,7 +20361,7 @@
         <v>4958</v>
       </c>
       <c r="D35" s="7">
-        <f>R35/$R$55</f>
+        <f>R35/$R$54</f>
         <v>6.0836472870082224E-2</v>
       </c>
       <c r="E35" s="36">
@@ -20311,7 +20369,7 @@
         <v>200000</v>
       </c>
       <c r="F35" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2289300</v>
       </c>
       <c r="G35" s="57">
@@ -20336,11 +20394,11 @@
         <v>USD</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.0801204210043629E-2</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>7.7930707166595781E-4</v>
       </c>
       <c r="O35" s="36">
@@ -20360,24 +20418,28 @@
         <v>210864.2</v>
       </c>
       <c r="S35" s="36">
+        <f t="shared" si="16"/>
+        <v>489766.49580000155</v>
+      </c>
+      <c r="T35" s="36">
         <f t="shared" si="17"/>
-        <v>489766.49580000155</v>
-      </c>
-      <c r="T35" s="36">
-        <f t="shared" si="18"/>
         <v>164.20000000001164</v>
       </c>
       <c r="U35" s="37">
         <f>VLOOKUP(C35,Data!$B:$P,14,FALSE)</f>
         <v>5.4715489999999996</v>
       </c>
-      <c r="V35" s="58" t="str">
-        <f>VLOOKUP(C35,Data!$B:$P,15,FALSE)</f>
+      <c r="V35" s="36">
+        <f>VLOOKUP(C35,Data!$B:$P,5,FALSE)/VLOOKUP(C35,Data!$B:$P,2,FALSE)*(  VLOOKUP(C35,Data!$B:$P,2,FALSE) + VLOOKUP(C35,Data!$B:$P,12,FALSE))</f>
+        <v>211895</v>
+      </c>
+      <c r="W35" s="58" t="str">
+        <f>IF(VLOOKUP(C35,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C35,Data!$B:$P,15,FALSE))</f>
         <v>25/01/2018</v>
       </c>
-      <c r="W35" s="59"/>
-    </row>
-    <row r="36" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X35" s="59"/>
+    </row>
+    <row r="36" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="39" t="str">
         <f>IF(LEFT(C36,2) = "RU", VLOOKUP(C36,MICEX!$A:$D,4,FALSE),VLOOKUP(C36,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>MRFGBZ 8 06/08/23</v>
@@ -20386,7 +20448,7 @@
         <v>5027</v>
       </c>
       <c r="D36" s="7">
-        <f>R36/$R$55</f>
+        <f>R36/$R$54</f>
         <v>6.0558175929537154E-2</v>
       </c>
       <c r="E36" s="36">
@@ -20394,7 +20456,7 @@
         <v>200000</v>
       </c>
       <c r="F36" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2293000</v>
       </c>
       <c r="G36" s="57">
@@ -20419,11 +20481,11 @@
         <v>USD</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.2385730503244901E-2</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>1.4007729468598962E-2</v>
       </c>
       <c r="O36" s="36">
@@ -20443,24 +20505,28 @@
         <v>209899.59999999998</v>
       </c>
       <c r="S36" s="36">
+        <f t="shared" si="16"/>
+        <v>505689.40039999969</v>
+      </c>
+      <c r="T36" s="36">
         <f t="shared" si="17"/>
-        <v>505689.40039999969</v>
-      </c>
-      <c r="T36" s="36">
-        <f t="shared" si="18"/>
         <v>2899.5999999999767</v>
       </c>
       <c r="U36" s="37">
         <f>VLOOKUP(C36,Data!$B:$P,14,FALSE)</f>
         <v>6.5013044000000004</v>
       </c>
-      <c r="V36" s="58" t="str">
-        <f>VLOOKUP(C36,Data!$B:$P,15,FALSE)</f>
+      <c r="V36" s="36">
+        <f>VLOOKUP(C36,Data!$B:$P,5,FALSE)/VLOOKUP(C36,Data!$B:$P,2,FALSE)*(  VLOOKUP(C36,Data!$B:$P,2,FALSE) + VLOOKUP(C36,Data!$B:$P,12,FALSE))</f>
+        <v>213232.93333333332</v>
+      </c>
+      <c r="W36" s="58" t="str">
+        <f>IF(VLOOKUP(C36,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C36,Data!$B:$P,15,FALSE))</f>
         <v>08/12/2017</v>
       </c>
-      <c r="W36" s="59"/>
-    </row>
-    <row r="37" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X36" s="59"/>
+    </row>
+    <row r="37" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="39" t="str">
         <f>IF(LEFT(C37,2) = "RU", VLOOKUP(C37,MICEX!$A:$D,4,FALSE),VLOOKUP(C37,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>JBSSBZ 7 3/4 10/28/20</v>
@@ -20469,7 +20535,7 @@
         <v>4847</v>
       </c>
       <c r="D37" s="7">
-        <f>R37/$R$55</f>
+        <f>R37/$R$54</f>
         <v>5.8781760915724145E-2</v>
       </c>
       <c r="E37" s="36">
@@ -20477,7 +20543,7 @@
         <v>200000</v>
       </c>
       <c r="F37" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2291500</v>
       </c>
       <c r="G37" s="57">
@@ -20502,11 +20568,11 @@
         <v>USD</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>4.5291651417569412E-3</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>-2.2818225419664273E-2</v>
       </c>
       <c r="O37" s="36">
@@ -20526,24 +20592,28 @@
         <v>203742.4</v>
       </c>
       <c r="S37" s="36">
+        <f t="shared" si="16"/>
+        <v>54427.457599999383</v>
+      </c>
+      <c r="T37" s="36">
         <f t="shared" si="17"/>
-        <v>54427.457599999383</v>
-      </c>
-      <c r="T37" s="36">
-        <f t="shared" si="18"/>
         <v>-4757.6000000000058</v>
       </c>
       <c r="U37" s="37">
         <f>VLOOKUP(C37,Data!$B:$P,14,FALSE)</f>
         <v>6.8047332000000003</v>
       </c>
-      <c r="V37" s="58" t="str">
-        <f>VLOOKUP(C37,Data!$B:$P,15,FALSE)</f>
+      <c r="V37" s="36">
+        <f>VLOOKUP(C37,Data!$B:$P,5,FALSE)/VLOOKUP(C37,Data!$B:$P,2,FALSE)*(  VLOOKUP(C37,Data!$B:$P,2,FALSE) + VLOOKUP(C37,Data!$B:$P,12,FALSE))</f>
+        <v>208693.7888888889</v>
+      </c>
+      <c r="W37" s="58" t="str">
+        <f>IF(VLOOKUP(C37,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C37,Data!$B:$P,15,FALSE))</f>
         <v>28/10/2017</v>
       </c>
-      <c r="W37" s="59"/>
-    </row>
-    <row r="38" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X37" s="59"/>
+    </row>
+    <row r="38" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="39" t="str">
         <f>IF(LEFT(C38,2) = "RU", VLOOKUP(C38,MICEX!$A:$D,4,FALSE),VLOOKUP(C38,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>KAZNMH 4 5/8 05/24/23</v>
@@ -20552,7 +20622,7 @@
         <v>5023</v>
       </c>
       <c r="D38" s="7">
-        <f>R38/$R$55</f>
+        <f>R38/$R$54</f>
         <v>5.7658590700565629E-2</v>
       </c>
       <c r="E38" s="36">
@@ -20560,7 +20630,7 @@
         <v>200000</v>
       </c>
       <c r="F38" s="36">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>2304600</v>
       </c>
       <c r="G38" s="57">
@@ -20585,11 +20655,11 @@
         <v>USD</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>3.0023606061745367E-2</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>2.2770726714432143E-2</v>
       </c>
       <c r="O38" s="36">
@@ -20609,24 +20679,28 @@
         <v>199849.40000000002</v>
       </c>
       <c r="S38" s="36">
+        <f t="shared" si="16"/>
+        <v>345143.38060000166</v>
+      </c>
+      <c r="T38" s="36">
         <f t="shared" si="17"/>
-        <v>345143.38060000166</v>
-      </c>
-      <c r="T38" s="36">
-        <f t="shared" si="18"/>
         <v>4449.4000000000233</v>
       </c>
       <c r="U38" s="37">
         <f>VLOOKUP(C38,Data!$B:$P,14,FALSE)</f>
         <v>4.6387727999999999</v>
       </c>
-      <c r="V38" s="58" t="str">
-        <f>VLOOKUP(C38,Data!$B:$P,15,FALSE)</f>
+      <c r="V38" s="36">
+        <f>VLOOKUP(C38,Data!$B:$P,5,FALSE)/VLOOKUP(C38,Data!$B:$P,2,FALSE)*(  VLOOKUP(C38,Data!$B:$P,2,FALSE) + VLOOKUP(C38,Data!$B:$P,12,FALSE))</f>
+        <v>202110.51111111115</v>
+      </c>
+      <c r="W38" s="58" t="str">
+        <f>IF(VLOOKUP(C38,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C38,Data!$B:$P,15,FALSE))</f>
         <v>24/11/2017</v>
       </c>
-      <c r="W38" s="59"/>
-    </row>
-    <row r="39" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="X38" s="59"/>
+    </row>
+    <row r="39" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="39" t="str">
         <f>IF(LEFT(C39,2) = "RU", VLOOKUP(C39,MICEX!$A:$D,4,FALSE),VLOOKUP(C39,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>NMOSRM 10 04/26/19</v>
@@ -20635,7 +20709,7 @@
         <v>5625</v>
       </c>
       <c r="D39" s="7">
-        <f t="shared" ref="D39:D49" si="19">R39/$R$55</f>
+        <f>R39/$R$54</f>
         <v>5.5026748708961508E-2</v>
       </c>
       <c r="E39" s="36">
@@ -20643,7 +20717,7 @@
         <v>200000</v>
       </c>
       <c r="F39" s="36">
-        <f t="shared" ref="F39:F49" si="20">$J$5-P39</f>
+        <f t="shared" ref="F39:F48" si="18">$J$5-P39</f>
         <v>2289750</v>
       </c>
       <c r="G39" s="57">
@@ -20668,11 +20742,11 @@
         <v>USD</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" ref="M39:M49" si="21">IF(O39&gt;0,Q39/O39-1,0)</f>
+        <f t="shared" ref="M39:M48" si="19">IF(O39&gt;0,Q39/O39-1,0)</f>
         <v>-0.10337672861712444</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" ref="N39:N49" si="22">IF(P39&gt;0,R39/P39-1,0)</f>
+        <f t="shared" ref="N39:N48" si="20">IF(P39&gt;0,R39/P39-1,0)</f>
         <v>-9.2855077288941823E-2</v>
       </c>
       <c r="O39" s="36">
@@ -20692,23 +20766,27 @@
         <v>190727.21999999997</v>
       </c>
       <c r="S39" s="36">
-        <f t="shared" ref="S39:S49" si="23">Q39-O39</f>
+        <f t="shared" ref="S39:S48" si="21">Q39-O39</f>
         <v>-1302886.1922200006</v>
       </c>
       <c r="T39" s="36">
-        <f t="shared" ref="T39:T49" si="24">R39-P39</f>
+        <f t="shared" ref="T39:T48" si="22">R39-P39</f>
         <v>-19522.780000000028</v>
       </c>
       <c r="U39" s="37">
         <f>VLOOKUP(C39,Data!$B:$P,14,FALSE)</f>
         <v>13.143872500000001</v>
       </c>
-      <c r="V39" s="58" t="str">
-        <f>VLOOKUP(C39,Data!$B:$P,15,FALSE)</f>
+      <c r="V39" s="36">
+        <f>VLOOKUP(C39,Data!$B:$P,5,FALSE)/VLOOKUP(C39,Data!$B:$P,2,FALSE)*(  VLOOKUP(C39,Data!$B:$P,2,FALSE) + VLOOKUP(C39,Data!$B:$P,12,FALSE))</f>
+        <v>197171.66444444441</v>
+      </c>
+      <c r="W39" s="58" t="str">
+        <f>IF(VLOOKUP(C39,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C39,Data!$B:$P,15,FALSE))</f>
         <v>26/10/2017</v>
       </c>
     </row>
-    <row r="40" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="39" t="str">
         <f>IF(LEFT(C40,2) = "RU", VLOOKUP(C40,MICEX!$A:$D,4,FALSE),VLOOKUP(C40,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>AFKSRU 6.95 05/17/19</v>
@@ -20717,7 +20795,7 @@
         <v>5775</v>
       </c>
       <c r="D40" s="7">
-        <f t="shared" si="19"/>
+        <f>R40/$R$54</f>
         <v>5.2645506678540732E-2</v>
       </c>
       <c r="E40" s="36">
@@ -20725,7 +20803,7 @@
         <v>200000</v>
       </c>
       <c r="F40" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2321700</v>
       </c>
       <c r="G40" s="57">
@@ -20750,11 +20828,11 @@
         <v>USD</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>2.6295497387258671E-2</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.3407964105440104E-2</v>
       </c>
       <c r="O40" s="36">
@@ -20774,23 +20852,27 @@
         <v>182473.63999999998</v>
       </c>
       <c r="S40" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>277006.60636000149</v>
       </c>
       <c r="T40" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>4173.6399999999849</v>
       </c>
       <c r="U40" s="37">
         <f>VLOOKUP(C40,Data!$B:$P,14,FALSE)</f>
         <v>12.715666000000001</v>
       </c>
-      <c r="V40" s="58" t="str">
-        <f>VLOOKUP(C40,Data!$B:$P,15,FALSE)</f>
+      <c r="V40" s="36">
+        <f>VLOOKUP(C40,Data!$B:$P,5,FALSE)/VLOOKUP(C40,Data!$B:$P,2,FALSE)*(  VLOOKUP(C40,Data!$B:$P,2,FALSE) + VLOOKUP(C40,Data!$B:$P,12,FALSE))</f>
+        <v>186141.69555555555</v>
+      </c>
+      <c r="W40" s="58" t="str">
+        <f>IF(VLOOKUP(C40,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C40,Data!$B:$P,15,FALSE))</f>
         <v>17/11/2017</v>
       </c>
     </row>
-    <row r="41" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="39" t="str">
         <f>IF(LEFT(C41,2) = "RU", VLOOKUP(C41,MICEX!$A:$D,4,FALSE),VLOOKUP(C41,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>PETBRA 8 3/4 05/23/26</v>
@@ -20799,7 +20881,7 @@
         <v>5571</v>
       </c>
       <c r="D41" s="7">
-        <f t="shared" si="19"/>
+        <f>R41/$R$54</f>
         <v>3.4019132262267805E-2</v>
       </c>
       <c r="E41" s="36">
@@ -20807,7 +20889,7 @@
         <v>100000</v>
       </c>
       <c r="F41" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2384750</v>
       </c>
       <c r="G41" s="57">
@@ -20832,11 +20914,11 @@
         <v>USD</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>6.0494470368590125E-2</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>2.3107158351409973E-2</v>
       </c>
       <c r="O41" s="36">
@@ -20856,23 +20938,27 @@
         <v>117913.09999999999</v>
       </c>
       <c r="S41" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>398520.21189999953</v>
       </c>
       <c r="T41" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>2663.0999999999913</v>
       </c>
       <c r="U41" s="37">
         <f>VLOOKUP(C41,Data!$B:$P,14,FALSE)</f>
         <v>6.0777428000000002</v>
       </c>
-      <c r="V41" s="58" t="str">
-        <f>VLOOKUP(C41,Data!$B:$P,15,FALSE)</f>
+      <c r="V41" s="36">
+        <f>VLOOKUP(C41,Data!$B:$P,5,FALSE)/VLOOKUP(C41,Data!$B:$P,2,FALSE)*(  VLOOKUP(C41,Data!$B:$P,2,FALSE) + VLOOKUP(C41,Data!$B:$P,12,FALSE))</f>
+        <v>120100.59999999999</v>
+      </c>
+      <c r="W41" s="58" t="str">
+        <f>IF(VLOOKUP(C41,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C41,Data!$B:$P,15,FALSE))</f>
         <v>23/11/2017</v>
       </c>
     </row>
-    <row r="42" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="39" t="str">
         <f>IF(LEFT(C42,2) = "RU", VLOOKUP(C42,MICEX!$A:$D,4,FALSE),VLOOKUP(C42,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>EFGBNK 0 01/04/19</v>
@@ -20881,7 +20967,7 @@
         <v>5690</v>
       </c>
       <c r="D42" s="7">
-        <f t="shared" si="19"/>
+        <f>R42/$R$54</f>
         <v>2.8669258741408316E-2</v>
       </c>
       <c r="E42" s="36">
@@ -20889,7 +20975,7 @@
         <v>100000</v>
       </c>
       <c r="F42" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2400000</v>
       </c>
       <c r="G42" s="57">
@@ -20914,11 +21000,11 @@
         <v>USD</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-8.5957461497787602E-3</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-6.2999999999998613E-3</v>
       </c>
       <c r="O42" s="36">
@@ -20938,23 +21024,27 @@
         <v>99370.000000000015</v>
       </c>
       <c r="S42" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-51046.86999999918</v>
       </c>
       <c r="T42" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-629.99999999998545</v>
       </c>
       <c r="U42" s="37">
         <f>VLOOKUP(C42,Data!$B:$P,14,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V42" s="58" t="str">
-        <f>VLOOKUP(C42,Data!$B:$P,15,FALSE)</f>
+      <c r="V42" s="36">
+        <f>VLOOKUP(C42,Data!$B:$P,5,FALSE)/VLOOKUP(C42,Data!$B:$P,2,FALSE)*(  VLOOKUP(C42,Data!$B:$P,2,FALSE) + VLOOKUP(C42,Data!$B:$P,12,FALSE))</f>
+        <v>99370.000000000015</v>
+      </c>
+      <c r="W42" s="58" t="str">
+        <f>IF(VLOOKUP(C42,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C42,Data!$B:$P,15,FALSE))</f>
         <v>03/10/2017</v>
       </c>
     </row>
-    <row r="43" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="39" t="str">
         <f>IF(LEFT(C43,2) = "RU", VLOOKUP(C43,MICEX!$A:$D,4,FALSE),VLOOKUP(C43,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>EFGBNK 0 01/10/22</v>
@@ -20963,7 +21053,7 @@
         <v>5029</v>
       </c>
       <c r="D43" s="7">
-        <f t="shared" si="19"/>
+        <f>R43/$R$54</f>
         <v>2.8077812827954678E-2</v>
       </c>
       <c r="E43" s="36">
@@ -20971,7 +21061,7 @@
         <v>100000</v>
       </c>
       <c r="F43" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2400000</v>
       </c>
       <c r="G43" s="57">
@@ -20996,11 +21086,11 @@
         <v>USD</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>-1.1585669472204851E-2</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>-2.6800000000000157E-2</v>
       </c>
       <c r="O43" s="36">
@@ -21020,23 +21110,27 @@
         <v>97319.999999999985</v>
       </c>
       <c r="S43" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>-67587.320000001229</v>
       </c>
       <c r="T43" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>-2680.0000000000146</v>
       </c>
       <c r="U43" s="37">
         <f>VLOOKUP(C43,Data!$B:$P,14,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V43" s="58">
-        <f>VLOOKUP(C43,Data!$B:$P,15,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V43" s="36">
+        <f>VLOOKUP(C43,Data!$B:$P,5,FALSE)/VLOOKUP(C43,Data!$B:$P,2,FALSE)*(  VLOOKUP(C43,Data!$B:$P,2,FALSE) + VLOOKUP(C43,Data!$B:$P,12,FALSE))</f>
+        <v>97319.999999999985</v>
+      </c>
+      <c r="W43" s="58" t="str">
+        <f>IF(VLOOKUP(C43,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C43,Data!$B:$P,15,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="39" t="str">
         <f>IF(LEFT(C44,2) = "RU", VLOOKUP(C44,MICEX!$A:$D,4,FALSE),VLOOKUP(C44,BloombergSecs!$A:$C,3,FALSE))</f>
         <v>KNFP 0 04/15/19</v>
@@ -21045,7 +21139,7 @@
         <v>5046</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" si="19"/>
+        <f>R44/$R$54</f>
         <v>1.4193836392282024E-2</v>
       </c>
       <c r="E44" s="36">
@@ -21053,7 +21147,7 @@
         <v>50000</v>
       </c>
       <c r="F44" s="36">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>2452500</v>
       </c>
       <c r="G44" s="57">
@@ -21078,11 +21172,11 @@
         <v>USD</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>8.1557757003832165E-2</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="20"/>
         <v>3.5726315789473606E-2</v>
       </c>
       <c r="O44" s="36">
@@ -21102,139 +21196,147 @@
         <v>49197</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="21"/>
         <v>219803.80300000031</v>
       </c>
       <c r="T44" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1697</v>
       </c>
       <c r="U44" s="37">
         <f>VLOOKUP(C44,Data!$B:$P,14,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V44" s="58" t="str">
-        <f>VLOOKUP(C44,Data!$B:$P,15,FALSE)</f>
+      <c r="V44" s="36">
+        <f>VLOOKUP(C44,Data!$B:$P,5,FALSE)/VLOOKUP(C44,Data!$B:$P,2,FALSE)*(  VLOOKUP(C44,Data!$B:$P,2,FALSE) + VLOOKUP(C44,Data!$B:$P,12,FALSE))</f>
+        <v>49197</v>
+      </c>
+      <c r="W44" s="58" t="str">
+        <f>IF(VLOOKUP(C44,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C44,Data!$B:$P,15,FALSE))</f>
         <v>14/07/2017</v>
       </c>
     </row>
-    <row r="45" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="39" t="str">
         <f>IF(LEFT(C45,2) = "RU", VLOOKUP(C45,MICEX!$A:$D,4,FALSE),VLOOKUP(C45,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>MTNSJ 4.755 11/11/24</v>
+        <v>PETBRA 4 3/4 01/14/25</v>
       </c>
       <c r="C45" s="39" t="s">
-        <v>5892</v>
+        <v>5667</v>
       </c>
       <c r="D45" s="7">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f>R45/$R$54</f>
+        <v>3.5542222752892073E-2</v>
       </c>
       <c r="E45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,4,FALSE)</f>
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F45" s="36">
-        <f t="shared" si="20"/>
-        <v>2304000</v>
+        <f t="shared" si="18"/>
+        <v>2384675.7949531325</v>
       </c>
       <c r="G45" s="57">
         <f>VLOOKUP(C45,Data!$B:$P,3,FALSE)</f>
-        <v>98</v>
+        <v>103.3</v>
       </c>
       <c r="H45" s="56">
         <f>VLOOKUP(C45,Data!$B:$P,2,FALSE)</f>
-        <v>0</v>
+        <v>104.791</v>
       </c>
       <c r="I45" s="9">
         <f>VLOOKUP(C45,Data!$B:$P,13,FALSE)</f>
-        <v>0</v>
+        <v>6.2697714097476167</v>
       </c>
       <c r="J45" s="7">
         <f>VLOOKUP(C45,Data!$B:$P,14,FALSE)/100</f>
-        <v>0</v>
+        <v>3.9859712999999998E-2</v>
       </c>
       <c r="K45" s="9"/>
       <c r="L45" s="11" t="str">
         <f>VLOOKUP(C45,Data!$B:$P,10,FALSE)</f>
-        <v>USD</v>
+        <v>EUR</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="21"/>
-        <v>-1</v>
+        <f t="shared" si="19"/>
+        <v>5.225580434093291E-2</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="22"/>
-        <v>-1</v>
+        <f t="shared" si="20"/>
+        <v>6.8225498669332918E-2</v>
       </c>
       <c r="O45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,8,FALSE)</f>
-        <v>11771858</v>
+        <v>6936543.3499999996</v>
       </c>
       <c r="P45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,7,FALSE)</f>
-        <v>196000</v>
+        <v>115324.20504686756</v>
       </c>
       <c r="Q45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,6,FALSE)</f>
-        <v>0</v>
+        <v>7299018.0020999992</v>
       </c>
       <c r="R45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,5,FALSE)</f>
-        <v>0</v>
+        <v>123192.25644483449</v>
       </c>
       <c r="S45" s="36">
-        <f t="shared" si="23"/>
-        <v>-11771858</v>
+        <f t="shared" si="21"/>
+        <v>362474.6520999996</v>
       </c>
       <c r="T45" s="36">
-        <f t="shared" si="24"/>
-        <v>-196000</v>
+        <f t="shared" si="22"/>
+        <v>7868.051397966934</v>
       </c>
       <c r="U45" s="37">
         <f>VLOOKUP(C45,Data!$B:$P,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V45" s="58" t="str">
-        <f>VLOOKUP(C45,Data!$B:$P,15,FALSE)</f>
-        <v>18/08/2017</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>3.9859713000000001</v>
+      </c>
+      <c r="V45" s="36">
+        <f>VLOOKUP(C45,Data!$B:$P,5,FALSE)/VLOOKUP(C45,Data!$B:$P,2,FALSE)*(  VLOOKUP(C45,Data!$B:$P,2,FALSE) + VLOOKUP(C45,Data!$B:$P,12,FALSE))</f>
+        <v>126558.01416989407</v>
+      </c>
+      <c r="W45" s="58" t="str">
+        <f>IF(VLOOKUP(C45,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C45,Data!$B:$P,15,FALSE))</f>
+        <v>14/01/2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="39" t="str">
         <f>IF(LEFT(C46,2) = "RU", VLOOKUP(C46,MICEX!$A:$D,4,FALSE),VLOOKUP(C46,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>PETBRA 4 3/4 01/14/25</v>
+        <v>EFGBNK 0 06/06/19</v>
       </c>
       <c r="C46" s="39" t="s">
-        <v>5667</v>
+        <v>5621</v>
       </c>
       <c r="D46" s="7">
-        <f t="shared" si="19"/>
-        <v>3.5542222752892073E-2</v>
+        <f>R46/$R$54</f>
+        <v>3.3917247428588412E-2</v>
       </c>
       <c r="E46" s="36">
         <f>VLOOKUP(C46,Data!$B:$P,4,FALSE)</f>
         <v>100000</v>
       </c>
       <c r="F46" s="36">
-        <f t="shared" si="20"/>
-        <v>2384675.7949531325</v>
+        <f t="shared" si="18"/>
+        <v>2389429.9838991207</v>
       </c>
       <c r="G46" s="57">
         <f>VLOOKUP(C46,Data!$B:$P,3,FALSE)</f>
-        <v>103.3</v>
+        <v>99</v>
       </c>
       <c r="H46" s="56">
         <f>VLOOKUP(C46,Data!$B:$P,2,FALSE)</f>
-        <v>104.791</v>
+        <v>100</v>
       </c>
       <c r="I46" s="9">
         <f>VLOOKUP(C46,Data!$B:$P,13,FALSE)</f>
-        <v>6.2697714097476167</v>
+        <v>0</v>
       </c>
       <c r="J46" s="7">
         <f>VLOOKUP(C46,Data!$B:$P,14,FALSE)/100</f>
-        <v>3.9859712999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="K46" s="9"/>
       <c r="L46" s="11" t="str">
@@ -21242,56 +21344,60 @@
         <v>EUR</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="21"/>
-        <v>5.225580434093291E-2</v>
+        <f t="shared" si="19"/>
+        <v>9.0814973064255122E-2</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="22"/>
-        <v>6.8225498669332918E-2</v>
+        <f t="shared" si="20"/>
+        <v>6.3217343756321265E-2</v>
       </c>
       <c r="O46" s="36">
         <f>VLOOKUP(C46,Data!$B:$P,8,FALSE)</f>
-        <v>6936543.3499999996</v>
+        <v>6385418.4000000004</v>
       </c>
       <c r="P46" s="36">
         <f>VLOOKUP(C46,Data!$B:$P,7,FALSE)</f>
-        <v>115324.20504686756</v>
+        <v>110570.01610087909</v>
       </c>
       <c r="Q46" s="36">
         <f>VLOOKUP(C46,Data!$B:$P,6,FALSE)</f>
-        <v>7299018.0020999992</v>
+        <v>6965310</v>
       </c>
       <c r="R46" s="36">
         <f>VLOOKUP(C46,Data!$B:$P,5,FALSE)</f>
-        <v>123192.25644483449</v>
+        <v>117559.95881787034</v>
       </c>
       <c r="S46" s="36">
-        <f t="shared" si="23"/>
-        <v>362474.6520999996</v>
+        <f t="shared" si="21"/>
+        <v>579891.59999999963</v>
       </c>
       <c r="T46" s="36">
-        <f t="shared" si="24"/>
-        <v>7868.051397966934</v>
+        <f t="shared" si="22"/>
+        <v>6989.9427169912524</v>
       </c>
       <c r="U46" s="37">
         <f>VLOOKUP(C46,Data!$B:$P,14,FALSE)</f>
-        <v>3.9859713000000001</v>
-      </c>
-      <c r="V46" s="58" t="str">
-        <f>VLOOKUP(C46,Data!$B:$P,15,FALSE)</f>
-        <v>14/01/2018</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="V46" s="36">
+        <f>VLOOKUP(C46,Data!$B:$P,5,FALSE)/VLOOKUP(C46,Data!$B:$P,2,FALSE)*(  VLOOKUP(C46,Data!$B:$P,2,FALSE) + VLOOKUP(C46,Data!$B:$P,12,FALSE))</f>
+        <v>117559.95881787034</v>
+      </c>
+      <c r="W46" s="58" t="str">
+        <f>IF(VLOOKUP(C46,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C46,Data!$B:$P,15,FALSE))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="39" t="str">
         <f>IF(LEFT(C47,2) = "RU", VLOOKUP(C47,MICEX!$A:$D,4,FALSE),VLOOKUP(C47,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>EFGBNK 0 06/06/19</v>
+        <v>KNFP 0 05/27/19</v>
       </c>
       <c r="C47" s="39" t="s">
-        <v>5621</v>
+        <v>5415</v>
       </c>
       <c r="D47" s="7">
-        <f t="shared" si="19"/>
+        <f>R47/$R$54</f>
         <v>3.3917247428588412E-2</v>
       </c>
       <c r="E47" s="36">
@@ -21299,12 +21405,12 @@
         <v>100000</v>
       </c>
       <c r="F47" s="36">
-        <f t="shared" si="20"/>
-        <v>2389429.9838991207</v>
+        <f t="shared" si="18"/>
+        <v>2391139.9885039567</v>
       </c>
       <c r="G47" s="57">
         <f>VLOOKUP(C47,Data!$B:$P,3,FALSE)</f>
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H47" s="56">
         <f>VLOOKUP(C47,Data!$B:$P,2,FALSE)</f>
@@ -21324,20 +21430,20 @@
         <v>EUR</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="21"/>
-        <v>9.0814973064255122E-2</v>
+        <f t="shared" si="19"/>
+        <v>0.14573833915635293</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="22"/>
-        <v>6.3217343756321265E-2</v>
+        <f t="shared" si="20"/>
+        <v>7.9918669879462723E-2</v>
       </c>
       <c r="O47" s="36">
         <f>VLOOKUP(C47,Data!$B:$P,8,FALSE)</f>
-        <v>6385418.4000000004</v>
+        <v>6079320</v>
       </c>
       <c r="P47" s="36">
         <f>VLOOKUP(C47,Data!$B:$P,7,FALSE)</f>
-        <v>110570.01610087909</v>
+        <v>108860.01149604352</v>
       </c>
       <c r="Q47" s="36">
         <f>VLOOKUP(C47,Data!$B:$P,6,FALSE)</f>
@@ -21348,187 +21454,136 @@
         <v>117559.95881787034</v>
       </c>
       <c r="S47" s="36">
-        <f t="shared" si="23"/>
-        <v>579891.59999999963</v>
+        <f t="shared" si="21"/>
+        <v>885990</v>
       </c>
       <c r="T47" s="36">
-        <f t="shared" si="24"/>
-        <v>6989.9427169912524</v>
+        <f t="shared" si="22"/>
+        <v>8699.9473218268249</v>
       </c>
       <c r="U47" s="37">
         <f>VLOOKUP(C47,Data!$B:$P,14,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="V47" s="58">
-        <f>VLOOKUP(C47,Data!$B:$P,15,FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V47" s="36">
+        <f>VLOOKUP(C47,Data!$B:$P,5,FALSE)/VLOOKUP(C47,Data!$B:$P,2,FALSE)*(  VLOOKUP(C47,Data!$B:$P,2,FALSE) + VLOOKUP(C47,Data!$B:$P,12,FALSE))</f>
+        <v>117559.95881787034</v>
+      </c>
+      <c r="W47" s="58" t="str">
+        <f>IF(VLOOKUP(C47,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C47,Data!$B:$P,15,FALSE))</f>
+        <v>28/08/2017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="39" t="str">
         <f>IF(LEFT(C48,2) = "RU", VLOOKUP(C48,MICEX!$A:$D,4,FALSE),VLOOKUP(C48,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>KNFP 0 05/27/19</v>
+        <v>RURAIL 2.73 02/26/21</v>
       </c>
       <c r="C48" s="39" t="s">
-        <v>5415</v>
+        <v>5025</v>
       </c>
       <c r="D48" s="7">
-        <f t="shared" si="19"/>
-        <v>3.3917247428588412E-2</v>
+        <f>R48/$R$54</f>
+        <v>6.2005008889224764E-2</v>
       </c>
       <c r="E48" s="36">
         <f>VLOOKUP(C48,Data!$B:$P,4,FALSE)</f>
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F48" s="36">
-        <f t="shared" si="20"/>
-        <v>2391139.9885039567</v>
+        <f t="shared" si="18"/>
+        <v>2297468.4495017841</v>
       </c>
       <c r="G48" s="57">
         <f>VLOOKUP(C48,Data!$B:$P,3,FALSE)</f>
-        <v>100</v>
+        <v>102.4</v>
       </c>
       <c r="H48" s="56">
         <f>VLOOKUP(C48,Data!$B:$P,2,FALSE)</f>
-        <v>100</v>
+        <v>103.75</v>
       </c>
       <c r="I48" s="9">
         <f>VLOOKUP(C48,Data!$B:$P,13,FALSE)</f>
-        <v>0</v>
+        <v>3.3585050738268984</v>
       </c>
       <c r="J48" s="7">
         <f>VLOOKUP(C48,Data!$B:$P,14,FALSE)/100</f>
-        <v>0</v>
+        <v>1.5132959000000001E-2</v>
       </c>
       <c r="K48" s="9"/>
       <c r="L48" s="11" t="str">
         <f>VLOOKUP(C48,Data!$B:$P,10,FALSE)</f>
-        <v>EUR</v>
+        <v>CHF</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="21"/>
-        <v>0.14573833915635293</v>
+        <f t="shared" si="19"/>
+        <v>-3.4265814672266526E-2</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="22"/>
-        <v>7.9918669879462723E-2</v>
+        <f t="shared" si="20"/>
+        <v>6.1140553485488303E-2</v>
       </c>
       <c r="O48" s="36">
         <f>VLOOKUP(C48,Data!$B:$P,8,FALSE)</f>
-        <v>6079320</v>
+        <v>13185269.760000002</v>
       </c>
       <c r="P48" s="36">
         <f>VLOOKUP(C48,Data!$B:$P,7,FALSE)</f>
-        <v>108860.01149604352</v>
+        <v>202531.55049821592</v>
       </c>
       <c r="Q48" s="36">
         <f>VLOOKUP(C48,Data!$B:$P,6,FALSE)</f>
-        <v>6965310</v>
+        <v>12733465.750000002</v>
       </c>
       <c r="R48" s="36">
         <f>VLOOKUP(C48,Data!$B:$P,5,FALSE)</f>
-        <v>117559.95881787034</v>
+        <v>214914.44159395096</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="23"/>
-        <v>885990</v>
+        <f t="shared" si="21"/>
+        <v>-451804.00999999978</v>
       </c>
       <c r="T48" s="36">
-        <f t="shared" si="24"/>
-        <v>8699.9473218268249</v>
+        <f t="shared" si="22"/>
+        <v>12382.891095735045</v>
       </c>
       <c r="U48" s="37">
         <f>VLOOKUP(C48,Data!$B:$P,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V48" s="58" t="str">
-        <f>VLOOKUP(C48,Data!$B:$P,15,FALSE)</f>
-        <v>28/08/2017</v>
-      </c>
-    </row>
-    <row r="49" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B49" s="39" t="str">
-        <f>IF(LEFT(C49,2) = "RU", VLOOKUP(C49,MICEX!$A:$D,4,FALSE),VLOOKUP(C49,BloombergSecs!$A:$C,3,FALSE))</f>
-        <v>RURAIL 2.73 02/26/21</v>
-      </c>
-      <c r="C49" s="39" t="s">
-        <v>5025</v>
-      </c>
-      <c r="D49" s="7">
-        <f t="shared" si="19"/>
-        <v>6.2005008889224764E-2</v>
-      </c>
-      <c r="E49" s="36">
-        <f>VLOOKUP(C49,Data!$B:$P,4,FALSE)</f>
-        <v>200000</v>
-      </c>
-      <c r="F49" s="36">
-        <f t="shared" si="20"/>
-        <v>2297468.4495017841</v>
-      </c>
-      <c r="G49" s="57">
-        <f>VLOOKUP(C49,Data!$B:$P,3,FALSE)</f>
-        <v>102.4</v>
-      </c>
-      <c r="H49" s="56">
-        <f>VLOOKUP(C49,Data!$B:$P,2,FALSE)</f>
-        <v>103.75</v>
-      </c>
-      <c r="I49" s="9">
-        <f>VLOOKUP(C49,Data!$B:$P,13,FALSE)</f>
-        <v>3.3585050738268984</v>
-      </c>
-      <c r="J49" s="7">
-        <f>VLOOKUP(C49,Data!$B:$P,14,FALSE)/100</f>
-        <v>1.5132959000000001E-2</v>
-      </c>
+        <v>1.5132959000000001</v>
+      </c>
+      <c r="V48" s="36">
+        <f>VLOOKUP(C48,Data!$B:$P,5,FALSE)/VLOOKUP(C48,Data!$B:$P,2,FALSE)*(  VLOOKUP(C48,Data!$B:$P,2,FALSE) + VLOOKUP(C48,Data!$B:$P,12,FALSE))</f>
+        <v>217679.15620966881</v>
+      </c>
+      <c r="W48" s="58" t="str">
+        <f>IF(VLOOKUP(C48,Data!$B:$P,15,FALSE)=0,"",VLOOKUP(C48,Data!$B:$P,15,FALSE))</f>
+        <v>26/02/2018</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="7"/>
       <c r="K49" s="9"/>
-      <c r="L49" s="11" t="str">
-        <f>VLOOKUP(C49,Data!$B:$P,10,FALSE)</f>
-        <v>CHF</v>
-      </c>
-      <c r="M49" s="7">
-        <f t="shared" si="21"/>
-        <v>-3.4265814672266526E-2</v>
-      </c>
-      <c r="N49" s="7">
-        <f t="shared" si="22"/>
-        <v>6.1140553485488303E-2</v>
-      </c>
-      <c r="O49" s="36">
-        <f>VLOOKUP(C49,Data!$B:$P,8,FALSE)</f>
-        <v>13185269.760000002</v>
-      </c>
-      <c r="P49" s="36">
-        <f>VLOOKUP(C49,Data!$B:$P,7,FALSE)</f>
-        <v>202531.55049821592</v>
-      </c>
-      <c r="Q49" s="36">
-        <f>VLOOKUP(C49,Data!$B:$P,6,FALSE)</f>
-        <v>12733465.750000002</v>
-      </c>
-      <c r="R49" s="36">
-        <f>VLOOKUP(C49,Data!$B:$P,5,FALSE)</f>
-        <v>214914.44159395096</v>
-      </c>
-      <c r="S49" s="36">
-        <f t="shared" si="23"/>
-        <v>-451804.00999999978</v>
-      </c>
-      <c r="T49" s="36">
-        <f t="shared" si="24"/>
-        <v>12382.891095735045</v>
-      </c>
-      <c r="U49" s="37">
-        <f>VLOOKUP(C49,Data!$B:$P,14,FALSE)</f>
-        <v>1.5132959000000001</v>
-      </c>
-      <c r="V49" s="58" t="str">
-        <f>VLOOKUP(C49,Data!$B:$P,15,FALSE)</f>
-        <v>26/02/2018</v>
-      </c>
-    </row>
-    <row r="50" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="L49" s="11"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="36"/>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="36"/>
+      <c r="U49" s="37"/>
+      <c r="V49" s="36"/>
+    </row>
+    <row r="50" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="39"/>
       <c r="C50" s="39"/>
       <c r="D50" s="7"/>
@@ -21549,8 +21604,9 @@
       <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="37"/>
-    </row>
-    <row r="51" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="V50" s="36"/>
+    </row>
+    <row r="51" spans="2:24" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="39"/>
       <c r="C51" s="39"/>
       <c r="D51" s="7"/>
@@ -21571,182 +21627,171 @@
       <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="37"/>
-    </row>
-    <row r="52" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="36"/>
+      <c r="V51" s="36"/>
+    </row>
+    <row r="52" spans="2:24" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="54">
+        <f>SUM(D34:D51)</f>
+        <v>0.84373963455769574</v>
+      </c>
+      <c r="E52" s="54"/>
       <c r="F52" s="36"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="56"/>
+      <c r="G52"/>
+      <c r="H52" s="8"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="7"/>
+      <c r="J52" s="10">
+        <f>SUMPRODUCT(J34:J51,D34:D51)</f>
+        <v>4.1479783793291633E-2</v>
+      </c>
       <c r="K52" s="9"/>
       <c r="L52" s="11"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="36"/>
-      <c r="Q52" s="36"/>
-      <c r="R52" s="36"/>
-      <c r="S52" s="36"/>
-      <c r="T52" s="36"/>
-      <c r="U52" s="37"/>
-    </row>
-    <row r="53" spans="2:23" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="54">
-        <f>SUM(D34:D52)</f>
-        <v>0.84373963455769574</v>
-      </c>
-      <c r="E53" s="54"/>
-      <c r="F53" s="36"/>
-      <c r="G53"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="7">
+      <c r="M52" s="7">
         <f>SUMPRODUCT($D$34:$D$38,M34:M38)</f>
         <v>9.1581200257227317E-3</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N52" s="7">
         <f>SUMPRODUCT($D$34:$D$38,N34:N38)</f>
         <v>1.9049046563616901E-3</v>
       </c>
-      <c r="O53" s="36"/>
-      <c r="P53" s="41">
-        <f>SUM(P34:P52)</f>
-        <v>3092493.283142006</v>
-      </c>
-      <c r="Q53" s="41">
-        <f>SUM(Q34:Q52)</f>
+      <c r="O52" s="36"/>
+      <c r="P52" s="41">
+        <f>SUM(P34:P51)</f>
+        <v>2896493.283142006</v>
+      </c>
+      <c r="Q52" s="41">
+        <f>SUM(Q34:Q51)</f>
         <v>173271965.13675499</v>
       </c>
-      <c r="R53" s="41">
-        <f>SUM(R34:R52)</f>
+      <c r="R52" s="41">
+        <f>SUM(R34:R51)</f>
         <v>2924470.7106745262</v>
       </c>
-      <c r="S53" s="41">
-        <f>SUM(S34:S52)</f>
-        <v>-9096774.5217449851</v>
-      </c>
-      <c r="T53" s="41">
-        <f>SUM(T34:T52)</f>
-        <v>-168022.57246747988</v>
-      </c>
-      <c r="U53" s="37"/>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B54" s="13" t="s">
+      <c r="S52" s="41">
+        <f>SUM(S34:S51)</f>
+        <v>2675083.4782550139</v>
+      </c>
+      <c r="T52" s="41">
+        <f>SUM(T34:T51)</f>
+        <v>27977.42753252016</v>
+      </c>
+      <c r="U52" s="37"/>
+      <c r="V52" s="41">
+        <f>SUM(V34:V51)</f>
+        <v>2963701.0246819705</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14">
-        <f>R54/R55</f>
+      <c r="C53" s="13"/>
+      <c r="D53" s="14">
+        <f>R53/R54</f>
         <v>5.7702040336939341E-2</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="15"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="15">
-        <f>R54*Data!G2/Data!F2</f>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="15"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="15">
+        <f>R53*Data!G2/Data!F2</f>
         <v>11849800</v>
       </c>
-      <c r="R54" s="20">
+      <c r="R53" s="20">
         <v>200000</v>
       </c>
-      <c r="S54" s="21"/>
-      <c r="T54" s="22"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-    </row>
-    <row r="55" spans="2:23" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="25">
-        <f>D32+D53+D54</f>
+      <c r="S53" s="21"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="18"/>
+      <c r="V53" s="20"/>
+      <c r="W53" s="18"/>
+      <c r="X53" s="18"/>
+    </row>
+    <row r="54" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25">
+        <f>D32+D52+D53</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="E55" s="25"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="28">
-        <f>M32+M53</f>
+      <c r="E54" s="25"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="28">
+        <f>M32+M52</f>
         <v>1.3594896707922306E-2</v>
       </c>
-      <c r="N55" s="28">
-        <f>N32+N53</f>
+      <c r="N54" s="28">
+        <f>N32+N52</f>
         <v>4.832220051527559E-3</v>
       </c>
-      <c r="O55" s="29">
-        <f>SUM(O9:O54)</f>
-        <v>201797510.91709772</v>
-      </c>
-      <c r="P55" s="29">
-        <f>P32+P53+P54</f>
-        <v>3424527.8111248976</v>
-      </c>
-      <c r="Q55" s="29">
-        <f>Q32+Q53+Q54</f>
+      <c r="O54" s="29">
+        <f>SUM(O9:O53)</f>
+        <v>190025652.91709772</v>
+      </c>
+      <c r="P54" s="29">
+        <f>P32+P52+P53</f>
+        <v>3228527.8111248976</v>
+      </c>
+      <c r="Q54" s="29">
+        <f>Q32+Q52+Q53</f>
         <v>205361888.95237499</v>
       </c>
-      <c r="R55" s="29">
-        <f>R32+R53+R54</f>
+      <c r="R54" s="29">
+        <f>R32+R52+R53</f>
         <v>3466081.9415074517</v>
       </c>
-      <c r="S55" s="29">
-        <f>S32+S53+S54</f>
-        <v>-8285421.9647227004</v>
-      </c>
-      <c r="T55" s="29">
-        <f>T32+T53+T54</f>
-        <v>-158445.86961744598</v>
-      </c>
-      <c r="U55" s="28">
-        <f>SUMPRODUCT($D$9:$D$52,U9:U52)/100</f>
+      <c r="S54" s="29">
+        <f>S32+S52+S53</f>
+        <v>3486436.0352772991</v>
+      </c>
+      <c r="T54" s="29">
+        <f>T32+T52+T53</f>
+        <v>37554.130382554082</v>
+      </c>
+      <c r="U54" s="28">
+        <f>SUMPRODUCT($D$9:$D$51,U9:U51)/100</f>
         <v>4.8835612379798075E-2</v>
       </c>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-    </row>
-    <row r="56" spans="2:23" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="30"/>
-      <c r="C56" s="30"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="P56" s="32"/>
-      <c r="Q56" s="33"/>
-      <c r="R56" s="34"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="28"/>
+      <c r="X54" s="28"/>
+    </row>
+    <row r="55" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J31:J32 J53">
+  <conditionalFormatting sqref="J31:J32 J52">
     <cfRule type="dataBar" priority="236">
       <dataBar>
         <cfvo type="min"/>
@@ -21760,7 +21805,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U31:U33 U53">
+  <conditionalFormatting sqref="U31:U33 U52">
     <cfRule type="dataBar" priority="237">
       <dataBar>
         <cfvo type="min"/>
@@ -21774,7 +21819,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53 M31:N33">
+  <conditionalFormatting sqref="M52:N52 M31:N33">
     <cfRule type="dataBar" priority="238">
       <dataBar>
         <cfvo type="min"/>
@@ -21788,7 +21833,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N53 M31:N33">
+  <conditionalFormatting sqref="M52:N52 M31:N33">
     <cfRule type="dataBar" priority="239">
       <dataBar>
         <cfvo type="min"/>
@@ -21802,7 +21847,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53:J55 J31:J32">
+  <conditionalFormatting sqref="J52:J54 J31:J32">
     <cfRule type="dataBar" priority="240">
       <dataBar>
         <cfvo type="min"/>
@@ -21816,7 +21861,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:M55 M31:M33">
+  <conditionalFormatting sqref="M52:M54 M31:M33">
     <cfRule type="dataBar" priority="242">
       <dataBar>
         <cfvo type="min"/>
@@ -21830,7 +21875,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N55 N31:N33">
+  <conditionalFormatting sqref="N52:N54 N31:N33">
     <cfRule type="dataBar" priority="244">
       <dataBar>
         <cfvo type="min"/>
@@ -21844,7 +21889,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U53:U54 U31:U33">
+  <conditionalFormatting sqref="U52:U53 U31:U33">
     <cfRule type="dataBar" priority="246">
       <dataBar>
         <cfvo type="min"/>
@@ -21858,7 +21903,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M53:N55 M7:N7 M31:N33">
+  <conditionalFormatting sqref="M52:N54 M7:N7 M31:N33">
     <cfRule type="dataBar" priority="248">
       <dataBar>
         <cfvo type="min"/>
@@ -21872,7 +21917,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
+  <conditionalFormatting sqref="N54">
     <cfRule type="dataBar" priority="205">
       <dataBar>
         <cfvo type="min"/>
@@ -21886,7 +21931,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
+  <conditionalFormatting sqref="U54">
     <cfRule type="dataBar" priority="203">
       <dataBar>
         <cfvo type="min"/>
@@ -21900,7 +21945,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
+  <conditionalFormatting sqref="U54">
     <cfRule type="dataBar" priority="204">
       <dataBar>
         <cfvo type="min"/>
@@ -21914,7 +21959,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U55">
+  <conditionalFormatting sqref="U54">
     <cfRule type="dataBar" priority="202">
       <dataBar>
         <cfvo type="min"/>
@@ -22684,7 +22729,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51:U52">
+  <conditionalFormatting sqref="U50:U51">
     <cfRule type="dataBar" priority="68">
       <dataBar>
         <cfvo type="min"/>
@@ -22698,7 +22743,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:N52">
+  <conditionalFormatting sqref="M50:N51">
     <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="min"/>
@@ -22712,7 +22757,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:N52">
+  <conditionalFormatting sqref="M50:N51">
     <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="min"/>
@@ -22726,7 +22771,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:M52">
+  <conditionalFormatting sqref="M50:M51">
     <cfRule type="dataBar" priority="71">
       <dataBar>
         <cfvo type="min"/>
@@ -22740,7 +22785,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N51:N52">
+  <conditionalFormatting sqref="N50:N51">
     <cfRule type="dataBar" priority="72">
       <dataBar>
         <cfvo type="min"/>
@@ -22754,7 +22799,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U51:U52">
+  <conditionalFormatting sqref="U50:U51">
     <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="min"/>
@@ -22768,7 +22813,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51:N52">
+  <conditionalFormatting sqref="M50:N51">
     <cfRule type="dataBar" priority="74">
       <dataBar>
         <cfvo type="min"/>
@@ -22908,7 +22953,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50">
+  <conditionalFormatting sqref="U49">
     <cfRule type="dataBar" priority="50">
       <dataBar>
         <cfvo type="min"/>
@@ -22922,7 +22967,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="M49:N49">
     <cfRule type="dataBar" priority="51">
       <dataBar>
         <cfvo type="min"/>
@@ -22936,7 +22981,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="M49:N49">
     <cfRule type="dataBar" priority="52">
       <dataBar>
         <cfvo type="min"/>
@@ -22950,7 +22995,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50">
+  <conditionalFormatting sqref="M49">
     <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="min"/>
@@ -22964,7 +23009,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N49">
     <cfRule type="dataBar" priority="54">
       <dataBar>
         <cfvo type="min"/>
@@ -22978,7 +23023,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U50">
+  <conditionalFormatting sqref="U49">
     <cfRule type="dataBar" priority="55">
       <dataBar>
         <cfvo type="min"/>
@@ -22992,7 +23037,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M50:N50">
+  <conditionalFormatting sqref="M49:N49">
     <cfRule type="dataBar" priority="56">
       <dataBar>
         <cfvo type="min"/>
@@ -23006,7 +23051,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V54:W54">
+  <conditionalFormatting sqref="W53:X53">
     <cfRule type="dataBar" priority="26">
       <dataBar>
         <cfvo type="min"/>
@@ -23020,7 +23065,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V55:W55">
+  <conditionalFormatting sqref="W54:X54">
     <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="min"/>
@@ -23034,7 +23079,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V55:W55">
+  <conditionalFormatting sqref="W54:X54">
     <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
@@ -23048,7 +23093,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V55:W55">
+  <conditionalFormatting sqref="W54:X54">
     <cfRule type="dataBar" priority="23">
       <dataBar>
         <cfvo type="min"/>
@@ -23058,146 +23103,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{9C570BE1-6AD3-40F9-8AC6-4DB1FE7FFE10}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:U49">
-    <cfRule type="dataBar" priority="21">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{37A03172-CD55-44EE-8BDF-F29243F56F04}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U34:U49">
-    <cfRule type="dataBar" priority="22">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{53DBEDB3-F0E6-46BA-93A9-F151D989D845}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M49">
-    <cfRule type="dataBar" priority="17">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M49">
-    <cfRule type="dataBar" priority="18">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2EC7118B-9095-490E-8037-AC03406BFEA6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M49">
-    <cfRule type="dataBar" priority="19">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5897E286-3993-40D0-AF00-964107CCC553}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M34:M49">
-    <cfRule type="dataBar" priority="20">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5BDD0AA4-6DE9-4ADD-BEB7-675899B052FD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N49">
-    <cfRule type="dataBar" priority="13">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF008AEF"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N49">
-    <cfRule type="dataBar" priority="14">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N49">
-    <cfRule type="dataBar" priority="15">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97590315-91AF-4DC4-A5C5-489B8F434FA1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N34:N49">
-    <cfRule type="dataBar" priority="16">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B4C6371D-DF78-4395-95BB-08F7695351B7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -23356,6 +23261,90 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="U34:U48">
+    <cfRule type="dataBar" priority="261">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{37A03172-CD55-44EE-8BDF-F29243F56F04}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U34:U48">
+    <cfRule type="dataBar" priority="263">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{53DBEDB3-F0E6-46BA-93A9-F151D989D845}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M48">
+    <cfRule type="dataBar" priority="265">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M34:M48">
+    <cfRule type="dataBar" priority="267">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EC7118B-9095-490E-8037-AC03406BFEA6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N48">
+    <cfRule type="dataBar" priority="273">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34:N48">
+    <cfRule type="dataBar" priority="275">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="10" orientation="landscape" r:id="rId1"/>
   <extLst>
@@ -23372,7 +23361,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J31:J32 J53</xm:sqref>
+          <xm:sqref>J31:J32 J52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{740018B9-C2F2-4044-831A-C9CA861CFDD4}">
@@ -23385,7 +23374,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U31:U33 U53</xm:sqref>
+          <xm:sqref>U31:U33 U52</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D231AAC0-08BC-480C-8677-749E49F0D90A}">
@@ -23398,7 +23387,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M53:N53 M31:N33</xm:sqref>
+          <xm:sqref>M52:N52 M31:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{108BB3FB-8971-428C-8622-17429EBD3654}">
@@ -23411,7 +23400,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M53:N53 M31:N33</xm:sqref>
+          <xm:sqref>M52:N52 M31:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1B2E28D6-619A-407F-9631-79595E46C97F}">
@@ -23424,7 +23413,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J53:J55 J31:J32</xm:sqref>
+          <xm:sqref>J52:J54 J31:J32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59B060A3-5169-484C-9E32-A34CEC5C7FF1}">
@@ -23437,7 +23426,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M53:M55 M31:M33</xm:sqref>
+          <xm:sqref>M52:M54 M31:M33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{725AB01A-6125-4180-85DD-3D988D931CE5}">
@@ -23450,7 +23439,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N53:N55 N31:N33</xm:sqref>
+          <xm:sqref>N52:N54 N31:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3AD491BA-61AA-425D-862C-BBC5E0035618}">
@@ -23463,7 +23452,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U53:U54 U31:U33</xm:sqref>
+          <xm:sqref>U52:U53 U31:U33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{00BC91CD-8F90-4273-B83B-1D9309E02ABA}">
@@ -23476,7 +23465,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M53:N55 M7:N7 M31:N33</xm:sqref>
+          <xm:sqref>M52:N54 M7:N7 M31:N33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{544FB895-45B3-41E1-A00A-34C34A6D5295}">
@@ -23489,7 +23478,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N55</xm:sqref>
+          <xm:sqref>N54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A7F7C0E5-BDA7-482B-96E2-D396F5636138}">
@@ -23502,7 +23491,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U55</xm:sqref>
+          <xm:sqref>U54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4077AED7-898C-4414-A896-234F03865C90}">
@@ -23515,7 +23504,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U55</xm:sqref>
+          <xm:sqref>U54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C80AC1E3-5948-4006-A1B4-8F9FFCC3B5C7}">
@@ -23528,7 +23517,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U55</xm:sqref>
+          <xm:sqref>U54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4647C4DF-1961-449C-822B-68C3E57CB9E7}">
@@ -24243,7 +24232,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U51:U52</xm:sqref>
+          <xm:sqref>U50:U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C58909CC-3EE9-4F1F-B8C6-039CA96C6E0D}">
@@ -24256,7 +24245,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M51:N52</xm:sqref>
+          <xm:sqref>M50:N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B5FA8225-FBE3-44D1-B12F-24A8664E3FD2}">
@@ -24269,7 +24258,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M51:N52</xm:sqref>
+          <xm:sqref>M50:N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{12A5E219-C455-42E5-945D-5127C08E6A7E}">
@@ -24282,7 +24271,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M51:M52</xm:sqref>
+          <xm:sqref>M50:M51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{1FBDF6B9-7BFD-4C6C-A992-E6F70E390C0F}">
@@ -24295,7 +24284,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N51:N52</xm:sqref>
+          <xm:sqref>N50:N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BD2FBC30-AC3F-4CD7-8EBF-C27CEDC608BF}">
@@ -24308,7 +24297,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U51:U52</xm:sqref>
+          <xm:sqref>U50:U51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0856F52B-0288-4484-B891-E68D65A39C37}">
@@ -24321,7 +24310,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M51:N52</xm:sqref>
+          <xm:sqref>M50:N51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F9A454FD-AAE0-4C15-8AAF-65ED42FF2912}">
@@ -24451,7 +24440,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U50</xm:sqref>
+          <xm:sqref>U49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7BEF1E64-46AF-48A1-94AC-0E7884EA4128}">
@@ -24464,7 +24453,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M50:N50</xm:sqref>
+          <xm:sqref>M49:N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{65FD7E3B-5F05-4743-A6F0-EA7360E17D43}">
@@ -24477,7 +24466,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M50:N50</xm:sqref>
+          <xm:sqref>M49:N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{59E64FBA-FF6B-4442-AC9C-06B88B930A41}">
@@ -24490,7 +24479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M50</xm:sqref>
+          <xm:sqref>M49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6063CF00-C4AA-4074-8808-D50CF05CD727}">
@@ -24503,7 +24492,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N50</xm:sqref>
+          <xm:sqref>N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5C38A9D6-BBA4-4667-9F40-5DDAF44AB407}">
@@ -24516,7 +24505,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>U50</xm:sqref>
+          <xm:sqref>U49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A95B5EDD-7331-46D3-9678-E875B3EE9FA6}">
@@ -24529,7 +24518,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>M50:N50</xm:sqref>
+          <xm:sqref>M49:N49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{424BE77F-4C99-446B-B1BC-6065628CF1D7}">
@@ -24542,7 +24531,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V54:W54</xm:sqref>
+          <xm:sqref>W53:X53</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BEF95891-9D7A-4C3C-B28D-86E1C70D2F8F}">
@@ -24555,7 +24544,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V55:W55</xm:sqref>
+          <xm:sqref>W54:X54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{64AAF945-5ED7-4CEB-8FF6-21897840F850}">
@@ -24568,7 +24557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V55:W55</xm:sqref>
+          <xm:sqref>W54:X54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{9C570BE1-6AD3-40F9-8AC6-4DB1FE7FFE10}">
@@ -24581,137 +24570,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>V55:W55</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37A03172-CD55-44EE-8BDF-F29243F56F04}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U34:U49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53DBEDB3-F0E6-46BA-93A9-F151D989D845}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U34:U49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2EC7118B-9095-490E-8037-AC03406BFEA6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5897E286-3993-40D0-AF00-964107CCC553}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5BDD0AA4-6DE9-4ADD-BEB7-675899B052FD}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97590315-91AF-4DC4-A5C5-489B8F434FA1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N49</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B4C6371D-DF78-4395-95BB-08F7695351B7}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N49</xm:sqref>
+          <xm:sqref>W54:X54</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{8EFD676A-87DE-4793-A389-333D66B9DA7A}">
@@ -24873,7 +24732,7 @@
               <x14:cfIcon iconSet="3Arrows" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K53 K32:K33</xm:sqref>
+          <xm:sqref>K52 K32:K33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="191" id="{114ECFA3-0821-47BE-B7AB-089367875297}">
@@ -24930,7 +24789,7 @@
               <x14:cfIcon iconSet="3Arrows" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K51:K52 K34:K49</xm:sqref>
+          <xm:sqref>K50:K51 K34:K48</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="57" id="{A6E7F667-E3CA-4B6B-822E-484CF02F32A1}">
@@ -24949,7 +24808,7 @@
               <x14:cfIcon iconSet="3Arrows" iconId="2"/>
             </x14:iconSet>
           </x14:cfRule>
-          <xm:sqref>K50</xm:sqref>
+          <xm:sqref>K49</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="12" id="{A70E0C30-2B1F-4119-859A-02C77EEA2754}">
@@ -24970,6 +24829,84 @@
           </x14:cfRule>
           <xm:sqref>K19:K23</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37A03172-CD55-44EE-8BDF-F29243F56F04}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U34:U48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53DBEDB3-F0E6-46BA-93A9-F151D989D845}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U34:U48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M34:M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EC7118B-9095-490E-8037-AC03406BFEA6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M34:M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N34:N48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N34:N48</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -24981,12 +24918,13 @@
   <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B7" sqref="B7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -47951,10 +47889,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C464"/>
+  <dimension ref="A1:C465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="C464" sqref="C464"/>
+    <sheetView topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="B458" sqref="B458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53068,6 +53006,17 @@
         <v>5919</v>
       </c>
     </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>54</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5920</v>
+      </c>
+      <c r="C465" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7806" uniqueCount="5922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7809" uniqueCount="5925">
   <si>
     <t>Эмитент</t>
   </si>
@@ -17787,6 +17787,15 @@
   </si>
   <si>
     <t>Стоимость позиции по текущей цене (USD) с НКД</t>
+  </si>
+  <si>
+    <t>US55616P1049</t>
+  </si>
+  <si>
+    <t>M US Equity</t>
+  </si>
+  <si>
+    <t>Macy's Inc</t>
   </si>
 </sst>
 </file>
@@ -18965,7 +18974,7 @@
   </sheetPr>
   <dimension ref="A1:X55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -20274,7 +20283,7 @@
         <v>38</v>
       </c>
       <c r="D34" s="7">
-        <f>R34/$R$54</f>
+        <f t="shared" ref="D34:D48" si="14">R34/$R$54</f>
         <v>0.22789061203107797</v>
       </c>
       <c r="E34" s="36">
@@ -20282,7 +20291,7 @@
         <v>449000</v>
       </c>
       <c r="F34" s="36">
-        <f t="shared" ref="F34:F38" si="14">$J$5-P34</f>
+        <f t="shared" ref="F34:F38" si="15">$J$5-P34</f>
         <v>1713692.5</v>
       </c>
       <c r="G34" s="57">
@@ -20307,11 +20316,11 @@
         <v>USD</v>
       </c>
       <c r="M34" s="7">
-        <f t="shared" ref="M34:N38" si="15">IF(O34&gt;0,Q34/O34-1,0)</f>
+        <f t="shared" ref="M34:N38" si="16">IF(O34&gt;0,Q34/O34-1,0)</f>
         <v>9.2665731747936242E-3</v>
       </c>
       <c r="N34" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5529706889482213E-3</v>
       </c>
       <c r="O34" s="36">
@@ -20331,11 +20340,11 @@
         <v>789887.53500000015</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" ref="S34:S38" si="16">Q34-O34</f>
+        <f t="shared" ref="S34:S38" si="17">Q34-O34</f>
         <v>429694.26271501184</v>
       </c>
       <c r="T34" s="36">
-        <f t="shared" ref="T34:T38" si="17">R34-P34</f>
+        <f t="shared" ref="T34:T38" si="18">R34-P34</f>
         <v>3580.035000000149</v>
       </c>
       <c r="U34" s="37">
@@ -20361,7 +20370,7 @@
         <v>4958</v>
       </c>
       <c r="D35" s="7">
-        <f>R35/$R$54</f>
+        <f t="shared" si="14"/>
         <v>6.0836472870082224E-2</v>
       </c>
       <c r="E35" s="36">
@@ -20369,7 +20378,7 @@
         <v>200000</v>
       </c>
       <c r="F35" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2289300</v>
       </c>
       <c r="G35" s="57">
@@ -20394,11 +20403,11 @@
         <v>USD</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.0801204210043629E-2</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.7930707166595781E-4</v>
       </c>
       <c r="O35" s="36">
@@ -20418,11 +20427,11 @@
         <v>210864.2</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>489766.49580000155</v>
       </c>
       <c r="T35" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>164.20000000001164</v>
       </c>
       <c r="U35" s="37">
@@ -20448,7 +20457,7 @@
         <v>5027</v>
       </c>
       <c r="D36" s="7">
-        <f>R36/$R$54</f>
+        <f t="shared" si="14"/>
         <v>6.0558175929537154E-2</v>
       </c>
       <c r="E36" s="36">
@@ -20456,7 +20465,7 @@
         <v>200000</v>
       </c>
       <c r="F36" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2293000</v>
       </c>
       <c r="G36" s="57">
@@ -20481,11 +20490,11 @@
         <v>USD</v>
       </c>
       <c r="M36" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.2385730503244901E-2</v>
       </c>
       <c r="N36" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1.4007729468598962E-2</v>
       </c>
       <c r="O36" s="36">
@@ -20505,11 +20514,11 @@
         <v>209899.59999999998</v>
       </c>
       <c r="S36" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>505689.40039999969</v>
       </c>
       <c r="T36" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2899.5999999999767</v>
       </c>
       <c r="U36" s="37">
@@ -20535,7 +20544,7 @@
         <v>4847</v>
       </c>
       <c r="D37" s="7">
-        <f>R37/$R$54</f>
+        <f t="shared" si="14"/>
         <v>5.8781760915724145E-2</v>
       </c>
       <c r="E37" s="36">
@@ -20543,7 +20552,7 @@
         <v>200000</v>
       </c>
       <c r="F37" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2291500</v>
       </c>
       <c r="G37" s="57">
@@ -20568,11 +20577,11 @@
         <v>USD</v>
       </c>
       <c r="M37" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4.5291651417569412E-3</v>
       </c>
       <c r="N37" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-2.2818225419664273E-2</v>
       </c>
       <c r="O37" s="36">
@@ -20592,11 +20601,11 @@
         <v>203742.4</v>
       </c>
       <c r="S37" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>54427.457599999383</v>
       </c>
       <c r="T37" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-4757.6000000000058</v>
       </c>
       <c r="U37" s="37">
@@ -20622,7 +20631,7 @@
         <v>5023</v>
       </c>
       <c r="D38" s="7">
-        <f>R38/$R$54</f>
+        <f t="shared" si="14"/>
         <v>5.7658590700565629E-2</v>
       </c>
       <c r="E38" s="36">
@@ -20630,7 +20639,7 @@
         <v>200000</v>
       </c>
       <c r="F38" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2304600</v>
       </c>
       <c r="G38" s="57">
@@ -20655,11 +20664,11 @@
         <v>USD</v>
       </c>
       <c r="M38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.0023606061745367E-2</v>
       </c>
       <c r="N38" s="7">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2.2770726714432143E-2</v>
       </c>
       <c r="O38" s="36">
@@ -20679,11 +20688,11 @@
         <v>199849.40000000002</v>
       </c>
       <c r="S38" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>345143.38060000166</v>
       </c>
       <c r="T38" s="36">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4449.4000000000233</v>
       </c>
       <c r="U38" s="37">
@@ -20709,7 +20718,7 @@
         <v>5625</v>
       </c>
       <c r="D39" s="7">
-        <f>R39/$R$54</f>
+        <f t="shared" si="14"/>
         <v>5.5026748708961508E-2</v>
       </c>
       <c r="E39" s="36">
@@ -20717,7 +20726,7 @@
         <v>200000</v>
       </c>
       <c r="F39" s="36">
-        <f t="shared" ref="F39:F48" si="18">$J$5-P39</f>
+        <f t="shared" ref="F39:F48" si="19">$J$5-P39</f>
         <v>2289750</v>
       </c>
       <c r="G39" s="57">
@@ -20742,11 +20751,11 @@
         <v>USD</v>
       </c>
       <c r="M39" s="7">
-        <f t="shared" ref="M39:M48" si="19">IF(O39&gt;0,Q39/O39-1,0)</f>
+        <f t="shared" ref="M39:M48" si="20">IF(O39&gt;0,Q39/O39-1,0)</f>
         <v>-0.10337672861712444</v>
       </c>
       <c r="N39" s="7">
-        <f t="shared" ref="N39:N48" si="20">IF(P39&gt;0,R39/P39-1,0)</f>
+        <f t="shared" ref="N39:N48" si="21">IF(P39&gt;0,R39/P39-1,0)</f>
         <v>-9.2855077288941823E-2</v>
       </c>
       <c r="O39" s="36">
@@ -20766,11 +20775,11 @@
         <v>190727.21999999997</v>
       </c>
       <c r="S39" s="36">
-        <f t="shared" ref="S39:S48" si="21">Q39-O39</f>
+        <f t="shared" ref="S39:S48" si="22">Q39-O39</f>
         <v>-1302886.1922200006</v>
       </c>
       <c r="T39" s="36">
-        <f t="shared" ref="T39:T48" si="22">R39-P39</f>
+        <f t="shared" ref="T39:T48" si="23">R39-P39</f>
         <v>-19522.780000000028</v>
       </c>
       <c r="U39" s="37">
@@ -20795,7 +20804,7 @@
         <v>5775</v>
       </c>
       <c r="D40" s="7">
-        <f>R40/$R$54</f>
+        <f t="shared" si="14"/>
         <v>5.2645506678540732E-2</v>
       </c>
       <c r="E40" s="36">
@@ -20803,7 +20812,7 @@
         <v>200000</v>
       </c>
       <c r="F40" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2321700</v>
       </c>
       <c r="G40" s="57">
@@ -20828,11 +20837,11 @@
         <v>USD</v>
       </c>
       <c r="M40" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.6295497387258671E-2</v>
       </c>
       <c r="N40" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3407964105440104E-2</v>
       </c>
       <c r="O40" s="36">
@@ -20852,11 +20861,11 @@
         <v>182473.63999999998</v>
       </c>
       <c r="S40" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>277006.60636000149</v>
       </c>
       <c r="T40" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4173.6399999999849</v>
       </c>
       <c r="U40" s="37">
@@ -20881,7 +20890,7 @@
         <v>5571</v>
       </c>
       <c r="D41" s="7">
-        <f>R41/$R$54</f>
+        <f t="shared" si="14"/>
         <v>3.4019132262267805E-2</v>
       </c>
       <c r="E41" s="36">
@@ -20889,7 +20898,7 @@
         <v>100000</v>
       </c>
       <c r="F41" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2384750</v>
       </c>
       <c r="G41" s="57">
@@ -20914,11 +20923,11 @@
         <v>USD</v>
       </c>
       <c r="M41" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0494470368590125E-2</v>
       </c>
       <c r="N41" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2.3107158351409973E-2</v>
       </c>
       <c r="O41" s="36">
@@ -20938,11 +20947,11 @@
         <v>117913.09999999999</v>
       </c>
       <c r="S41" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>398520.21189999953</v>
       </c>
       <c r="T41" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>2663.0999999999913</v>
       </c>
       <c r="U41" s="37">
@@ -20967,7 +20976,7 @@
         <v>5690</v>
       </c>
       <c r="D42" s="7">
-        <f>R42/$R$54</f>
+        <f t="shared" si="14"/>
         <v>2.8669258741408316E-2</v>
       </c>
       <c r="E42" s="36">
@@ -20975,7 +20984,7 @@
         <v>100000</v>
       </c>
       <c r="F42" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2400000</v>
       </c>
       <c r="G42" s="57">
@@ -21000,11 +21009,11 @@
         <v>USD</v>
       </c>
       <c r="M42" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-8.5957461497787602E-3</v>
       </c>
       <c r="N42" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-6.2999999999998613E-3</v>
       </c>
       <c r="O42" s="36">
@@ -21024,11 +21033,11 @@
         <v>99370.000000000015</v>
       </c>
       <c r="S42" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-51046.86999999918</v>
       </c>
       <c r="T42" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-629.99999999998545</v>
       </c>
       <c r="U42" s="37">
@@ -21053,7 +21062,7 @@
         <v>5029</v>
       </c>
       <c r="D43" s="7">
-        <f>R43/$R$54</f>
+        <f t="shared" si="14"/>
         <v>2.8077812827954678E-2</v>
       </c>
       <c r="E43" s="36">
@@ -21061,7 +21070,7 @@
         <v>100000</v>
       </c>
       <c r="F43" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2400000</v>
       </c>
       <c r="G43" s="57">
@@ -21086,11 +21095,11 @@
         <v>USD</v>
       </c>
       <c r="M43" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-1.1585669472204851E-2</v>
       </c>
       <c r="N43" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-2.6800000000000157E-2</v>
       </c>
       <c r="O43" s="36">
@@ -21110,11 +21119,11 @@
         <v>97319.999999999985</v>
       </c>
       <c r="S43" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-67587.320000001229</v>
       </c>
       <c r="T43" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-2680.0000000000146</v>
       </c>
       <c r="U43" s="37">
@@ -21139,7 +21148,7 @@
         <v>5046</v>
       </c>
       <c r="D44" s="7">
-        <f>R44/$R$54</f>
+        <f t="shared" si="14"/>
         <v>1.4193836392282024E-2</v>
       </c>
       <c r="E44" s="36">
@@ -21147,7 +21156,7 @@
         <v>50000</v>
       </c>
       <c r="F44" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2452500</v>
       </c>
       <c r="G44" s="57">
@@ -21172,11 +21181,11 @@
         <v>USD</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.1557757003832165E-2</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.5726315789473606E-2</v>
       </c>
       <c r="O44" s="36">
@@ -21196,11 +21205,11 @@
         <v>49197</v>
       </c>
       <c r="S44" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>219803.80300000031</v>
       </c>
       <c r="T44" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1697</v>
       </c>
       <c r="U44" s="37">
@@ -21225,7 +21234,7 @@
         <v>5667</v>
       </c>
       <c r="D45" s="7">
-        <f>R45/$R$54</f>
+        <f t="shared" si="14"/>
         <v>3.5542222752892073E-2</v>
       </c>
       <c r="E45" s="36">
@@ -21233,7 +21242,7 @@
         <v>100000</v>
       </c>
       <c r="F45" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2384675.7949531325</v>
       </c>
       <c r="G45" s="57">
@@ -21258,11 +21267,11 @@
         <v>EUR</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.225580434093291E-2</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.8225498669332918E-2</v>
       </c>
       <c r="O45" s="36">
@@ -21282,11 +21291,11 @@
         <v>123192.25644483449</v>
       </c>
       <c r="S45" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>362474.6520999996</v>
       </c>
       <c r="T45" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7868.051397966934</v>
       </c>
       <c r="U45" s="37">
@@ -21311,7 +21320,7 @@
         <v>5621</v>
       </c>
       <c r="D46" s="7">
-        <f>R46/$R$54</f>
+        <f t="shared" si="14"/>
         <v>3.3917247428588412E-2</v>
       </c>
       <c r="E46" s="36">
@@ -21319,7 +21328,7 @@
         <v>100000</v>
       </c>
       <c r="F46" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2389429.9838991207</v>
       </c>
       <c r="G46" s="57">
@@ -21344,11 +21353,11 @@
         <v>EUR</v>
       </c>
       <c r="M46" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.0814973064255122E-2</v>
       </c>
       <c r="N46" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.3217343756321265E-2</v>
       </c>
       <c r="O46" s="36">
@@ -21368,11 +21377,11 @@
         <v>117559.95881787034</v>
       </c>
       <c r="S46" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>579891.59999999963</v>
       </c>
       <c r="T46" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6989.9427169912524</v>
       </c>
       <c r="U46" s="37">
@@ -21397,7 +21406,7 @@
         <v>5415</v>
       </c>
       <c r="D47" s="7">
-        <f>R47/$R$54</f>
+        <f t="shared" si="14"/>
         <v>3.3917247428588412E-2</v>
       </c>
       <c r="E47" s="36">
@@ -21405,7 +21414,7 @@
         <v>100000</v>
       </c>
       <c r="F47" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2391139.9885039567</v>
       </c>
       <c r="G47" s="57">
@@ -21430,11 +21439,11 @@
         <v>EUR</v>
       </c>
       <c r="M47" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14573833915635293</v>
       </c>
       <c r="N47" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.9918669879462723E-2</v>
       </c>
       <c r="O47" s="36">
@@ -21454,11 +21463,11 @@
         <v>117559.95881787034</v>
       </c>
       <c r="S47" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>885990</v>
       </c>
       <c r="T47" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8699.9473218268249</v>
       </c>
       <c r="U47" s="37">
@@ -21483,7 +21492,7 @@
         <v>5025</v>
       </c>
       <c r="D48" s="7">
-        <f>R48/$R$54</f>
+        <f t="shared" si="14"/>
         <v>6.2005008889224764E-2</v>
       </c>
       <c r="E48" s="36">
@@ -21491,7 +21500,7 @@
         <v>200000</v>
       </c>
       <c r="F48" s="36">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2297468.4495017841</v>
       </c>
       <c r="G48" s="57">
@@ -21516,11 +21525,11 @@
         <v>CHF</v>
       </c>
       <c r="M48" s="7">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-3.4265814672266526E-2</v>
       </c>
       <c r="N48" s="7">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.1140553485488303E-2</v>
       </c>
       <c r="O48" s="36">
@@ -21540,11 +21549,11 @@
         <v>214914.44159395096</v>
       </c>
       <c r="S48" s="36">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>-451804.00999999978</v>
       </c>
       <c r="T48" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>12382.891095735045</v>
       </c>
       <c r="U48" s="37">
@@ -24716,6 +24725,84 @@
           <xm:sqref>J19:J23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{37A03172-CD55-44EE-8BDF-F29243F56F04}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U34:U48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{53DBEDB3-F0E6-46BA-93A9-F151D989D845}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>U34:U48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M34:M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EC7118B-9095-490E-8037-AC03406BFEA6}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M34:M48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N34:N48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>N34:N48</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="250" id="{EF154165-A510-48D6-8441-6E52AFB69160}">
             <x14:iconSet iconSet="3Arrows" custom="1">
               <x14:cfvo type="percent">
@@ -24829,84 +24916,6 @@
           </x14:cfRule>
           <xm:sqref>K19:K23</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{37A03172-CD55-44EE-8BDF-F29243F56F04}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U34:U48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{53DBEDB3-F0E6-46BA-93A9-F151D989D845}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>U34:U48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B740C84E-5F03-4F37-A03A-10F8B50DBEA1}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2EC7118B-9095-490E-8037-AC03406BFEA6}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>M34:M48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{68DC8697-ABAA-4D41-9623-BE17B35DE3BE}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF008AEF"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N48</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FFC26DD-82EF-4613-9B31-5E9ACB2876BA}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:borderColor rgb="FF638EC6"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:negativeBorderColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>N34:N48</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
@@ -47889,10 +47898,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C465"/>
+  <dimension ref="A1:C466"/>
   <sheetViews>
-    <sheetView topLeftCell="A426" workbookViewId="0">
-      <selection activeCell="B458" sqref="B458"/>
+    <sheetView tabSelected="1" topLeftCell="A426" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53017,6 +53026,17 @@
         <v>56</v>
       </c>
     </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>5922</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5923</v>
+      </c>
+      <c r="C466" t="s">
+        <v>5924</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/sberweb/resources/public/templates/CLIENT_WEB.xlsx
+++ b/sberweb/resources/public/templates/CLIENT_WEB.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="240" windowWidth="23580" windowHeight="14505"/>
   </bookViews>
   <sheets>
     <sheet name="Client" sheetId="1" r:id="rId1"/>
@@ -18874,11 +18874,11 @@
   </sheetPr>
   <dimension ref="A1:X52"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="Q50" sqref="Q50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19048,7 +19048,7 @@
       </c>
       <c r="D6" s="7">
         <f>R6/$R$51</f>
-        <v>3.0510877060802067E-2</v>
+        <v>3.2379224371569162E-2</v>
       </c>
       <c r="E6" s="36">
         <f>VLOOKUP(C6,Data!$B:$P,4,FALSE)</f>
@@ -19141,7 +19141,7 @@
       </c>
       <c r="D7" s="7">
         <f>R7/$R$51</f>
-        <v>1.4098916535927758E-2</v>
+        <v>1.4962270045633056E-2</v>
       </c>
       <c r="E7" s="36">
         <f>VLOOKUP(C7,Data!$B:$P,4,FALSE)</f>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="D8" s="7">
         <f>R8/$R$51</f>
-        <v>2.1862026021007133E-2</v>
+        <v>2.3200757039550823E-2</v>
       </c>
       <c r="E8" s="36">
         <f>VLOOKUP(C8,Data!$B:$P,4,FALSE)</f>
@@ -19327,7 +19327,7 @@
       </c>
       <c r="D9" s="7">
         <f>R9/$R$51</f>
-        <v>1.5114077453630201E-2</v>
+        <v>1.6039594799753757E-2</v>
       </c>
       <c r="E9" s="36">
         <f>VLOOKUP(C9,Data!$B:$P,4,FALSE)</f>
@@ -19420,7 +19420,7 @@
       </c>
       <c r="D10" s="7">
         <f>R10/$R$51</f>
-        <v>1.6972428033997643E-2</v>
+        <v>1.8011742315632844E-2</v>
       </c>
       <c r="E10" s="36">
         <f>VLOOKUP(C10,Data!$B:$P,4,FALSE)</f>
@@ -20010,7 +20010,7 @@
       <c r="C29" s="38"/>
       <c r="D29" s="43">
         <f>SUM(D6:D28)</f>
-        <v>9.8558325105364802E-2</v>
+        <v>0.10459358857213963</v>
       </c>
       <c r="E29" s="43"/>
       <c r="F29" s="36"/>
@@ -20022,11 +20022,11 @@
       <c r="L29" s="11"/>
       <c r="M29" s="7">
         <f>SUMPRODUCT($D$6:$D$20,M6:M20)</f>
-        <v>4.4367766821995745E-3</v>
+        <v>4.7084647023814437E-3</v>
       </c>
       <c r="N29" s="7">
         <f>SUMPRODUCT($D$6:$D$20,N6:N20)</f>
-        <v>2.927315395165869E-3</v>
+        <v>3.1065708729886197E-3</v>
       </c>
       <c r="O29" s="36"/>
       <c r="P29" s="40">
@@ -20099,7 +20099,7 @@
       </c>
       <c r="D31" s="7">
         <f t="shared" ref="D31:D45" si="11">R31/$R$51</f>
-        <v>0.22789061203107797</v>
+        <v>0.24184559638924111</v>
       </c>
       <c r="E31" s="36">
         <f>VLOOKUP(C31,Data!$B:$P,4,FALSE)</f>
@@ -20186,7 +20186,7 @@
       </c>
       <c r="D32" s="7">
         <f t="shared" si="11"/>
-        <v>6.0836472870082224E-2</v>
+        <v>6.456182171065683E-2</v>
       </c>
       <c r="E32" s="36">
         <f>VLOOKUP(C32,Data!$B:$P,4,FALSE)</f>
@@ -20273,7 +20273,7 @@
       </c>
       <c r="D33" s="7">
         <f t="shared" si="11"/>
-        <v>6.0558175929537154E-2</v>
+        <v>6.4266483131504459E-2</v>
       </c>
       <c r="E33" s="36">
         <f>VLOOKUP(C33,Data!$B:$P,4,FALSE)</f>
@@ -20360,7 +20360,7 @@
       </c>
       <c r="D34" s="7">
         <f t="shared" si="11"/>
-        <v>5.8781760915724145E-2</v>
+        <v>6.2381288543533364E-2</v>
       </c>
       <c r="E34" s="36">
         <f>VLOOKUP(C34,Data!$B:$P,4,FALSE)</f>
@@ -20447,7 +20447,7 @@
       </c>
       <c r="D35" s="7">
         <f t="shared" si="11"/>
-        <v>5.7658590700565629E-2</v>
+        <v>6.1189340493937532E-2</v>
       </c>
       <c r="E35" s="36">
         <f>VLOOKUP(C35,Data!$B:$P,4,FALSE)</f>
@@ -20534,7 +20534,7 @@
       </c>
       <c r="D36" s="7">
         <f t="shared" si="11"/>
-        <v>5.5026748708961508E-2</v>
+        <v>5.8396336471573738E-2</v>
       </c>
       <c r="E36" s="36">
         <f>VLOOKUP(C36,Data!$B:$P,4,FALSE)</f>
@@ -20620,7 +20620,7 @@
       </c>
       <c r="D37" s="7">
         <f t="shared" si="11"/>
-        <v>5.2645506678540732E-2</v>
+        <v>5.5869278011983908E-2</v>
       </c>
       <c r="E37" s="36">
         <f>VLOOKUP(C37,Data!$B:$P,4,FALSE)</f>
@@ -20706,7 +20706,7 @@
       </c>
       <c r="D38" s="7">
         <f t="shared" si="11"/>
-        <v>3.4019132262267805E-2</v>
+        <v>3.6102309161777341E-2</v>
       </c>
       <c r="E38" s="36">
         <f>VLOOKUP(C38,Data!$B:$P,4,FALSE)</f>
@@ -20792,7 +20792,7 @@
       </c>
       <c r="D39" s="7">
         <f t="shared" si="11"/>
-        <v>2.8669258741408316E-2</v>
+        <v>3.0424833724207193E-2</v>
       </c>
       <c r="E39" s="36">
         <f>VLOOKUP(C39,Data!$B:$P,4,FALSE)</f>
@@ -20878,7 +20878,7 @@
       </c>
       <c r="D40" s="7">
         <f t="shared" si="11"/>
-        <v>2.8077812827954678E-2</v>
+        <v>2.9797170353626275E-2</v>
       </c>
       <c r="E40" s="36">
         <f>VLOOKUP(C40,Data!$B:$P,4,FALSE)</f>
@@ -20964,7 +20964,7 @@
       </c>
       <c r="D41" s="7">
         <f t="shared" si="11"/>
-        <v>1.4193836392282024E-2</v>
+        <v>1.5063002362179943E-2</v>
       </c>
       <c r="E41" s="36">
         <f>VLOOKUP(C41,Data!$B:$P,4,FALSE)</f>
@@ -21050,7 +21050,7 @@
       </c>
       <c r="D42" s="7">
         <f t="shared" si="11"/>
-        <v>3.5542222752892073E-2</v>
+        <v>3.7718666785186483E-2</v>
       </c>
       <c r="E42" s="36">
         <f>VLOOKUP(C42,Data!$B:$P,4,FALSE)</f>
@@ -21136,7 +21136,7 @@
       </c>
       <c r="D43" s="7">
         <f t="shared" si="11"/>
-        <v>3.3917247428588412E-2</v>
+        <v>3.5994185364379087E-2</v>
       </c>
       <c r="E43" s="36">
         <f>VLOOKUP(C43,Data!$B:$P,4,FALSE)</f>
@@ -21222,7 +21222,7 @@
       </c>
       <c r="D44" s="7">
         <f t="shared" si="11"/>
-        <v>3.3917247428588412E-2</v>
+        <v>3.5994185364379087E-2</v>
       </c>
       <c r="E44" s="36">
         <f>VLOOKUP(C44,Data!$B:$P,4,FALSE)</f>
@@ -21308,7 +21308,7 @@
       </c>
       <c r="D45" s="7">
         <f t="shared" si="11"/>
-        <v>6.2005008889224764E-2</v>
+        <v>6.5801913559694017E-2</v>
       </c>
       <c r="E45" s="36">
         <f>VLOOKUP(C45,Data!$B:$P,4,FALSE)</f>
@@ -21458,7 +21458,7 @@
       <c r="C49" s="6"/>
       <c r="D49" s="43">
         <f>SUM(D31:D48)</f>
-        <v>0.84373963455769574</v>
+        <v>0.89540641142786026</v>
       </c>
       <c r="E49" s="43"/>
       <c r="F49" s="36"/>
@@ -21467,17 +21467,17 @@
       <c r="I49" s="9"/>
       <c r="J49" s="10">
         <f>SUMPRODUCT(J31:J48,D31:D48)</f>
-        <v>4.1479783793291633E-2</v>
+        <v>4.4019817052478441E-2</v>
       </c>
       <c r="K49" s="9"/>
       <c r="L49" s="11"/>
       <c r="M49" s="7">
         <f>SUMPRODUCT($D$31:$D$35,M31:M35)</f>
-        <v>9.1581200257227317E-3</v>
+        <v>9.7189216338719655E-3</v>
       </c>
       <c r="N49" s="7">
         <f>SUMPRODUCT($D$31:$D$35,N31:N35)</f>
-        <v>1.9049046563616901E-3</v>
+        <v>2.0215523517028845E-3</v>
       </c>
       <c r="O49" s="36"/>
       <c r="P49" s="40">
@@ -21513,7 +21513,7 @@
       <c r="C50" s="13"/>
       <c r="D50" s="14">
         <f>R50/R51</f>
-        <v>5.7702040336939341E-2</v>
+        <v>0</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="15"/>
@@ -21528,18 +21528,19 @@
       <c r="O50" s="15"/>
       <c r="P50" s="15"/>
       <c r="Q50" s="15">
-        <f>R50*Data!G2/Data!F2</f>
-        <v>11849800</v>
+        <f>SUMIF(Data!$J:$J,"Cash",Data!$G:$G)</f>
+        <v>0</v>
       </c>
       <c r="R50" s="20">
-        <v>200000</v>
+        <f>SUMIF(Data!$J:$J,"Cash",Data!$F:$F)</f>
+        <v>0</v>
       </c>
       <c r="S50" s="21"/>
       <c r="T50" s="22"/>
       <c r="U50" s="18"/>
       <c r="V50" s="20">
         <f>R50</f>
-        <v>200000</v>
+        <v>0</v>
       </c>
       <c r="W50" s="18"/>
       <c r="X50" s="18"/>
@@ -21561,11 +21562,11 @@
       <c r="L51" s="26"/>
       <c r="M51" s="28">
         <f>M29+M49</f>
-        <v>1.3594896707922306E-2</v>
+        <v>1.4427386336253409E-2</v>
       </c>
       <c r="N51" s="28">
         <f>N29+N49</f>
-        <v>4.832220051527559E-3</v>
+        <v>5.1281232246915042E-3</v>
       </c>
       <c r="O51" s="29">
         <f>SUM(O6:O50)</f>
@@ -21577,11 +21578,11 @@
       </c>
       <c r="Q51" s="29">
         <f>Q29+Q49+Q50</f>
-        <v>205361888.95237499</v>
+        <v>193512088.95237499</v>
       </c>
       <c r="R51" s="29">
         <f>R29+R49+R50</f>
-        <v>3466081.9415074517</v>
+        <v>3266081.9415074517</v>
       </c>
       <c r="S51" s="29">
         <f>S29+S49+S50</f>
@@ -21593,11 +21594,11 @@
       </c>
       <c r="U51" s="28">
         <f>SUMPRODUCT($D$6:$D$48,U6:U48)/100</f>
-        <v>4.8835612379798075E-2</v>
+        <v>5.1826083118401672E-2</v>
       </c>
       <c r="V51" s="29">
         <f>V29+V49+V50</f>
-        <v>3505312.255514896</v>
+        <v>3305312.255514896</v>
       </c>
       <c r="W51" s="28"/>
       <c r="X51" s="28"/>
@@ -25933,7 +25934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1555"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1527" workbookViewId="0">
+    <sheetView topLeftCell="A1527" workbookViewId="0">
       <selection activeCell="D1554" sqref="D1554"/>
     </sheetView>
   </sheetViews>
